--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -5,11 +5,16 @@
   <sheets>
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_8C5E459B_F781_4902_BF57_DF5AFCFB730D_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8C5E459B-F781-4902-BF57-DF5AFCFB730D}" name="Filtro 1"/>
+  </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh1C2Rg4z5G+CF4u9Lc2Jk8kQoYtQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgppbr6QK10FqNFf4Dos1wFGmhEAA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,6 +26,14 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="I488">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAANX2VODA
+Daniel Nogueira Hammer    (2021-07-31 20:07:34)
+no boletim está 144.08</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G477">
       <text>
         <t xml:space="preserve">======
@@ -82,7 +95,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgkb10dz5Nlsk6fclh77t/ALalg8g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miLvMMOgJDvb3YLSuOImfaGAriPRw=="/>
     </ext>
   </extLst>
 </comments>
@@ -193,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -240,6 +253,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -465,7 +484,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
@@ -542,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A489" si="1">A2+1</f>
+        <f t="shared" ref="A3:A520" si="1">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -552,7 +574,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D487" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D489" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -15336,35 +15358,35 @@
       <c r="B487" s="4">
         <v>44406.0</v>
       </c>
-      <c r="C487" s="15">
+      <c r="C487" s="1">
         <v>28104.0</v>
       </c>
       <c r="D487" s="2">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="E487" s="15">
+      <c r="E487" s="1">
         <v>560.0</v>
       </c>
-      <c r="F487" s="15">
+      <c r="F487" s="1">
         <v>98.0</v>
       </c>
-      <c r="G487" s="15">
+      <c r="G487" s="1">
         <v>95.0</v>
       </c>
-      <c r="H487" s="15">
+      <c r="H487" s="1">
         <v>50.0</v>
       </c>
-      <c r="I487" s="15">
+      <c r="I487" s="1">
         <v>143670.0</v>
       </c>
-      <c r="J487" s="15">
+      <c r="J487" s="1">
         <v>51953.0</v>
       </c>
-      <c r="K487" s="15">
+      <c r="K487" s="1">
         <v>5878.0</v>
       </c>
-      <c r="L487" s="15">
+      <c r="L487" s="1">
         <v>201501.0</v>
       </c>
     </row>
@@ -15376,16 +15398,37 @@
       <c r="B488" s="4">
         <v>44407.0</v>
       </c>
-      <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
-      <c r="H488" s="2"/>
-      <c r="I488" s="2"/>
-      <c r="J488" s="2"/>
-      <c r="K488" s="2"/>
-      <c r="L488" s="2"/>
+      <c r="C488" s="15">
+        <v>28135.0</v>
+      </c>
+      <c r="D488" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E488" s="15">
+        <v>560.0</v>
+      </c>
+      <c r="F488" s="15">
+        <v>98.0</v>
+      </c>
+      <c r="G488" s="15">
+        <v>97.0</v>
+      </c>
+      <c r="H488" s="15">
+        <v>49.0</v>
+      </c>
+      <c r="I488" s="16">
+        <v>144080.0</v>
+      </c>
+      <c r="J488" s="15">
+        <v>54367.0</v>
+      </c>
+      <c r="K488" s="15">
+        <v>5884.0</v>
+      </c>
+      <c r="L488" s="15">
+        <v>204336.0</v>
+      </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="1">
@@ -15395,49 +15438,320 @@
       <c r="B489" s="4">
         <v>44408.0</v>
       </c>
-      <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
-      <c r="H489" s="2"/>
-      <c r="I489" s="2"/>
-      <c r="J489" s="2"/>
-      <c r="K489" s="2"/>
-      <c r="L489" s="2"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
+      <c r="C489" s="15">
+        <v>28217.0</v>
+      </c>
+      <c r="D489" s="2">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E489" s="15">
+        <v>560.0</v>
+      </c>
+      <c r="F489" s="15">
+        <v>93.0</v>
+      </c>
+      <c r="G489" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="H489" s="15">
+        <v>45.0</v>
+      </c>
+      <c r="I489" s="15">
+        <v>145289.0</v>
+      </c>
+      <c r="J489" s="15">
+        <v>55719.0</v>
+      </c>
+      <c r="K489" s="15">
+        <v>5884.0</v>
+      </c>
+      <c r="L489" s="15">
+        <v>206892.0</v>
+      </c>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="1">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="4">
+        <v>44409.0</v>
+      </c>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="1">
+        <f t="shared" si="1"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="4">
+        <v>44410.0</v>
+      </c>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="1">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="4">
+        <v>44411.0</v>
+      </c>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="1">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="4">
+        <v>44412.0</v>
+      </c>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="1">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="4">
+        <v>44413.0</v>
+      </c>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="1">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="4">
+        <v>44414.0</v>
+      </c>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="1">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="4">
+        <v>44415.0</v>
+      </c>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="1">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="4">
+        <v>44416.0</v>
+      </c>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="1">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="B498" s="4">
+        <v>44417.0</v>
+      </c>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="1">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="4">
+        <v>44418.0</v>
+      </c>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="1">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="4">
+        <v>44419.0</v>
+      </c>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="1">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="4">
+        <v>44420.0</v>
+      </c>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="4">
+        <v>44421.0</v>
+      </c>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="1">
+        <f t="shared" si="1"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="4">
+        <v>44422.0</v>
+      </c>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="1">
+        <f t="shared" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="4">
+        <v>44423.0</v>
+      </c>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="1">
+        <f t="shared" si="1"/>
+        <v>503</v>
+      </c>
+      <c r="B505" s="4">
+        <v>44424.0</v>
+      </c>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="A506" s="1">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="B506" s="4">
+        <v>44425.0</v>
+      </c>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="A507" s="1">
+        <f t="shared" si="1"/>
+        <v>505</v>
+      </c>
+      <c r="B507" s="4">
+        <v>44426.0</v>
+      </c>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="A508" s="1">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+      <c r="B508" s="4">
+        <v>44427.0</v>
+      </c>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="A509" s="1">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+      <c r="B509" s="4">
+        <v>44428.0</v>
+      </c>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="A510" s="1">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="B510" s="4">
+        <v>44429.0</v>
+      </c>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="A511" s="1">
+        <f t="shared" si="1"/>
+        <v>509</v>
+      </c>
+      <c r="B511" s="4">
+        <v>44430.0</v>
+      </c>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="A512" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="B512" s="4">
+        <v>44431.0</v>
+      </c>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="A513" s="1">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="B513" s="4">
+        <v>44432.0</v>
+      </c>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="A514" s="1">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="B514" s="4">
+        <v>44433.0</v>
+      </c>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="A515" s="1">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
+      <c r="B515" s="4">
+        <v>44434.0</v>
+      </c>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="A516" s="1">
+        <f t="shared" si="1"/>
+        <v>514</v>
+      </c>
+      <c r="B516" s="4">
+        <v>44435.0</v>
+      </c>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="A517" s="1">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="B517" s="4">
+        <v>44436.0</v>
+      </c>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="A518" s="1">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="B518" s="4">
+        <v>44437.0</v>
+      </c>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="A519" s="1">
+        <f t="shared" si="1"/>
+        <v>517</v>
+      </c>
+      <c r="B519" s="4">
+        <v>44438.0</v>
+      </c>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="A520" s="1">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+      <c r="B520" s="4">
+        <v>44439.0</v>
+      </c>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="B521" s="17"/>
+    </row>
     <row r="522" ht="15.75" customHeight="1"/>
     <row r="523" ht="15.75" customHeight="1"/>
     <row r="524" ht="15.75" customHeight="1"/>
@@ -15918,6 +16232,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{8C5E459B-F781-4902-BF57-DF5AFCFB730D}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$G$9"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="473743405"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="C210">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C210))&gt;0</formula>

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_8C5E459B_F781_4902_BF57_DF5AFCFB730D_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_35B53A02_2CED_4375_A753_341DF5F2FA7E_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8C5E459B-F781-4902-BF57-DF5AFCFB730D}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{35B53A02-2CED-4375-A753-341DF5F2FA7E}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -95,7 +95,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miLvMMOgJDvb3YLSuOImfaGAriPRw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgXH8Yftvi4L0xY/EXwvbq6Pt1r/A=="/>
     </ext>
   </extLst>
 </comments>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -253,12 +253,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -574,7 +568,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D489" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D492" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -15398,35 +15392,35 @@
       <c r="B488" s="4">
         <v>44407.0</v>
       </c>
-      <c r="C488" s="15">
+      <c r="C488" s="1">
         <v>28135.0</v>
       </c>
       <c r="D488" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E488" s="15">
+      <c r="E488" s="1">
         <v>560.0</v>
       </c>
-      <c r="F488" s="15">
+      <c r="F488" s="1">
         <v>98.0</v>
       </c>
-      <c r="G488" s="15">
+      <c r="G488" s="1">
         <v>97.0</v>
       </c>
-      <c r="H488" s="15">
+      <c r="H488" s="1">
         <v>49.0</v>
       </c>
-      <c r="I488" s="16">
+      <c r="I488" s="14">
         <v>144080.0</v>
       </c>
-      <c r="J488" s="15">
+      <c r="J488" s="1">
         <v>54367.0</v>
       </c>
-      <c r="K488" s="15">
+      <c r="K488" s="1">
         <v>5884.0</v>
       </c>
-      <c r="L488" s="15">
+      <c r="L488" s="1">
         <v>204336.0</v>
       </c>
     </row>
@@ -15438,35 +15432,35 @@
       <c r="B489" s="4">
         <v>44408.0</v>
       </c>
-      <c r="C489" s="15">
+      <c r="C489" s="1">
         <v>28217.0</v>
       </c>
       <c r="D489" s="2">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="E489" s="15">
+      <c r="E489" s="1">
         <v>560.0</v>
       </c>
-      <c r="F489" s="15">
+      <c r="F489" s="1">
         <v>93.0</v>
       </c>
-      <c r="G489" s="15">
+      <c r="G489" s="1">
         <v>92.0</v>
       </c>
-      <c r="H489" s="15">
+      <c r="H489" s="1">
         <v>45.0</v>
       </c>
-      <c r="I489" s="15">
+      <c r="I489" s="1">
         <v>145289.0</v>
       </c>
-      <c r="J489" s="15">
+      <c r="J489" s="1">
         <v>55719.0</v>
       </c>
-      <c r="K489" s="15">
+      <c r="K489" s="1">
         <v>5884.0</v>
       </c>
-      <c r="L489" s="15">
+      <c r="L489" s="1">
         <v>206892.0</v>
       </c>
     </row>
@@ -15478,6 +15472,37 @@
       <c r="B490" s="4">
         <v>44409.0</v>
       </c>
+      <c r="C490" s="15">
+        <v>28271.0</v>
+      </c>
+      <c r="D490" s="2">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E490" s="15">
+        <v>560.0</v>
+      </c>
+      <c r="F490" s="15">
+        <v>88.0</v>
+      </c>
+      <c r="G490" s="15">
+        <v>86.0</v>
+      </c>
+      <c r="H490" s="15">
+        <v>47.0</v>
+      </c>
+      <c r="I490" s="15">
+        <v>145325.0</v>
+      </c>
+      <c r="J490" s="15">
+        <v>55885.0</v>
+      </c>
+      <c r="K490" s="15">
+        <v>5884.0</v>
+      </c>
+      <c r="L490" s="15">
+        <v>207094.0</v>
+      </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="1">
@@ -15487,6 +15512,37 @@
       <c r="B491" s="4">
         <v>44410.0</v>
       </c>
+      <c r="C491" s="15">
+        <v>28302.0</v>
+      </c>
+      <c r="D491" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E491" s="15">
+        <v>560.0</v>
+      </c>
+      <c r="F491" s="15">
+        <v>93.0</v>
+      </c>
+      <c r="G491" s="15">
+        <v>89.0</v>
+      </c>
+      <c r="H491" s="15">
+        <v>53.0</v>
+      </c>
+      <c r="I491" s="15">
+        <v>145435.0</v>
+      </c>
+      <c r="J491" s="15">
+        <v>55960.0</v>
+      </c>
+      <c r="K491" s="15">
+        <v>5884.0</v>
+      </c>
+      <c r="L491" s="15">
+        <v>207279.0</v>
+      </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="1">
@@ -15496,6 +15552,37 @@
       <c r="B492" s="4">
         <v>44411.0</v>
       </c>
+      <c r="C492" s="15">
+        <v>28390.0</v>
+      </c>
+      <c r="D492" s="2">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E492" s="15">
+        <v>560.0</v>
+      </c>
+      <c r="F492" s="15">
+        <v>97.0</v>
+      </c>
+      <c r="G492" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="H492" s="15">
+        <v>54.0</v>
+      </c>
+      <c r="I492" s="15">
+        <v>146911.0</v>
+      </c>
+      <c r="J492" s="15">
+        <v>56636.0</v>
+      </c>
+      <c r="K492" s="15">
+        <v>5884.0</v>
+      </c>
+      <c r="L492" s="15">
+        <v>209431.0</v>
+      </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="1">
@@ -15505,6 +15592,16 @@
       <c r="B493" s="4">
         <v>44412.0</v>
       </c>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
+      <c r="H493" s="2"/>
+      <c r="I493" s="2"/>
+      <c r="J493" s="2"/>
+      <c r="K493" s="2"/>
+      <c r="L493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="1">
@@ -15514,6 +15611,16 @@
       <c r="B494" s="4">
         <v>44413.0</v>
       </c>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
+      <c r="G494" s="2"/>
+      <c r="H494" s="2"/>
+      <c r="I494" s="2"/>
+      <c r="J494" s="2"/>
+      <c r="K494" s="2"/>
+      <c r="L494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="1">
@@ -15523,6 +15630,16 @@
       <c r="B495" s="4">
         <v>44414.0</v>
       </c>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+      <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
+      <c r="H495" s="2"/>
+      <c r="I495" s="2"/>
+      <c r="J495" s="2"/>
+      <c r="K495" s="2"/>
+      <c r="L495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="1">
@@ -15532,6 +15649,16 @@
       <c r="B496" s="4">
         <v>44415.0</v>
       </c>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
+      <c r="G496" s="2"/>
+      <c r="H496" s="2"/>
+      <c r="I496" s="2"/>
+      <c r="J496" s="2"/>
+      <c r="K496" s="2"/>
+      <c r="L496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="1">
@@ -15541,6 +15668,16 @@
       <c r="B497" s="4">
         <v>44416.0</v>
       </c>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="2"/>
+      <c r="F497" s="2"/>
+      <c r="G497" s="2"/>
+      <c r="H497" s="2"/>
+      <c r="I497" s="2"/>
+      <c r="J497" s="2"/>
+      <c r="K497" s="2"/>
+      <c r="L497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="1">
@@ -15550,6 +15687,16 @@
       <c r="B498" s="4">
         <v>44417.0</v>
       </c>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+      <c r="F498" s="2"/>
+      <c r="G498" s="2"/>
+      <c r="H498" s="2"/>
+      <c r="I498" s="2"/>
+      <c r="J498" s="2"/>
+      <c r="K498" s="2"/>
+      <c r="L498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="1">
@@ -15559,6 +15706,16 @@
       <c r="B499" s="4">
         <v>44418.0</v>
       </c>
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="2"/>
+      <c r="F499" s="2"/>
+      <c r="G499" s="2"/>
+      <c r="H499" s="2"/>
+      <c r="I499" s="2"/>
+      <c r="J499" s="2"/>
+      <c r="K499" s="2"/>
+      <c r="L499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="1">
@@ -15568,6 +15725,16 @@
       <c r="B500" s="4">
         <v>44419.0</v>
       </c>
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
+      <c r="H500" s="2"/>
+      <c r="I500" s="2"/>
+      <c r="J500" s="2"/>
+      <c r="K500" s="2"/>
+      <c r="L500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="1">
@@ -15577,6 +15744,16 @@
       <c r="B501" s="4">
         <v>44420.0</v>
       </c>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="2"/>
+      <c r="F501" s="2"/>
+      <c r="G501" s="2"/>
+      <c r="H501" s="2"/>
+      <c r="I501" s="2"/>
+      <c r="J501" s="2"/>
+      <c r="K501" s="2"/>
+      <c r="L501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="1">
@@ -15586,6 +15763,16 @@
       <c r="B502" s="4">
         <v>44421.0</v>
       </c>
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="2"/>
+      <c r="F502" s="2"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
+      <c r="I502" s="2"/>
+      <c r="J502" s="2"/>
+      <c r="K502" s="2"/>
+      <c r="L502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="1">
@@ -15595,6 +15782,16 @@
       <c r="B503" s="4">
         <v>44422.0</v>
       </c>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2"/>
+      <c r="F503" s="2"/>
+      <c r="G503" s="2"/>
+      <c r="H503" s="2"/>
+      <c r="I503" s="2"/>
+      <c r="J503" s="2"/>
+      <c r="K503" s="2"/>
+      <c r="L503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="1">
@@ -15604,6 +15801,16 @@
       <c r="B504" s="4">
         <v>44423.0</v>
       </c>
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+      <c r="E504" s="2"/>
+      <c r="F504" s="2"/>
+      <c r="G504" s="2"/>
+      <c r="H504" s="2"/>
+      <c r="I504" s="2"/>
+      <c r="J504" s="2"/>
+      <c r="K504" s="2"/>
+      <c r="L504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="1">
@@ -15613,6 +15820,16 @@
       <c r="B505" s="4">
         <v>44424.0</v>
       </c>
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2"/>
+      <c r="K505" s="2"/>
+      <c r="L505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="1">
@@ -15622,6 +15839,16 @@
       <c r="B506" s="4">
         <v>44425.0</v>
       </c>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
+      <c r="G506" s="2"/>
+      <c r="H506" s="2"/>
+      <c r="I506" s="2"/>
+      <c r="J506" s="2"/>
+      <c r="K506" s="2"/>
+      <c r="L506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="1">
@@ -15631,6 +15858,16 @@
       <c r="B507" s="4">
         <v>44426.0</v>
       </c>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+      <c r="I507" s="2"/>
+      <c r="J507" s="2"/>
+      <c r="K507" s="2"/>
+      <c r="L507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="1">
@@ -15640,6 +15877,16 @@
       <c r="B508" s="4">
         <v>44427.0</v>
       </c>
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+      <c r="E508" s="2"/>
+      <c r="F508" s="2"/>
+      <c r="G508" s="2"/>
+      <c r="H508" s="2"/>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+      <c r="K508" s="2"/>
+      <c r="L508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="1">
@@ -15649,6 +15896,16 @@
       <c r="B509" s="4">
         <v>44428.0</v>
       </c>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+      <c r="E509" s="2"/>
+      <c r="F509" s="2"/>
+      <c r="G509" s="2"/>
+      <c r="H509" s="2"/>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+      <c r="K509" s="2"/>
+      <c r="L509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="1">
@@ -15658,6 +15915,16 @@
       <c r="B510" s="4">
         <v>44429.0</v>
       </c>
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+      <c r="K510" s="2"/>
+      <c r="L510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="1">
@@ -15667,6 +15934,16 @@
       <c r="B511" s="4">
         <v>44430.0</v>
       </c>
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
+      <c r="J511" s="2"/>
+      <c r="K511" s="2"/>
+      <c r="L511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="1">
@@ -15676,6 +15953,16 @@
       <c r="B512" s="4">
         <v>44431.0</v>
       </c>
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
+      <c r="J512" s="2"/>
+      <c r="K512" s="2"/>
+      <c r="L512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="1">
@@ -15685,6 +15972,16 @@
       <c r="B513" s="4">
         <v>44432.0</v>
       </c>
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
+      <c r="J513" s="2"/>
+      <c r="K513" s="2"/>
+      <c r="L513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="1">
@@ -15694,6 +15991,16 @@
       <c r="B514" s="4">
         <v>44433.0</v>
       </c>
+      <c r="C514" s="2"/>
+      <c r="D514" s="2"/>
+      <c r="E514" s="2"/>
+      <c r="F514" s="2"/>
+      <c r="G514" s="2"/>
+      <c r="H514" s="2"/>
+      <c r="I514" s="2"/>
+      <c r="J514" s="2"/>
+      <c r="K514" s="2"/>
+      <c r="L514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="1">
@@ -15703,6 +16010,16 @@
       <c r="B515" s="4">
         <v>44434.0</v>
       </c>
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+      <c r="E515" s="2"/>
+      <c r="F515" s="2"/>
+      <c r="G515" s="2"/>
+      <c r="H515" s="2"/>
+      <c r="I515" s="2"/>
+      <c r="J515" s="2"/>
+      <c r="K515" s="2"/>
+      <c r="L515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="1">
@@ -15712,6 +16029,16 @@
       <c r="B516" s="4">
         <v>44435.0</v>
       </c>
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+      <c r="E516" s="2"/>
+      <c r="F516" s="2"/>
+      <c r="G516" s="2"/>
+      <c r="H516" s="2"/>
+      <c r="I516" s="2"/>
+      <c r="J516" s="2"/>
+      <c r="K516" s="2"/>
+      <c r="L516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="1">
@@ -15721,6 +16048,16 @@
       <c r="B517" s="4">
         <v>44436.0</v>
       </c>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+      <c r="E517" s="2"/>
+      <c r="F517" s="2"/>
+      <c r="G517" s="2"/>
+      <c r="H517" s="2"/>
+      <c r="I517" s="2"/>
+      <c r="J517" s="2"/>
+      <c r="K517" s="2"/>
+      <c r="L517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="1">
@@ -15730,6 +16067,16 @@
       <c r="B518" s="4">
         <v>44437.0</v>
       </c>
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
+      <c r="E518" s="2"/>
+      <c r="F518" s="2"/>
+      <c r="G518" s="2"/>
+      <c r="H518" s="2"/>
+      <c r="I518" s="2"/>
+      <c r="J518" s="2"/>
+      <c r="K518" s="2"/>
+      <c r="L518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="1">
@@ -15739,6 +16086,16 @@
       <c r="B519" s="4">
         <v>44438.0</v>
       </c>
+      <c r="C519" s="2"/>
+      <c r="D519" s="2"/>
+      <c r="E519" s="2"/>
+      <c r="F519" s="2"/>
+      <c r="G519" s="2"/>
+      <c r="H519" s="2"/>
+      <c r="I519" s="2"/>
+      <c r="J519" s="2"/>
+      <c r="K519" s="2"/>
+      <c r="L519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="1">
@@ -15748,9 +16105,19 @@
       <c r="B520" s="4">
         <v>44439.0</v>
       </c>
+      <c r="C520" s="2"/>
+      <c r="D520" s="2"/>
+      <c r="E520" s="2"/>
+      <c r="F520" s="2"/>
+      <c r="G520" s="2"/>
+      <c r="H520" s="2"/>
+      <c r="I520" s="2"/>
+      <c r="J520" s="2"/>
+      <c r="K520" s="2"/>
+      <c r="L520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="17"/>
+      <c r="B521" s="4"/>
     </row>
     <row r="522" ht="15.75" customHeight="1"/>
     <row r="523" ht="15.75" customHeight="1"/>
@@ -16233,7 +16600,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8C5E459B-F781-4902-BF57-DF5AFCFB730D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{35B53A02-2CED-4375-A753-341DF5F2FA7E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_35B53A02_2CED_4375_A753_341DF5F2FA7E_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1B7F48FD_B353_4FFD_A0DA_E3D5BAFE3953_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{35B53A02-2CED-4375-A753-341DF5F2FA7E}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1B7F48FD-B353-4FFD-A0DA-E3D5BAFE3953}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -568,7 +568,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D492" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D496" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -15472,35 +15472,35 @@
       <c r="B490" s="4">
         <v>44409.0</v>
       </c>
-      <c r="C490" s="15">
+      <c r="C490" s="1">
         <v>28271.0</v>
       </c>
       <c r="D490" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E490" s="15">
+      <c r="E490" s="1">
         <v>560.0</v>
       </c>
-      <c r="F490" s="15">
+      <c r="F490" s="1">
         <v>88.0</v>
       </c>
-      <c r="G490" s="15">
+      <c r="G490" s="1">
         <v>86.0</v>
       </c>
-      <c r="H490" s="15">
+      <c r="H490" s="1">
         <v>47.0</v>
       </c>
-      <c r="I490" s="15">
+      <c r="I490" s="1">
         <v>145325.0</v>
       </c>
-      <c r="J490" s="15">
+      <c r="J490" s="1">
         <v>55885.0</v>
       </c>
-      <c r="K490" s="15">
+      <c r="K490" s="1">
         <v>5884.0</v>
       </c>
-      <c r="L490" s="15">
+      <c r="L490" s="1">
         <v>207094.0</v>
       </c>
     </row>
@@ -15512,35 +15512,35 @@
       <c r="B491" s="4">
         <v>44410.0</v>
       </c>
-      <c r="C491" s="15">
+      <c r="C491" s="1">
         <v>28302.0</v>
       </c>
       <c r="D491" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="E491" s="15">
+      <c r="E491" s="1">
         <v>560.0</v>
       </c>
-      <c r="F491" s="15">
+      <c r="F491" s="1">
         <v>93.0</v>
       </c>
-      <c r="G491" s="15">
+      <c r="G491" s="1">
         <v>89.0</v>
       </c>
-      <c r="H491" s="15">
+      <c r="H491" s="1">
         <v>53.0</v>
       </c>
-      <c r="I491" s="15">
+      <c r="I491" s="1">
         <v>145435.0</v>
       </c>
-      <c r="J491" s="15">
+      <c r="J491" s="1">
         <v>55960.0</v>
       </c>
-      <c r="K491" s="15">
+      <c r="K491" s="1">
         <v>5884.0</v>
       </c>
-      <c r="L491" s="15">
+      <c r="L491" s="1">
         <v>207279.0</v>
       </c>
     </row>
@@ -15552,35 +15552,35 @@
       <c r="B492" s="4">
         <v>44411.0</v>
       </c>
-      <c r="C492" s="15">
+      <c r="C492" s="1">
         <v>28390.0</v>
       </c>
       <c r="D492" s="2">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="E492" s="15">
+      <c r="E492" s="1">
         <v>560.0</v>
       </c>
-      <c r="F492" s="15">
+      <c r="F492" s="1">
         <v>97.0</v>
       </c>
-      <c r="G492" s="15">
+      <c r="G492" s="1">
         <v>92.0</v>
       </c>
-      <c r="H492" s="15">
+      <c r="H492" s="1">
         <v>54.0</v>
       </c>
-      <c r="I492" s="15">
+      <c r="I492" s="1">
         <v>146911.0</v>
       </c>
-      <c r="J492" s="15">
+      <c r="J492" s="1">
         <v>56636.0</v>
       </c>
-      <c r="K492" s="15">
+      <c r="K492" s="1">
         <v>5884.0</v>
       </c>
-      <c r="L492" s="15">
+      <c r="L492" s="1">
         <v>209431.0</v>
       </c>
     </row>
@@ -15592,16 +15592,37 @@
       <c r="B493" s="4">
         <v>44412.0</v>
       </c>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="2"/>
-      <c r="F493" s="2"/>
-      <c r="G493" s="2"/>
-      <c r="H493" s="2"/>
-      <c r="I493" s="2"/>
-      <c r="J493" s="2"/>
-      <c r="K493" s="2"/>
-      <c r="L493" s="2"/>
+      <c r="C493" s="15">
+        <v>28464.0</v>
+      </c>
+      <c r="D493" s="2">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E493" s="15">
+        <v>562.0</v>
+      </c>
+      <c r="F493" s="15">
+        <v>93.0</v>
+      </c>
+      <c r="G493" s="15">
+        <v>89.0</v>
+      </c>
+      <c r="H493" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="I493" s="15">
+        <v>149376.0</v>
+      </c>
+      <c r="J493" s="15">
+        <v>57776.0</v>
+      </c>
+      <c r="K493" s="15">
+        <v>5902.0</v>
+      </c>
+      <c r="L493" s="15">
+        <v>213054.0</v>
+      </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="1">
@@ -15611,16 +15632,37 @@
       <c r="B494" s="4">
         <v>44413.0</v>
       </c>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
-      <c r="H494" s="2"/>
-      <c r="I494" s="2"/>
-      <c r="J494" s="2"/>
-      <c r="K494" s="2"/>
-      <c r="L494" s="2"/>
+      <c r="C494" s="15">
+        <v>28535.0</v>
+      </c>
+      <c r="D494" s="2">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E494" s="15">
+        <v>563.0</v>
+      </c>
+      <c r="F494" s="15">
+        <v>87.0</v>
+      </c>
+      <c r="G494" s="15">
+        <v>83.0</v>
+      </c>
+      <c r="H494" s="15">
+        <v>46.0</v>
+      </c>
+      <c r="I494" s="15">
+        <v>151641.0</v>
+      </c>
+      <c r="J494" s="15">
+        <v>58547.0</v>
+      </c>
+      <c r="K494" s="15">
+        <v>5941.0</v>
+      </c>
+      <c r="L494" s="15">
+        <v>216129.0</v>
+      </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="1">
@@ -15630,16 +15672,37 @@
       <c r="B495" s="4">
         <v>44414.0</v>
       </c>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
-      <c r="H495" s="2"/>
-      <c r="I495" s="2"/>
-      <c r="J495" s="2"/>
-      <c r="K495" s="2"/>
-      <c r="L495" s="2"/>
+      <c r="C495" s="15">
+        <v>28599.0</v>
+      </c>
+      <c r="D495" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E495" s="15">
+        <v>563.0</v>
+      </c>
+      <c r="F495" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="G495" s="15">
+        <v>77.0</v>
+      </c>
+      <c r="H495" s="15">
+        <v>42.0</v>
+      </c>
+      <c r="I495" s="15">
+        <v>153463.0</v>
+      </c>
+      <c r="J495" s="15">
+        <v>59261.0</v>
+      </c>
+      <c r="K495" s="15">
+        <v>5941.0</v>
+      </c>
+      <c r="L495" s="15">
+        <v>218665.0</v>
+      </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="1">
@@ -15649,16 +15712,37 @@
       <c r="B496" s="4">
         <v>44415.0</v>
       </c>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="F496" s="2"/>
-      <c r="G496" s="2"/>
-      <c r="H496" s="2"/>
-      <c r="I496" s="2"/>
-      <c r="J496" s="2"/>
-      <c r="K496" s="2"/>
-      <c r="L496" s="2"/>
+      <c r="C496" s="15">
+        <v>28666.0</v>
+      </c>
+      <c r="D496" s="2">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E496" s="15">
+        <v>563.0</v>
+      </c>
+      <c r="F496" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="G496" s="15">
+        <v>70.0</v>
+      </c>
+      <c r="H496" s="15">
+        <v>45.0</v>
+      </c>
+      <c r="I496" s="15">
+        <v>155437.0</v>
+      </c>
+      <c r="J496" s="15">
+        <v>60118.0</v>
+      </c>
+      <c r="K496" s="15">
+        <v>5941.0</v>
+      </c>
+      <c r="L496" s="15">
+        <v>221496.0</v>
+      </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="1">
@@ -16600,7 +16684,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{35B53A02-2CED-4375-A753-341DF5F2FA7E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1B7F48FD-B353-4FFD-A0DA-E3D5BAFE3953}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_1B7F48FD_B353_4FFD_A0DA_E3D5BAFE3953_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_12621F90_3527_4EC5_8665_E3613A458E47_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1B7F48FD-B353-4FFD-A0DA-E3D5BAFE3953}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{12621F90-3527-4EC5-8665-E3613A458E47}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -568,7 +568,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D496" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D503" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -15592,35 +15592,35 @@
       <c r="B493" s="4">
         <v>44412.0</v>
       </c>
-      <c r="C493" s="15">
+      <c r="C493" s="1">
         <v>28464.0</v>
       </c>
       <c r="D493" s="2">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="E493" s="15">
+      <c r="E493" s="1">
         <v>562.0</v>
       </c>
-      <c r="F493" s="15">
+      <c r="F493" s="1">
         <v>93.0</v>
       </c>
-      <c r="G493" s="15">
+      <c r="G493" s="1">
         <v>89.0</v>
       </c>
-      <c r="H493" s="15">
+      <c r="H493" s="1">
         <v>44.0</v>
       </c>
-      <c r="I493" s="15">
+      <c r="I493" s="1">
         <v>149376.0</v>
       </c>
-      <c r="J493" s="15">
+      <c r="J493" s="1">
         <v>57776.0</v>
       </c>
-      <c r="K493" s="15">
+      <c r="K493" s="1">
         <v>5902.0</v>
       </c>
-      <c r="L493" s="15">
+      <c r="L493" s="1">
         <v>213054.0</v>
       </c>
     </row>
@@ -15632,35 +15632,35 @@
       <c r="B494" s="4">
         <v>44413.0</v>
       </c>
-      <c r="C494" s="15">
+      <c r="C494" s="1">
         <v>28535.0</v>
       </c>
       <c r="D494" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="E494" s="15">
+      <c r="E494" s="1">
         <v>563.0</v>
       </c>
-      <c r="F494" s="15">
+      <c r="F494" s="1">
         <v>87.0</v>
       </c>
-      <c r="G494" s="15">
+      <c r="G494" s="1">
         <v>83.0</v>
       </c>
-      <c r="H494" s="15">
+      <c r="H494" s="1">
         <v>46.0</v>
       </c>
-      <c r="I494" s="15">
+      <c r="I494" s="1">
         <v>151641.0</v>
       </c>
-      <c r="J494" s="15">
+      <c r="J494" s="1">
         <v>58547.0</v>
       </c>
-      <c r="K494" s="15">
+      <c r="K494" s="1">
         <v>5941.0</v>
       </c>
-      <c r="L494" s="15">
+      <c r="L494" s="1">
         <v>216129.0</v>
       </c>
     </row>
@@ -15672,35 +15672,35 @@
       <c r="B495" s="4">
         <v>44414.0</v>
       </c>
-      <c r="C495" s="15">
+      <c r="C495" s="1">
         <v>28599.0</v>
       </c>
       <c r="D495" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E495" s="15">
+      <c r="E495" s="1">
         <v>563.0</v>
       </c>
-      <c r="F495" s="15">
+      <c r="F495" s="1">
         <v>80.0</v>
       </c>
-      <c r="G495" s="15">
+      <c r="G495" s="1">
         <v>77.0</v>
       </c>
-      <c r="H495" s="15">
+      <c r="H495" s="1">
         <v>42.0</v>
       </c>
-      <c r="I495" s="15">
+      <c r="I495" s="1">
         <v>153463.0</v>
       </c>
-      <c r="J495" s="15">
+      <c r="J495" s="1">
         <v>59261.0</v>
       </c>
-      <c r="K495" s="15">
+      <c r="K495" s="1">
         <v>5941.0</v>
       </c>
-      <c r="L495" s="15">
+      <c r="L495" s="1">
         <v>218665.0</v>
       </c>
     </row>
@@ -15712,35 +15712,35 @@
       <c r="B496" s="4">
         <v>44415.0</v>
       </c>
-      <c r="C496" s="15">
+      <c r="C496" s="1">
         <v>28666.0</v>
       </c>
       <c r="D496" s="2">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="E496" s="15">
+      <c r="E496" s="1">
         <v>563.0</v>
       </c>
-      <c r="F496" s="15">
+      <c r="F496" s="1">
         <v>72.0</v>
       </c>
-      <c r="G496" s="15">
+      <c r="G496" s="1">
         <v>70.0</v>
       </c>
-      <c r="H496" s="15">
+      <c r="H496" s="1">
         <v>45.0</v>
       </c>
-      <c r="I496" s="15">
+      <c r="I496" s="1">
         <v>155437.0</v>
       </c>
-      <c r="J496" s="15">
+      <c r="J496" s="1">
         <v>60118.0</v>
       </c>
-      <c r="K496" s="15">
+      <c r="K496" s="1">
         <v>5941.0</v>
       </c>
-      <c r="L496" s="15">
+      <c r="L496" s="1">
         <v>221496.0</v>
       </c>
     </row>
@@ -15752,16 +15752,37 @@
       <c r="B497" s="4">
         <v>44416.0</v>
       </c>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="2"/>
-      <c r="F497" s="2"/>
-      <c r="G497" s="2"/>
-      <c r="H497" s="2"/>
-      <c r="I497" s="2"/>
-      <c r="J497" s="2"/>
-      <c r="K497" s="2"/>
-      <c r="L497" s="2"/>
+      <c r="C497" s="1">
+        <v>28716.0</v>
+      </c>
+      <c r="D497" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E497" s="1">
+        <v>563.0</v>
+      </c>
+      <c r="F497" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="G497" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="H497" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I497" s="1">
+        <v>155901.0</v>
+      </c>
+      <c r="J497" s="1">
+        <v>60262.0</v>
+      </c>
+      <c r="K497" s="1">
+        <v>5941.0</v>
+      </c>
+      <c r="L497" s="1">
+        <v>222104.0</v>
+      </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="1">
@@ -15771,16 +15792,37 @@
       <c r="B498" s="4">
         <v>44417.0</v>
       </c>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="F498" s="2"/>
-      <c r="G498" s="2"/>
-      <c r="H498" s="2"/>
-      <c r="I498" s="2"/>
-      <c r="J498" s="2"/>
-      <c r="K498" s="2"/>
-      <c r="L498" s="2"/>
+      <c r="C498" s="1">
+        <v>28730.0</v>
+      </c>
+      <c r="D498" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E498" s="1">
+        <v>564.0</v>
+      </c>
+      <c r="F498" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="G498" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="H498" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="I498" s="1">
+        <v>156053.0</v>
+      </c>
+      <c r="J498" s="1">
+        <v>60289.0</v>
+      </c>
+      <c r="K498" s="1">
+        <v>5941.0</v>
+      </c>
+      <c r="L498" s="1">
+        <v>222283.0</v>
+      </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="1">
@@ -15790,16 +15832,37 @@
       <c r="B499" s="4">
         <v>44418.0</v>
       </c>
-      <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-      <c r="E499" s="2"/>
-      <c r="F499" s="2"/>
-      <c r="G499" s="2"/>
-      <c r="H499" s="2"/>
-      <c r="I499" s="2"/>
-      <c r="J499" s="2"/>
-      <c r="K499" s="2"/>
-      <c r="L499" s="2"/>
+      <c r="C499" s="1">
+        <v>28771.0</v>
+      </c>
+      <c r="D499" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E499" s="1">
+        <v>565.0</v>
+      </c>
+      <c r="F499" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="G499" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="H499" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="I499" s="1">
+        <v>157889.0</v>
+      </c>
+      <c r="J499" s="1">
+        <v>60963.0</v>
+      </c>
+      <c r="K499" s="1">
+        <v>5942.0</v>
+      </c>
+      <c r="L499" s="1">
+        <v>224794.0</v>
+      </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="1">
@@ -15809,16 +15872,37 @@
       <c r="B500" s="4">
         <v>44419.0</v>
       </c>
-      <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-      <c r="E500" s="2"/>
-      <c r="F500" s="2"/>
-      <c r="G500" s="2"/>
-      <c r="H500" s="2"/>
-      <c r="I500" s="2"/>
-      <c r="J500" s="2"/>
-      <c r="K500" s="2"/>
-      <c r="L500" s="2"/>
+      <c r="C500" s="1">
+        <v>28865.0</v>
+      </c>
+      <c r="D500" s="2">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E500" s="1">
+        <v>565.0</v>
+      </c>
+      <c r="F500" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="G500" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="H500" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="I500" s="1">
+        <v>158919.0</v>
+      </c>
+      <c r="J500" s="1">
+        <v>61676.0</v>
+      </c>
+      <c r="K500" s="1">
+        <v>5942.0</v>
+      </c>
+      <c r="L500" s="1">
+        <v>226537.0</v>
+      </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="1">
@@ -15828,16 +15912,37 @@
       <c r="B501" s="4">
         <v>44420.0</v>
       </c>
-      <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="2"/>
-      <c r="F501" s="2"/>
-      <c r="G501" s="2"/>
-      <c r="H501" s="2"/>
-      <c r="I501" s="2"/>
-      <c r="J501" s="2"/>
-      <c r="K501" s="2"/>
-      <c r="L501" s="2"/>
+      <c r="C501" s="1">
+        <v>28904.0</v>
+      </c>
+      <c r="D501" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E501" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="F501" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="G501" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="H501" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="I501" s="1">
+        <v>160557.0</v>
+      </c>
+      <c r="J501" s="1">
+        <v>62633.0</v>
+      </c>
+      <c r="K501" s="1">
+        <v>5943.0</v>
+      </c>
+      <c r="L501" s="1">
+        <v>229133.0</v>
+      </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="1">
@@ -15847,16 +15952,37 @@
       <c r="B502" s="4">
         <v>44421.0</v>
       </c>
-      <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="2"/>
-      <c r="F502" s="2"/>
-      <c r="G502" s="2"/>
-      <c r="H502" s="2"/>
-      <c r="I502" s="2"/>
-      <c r="J502" s="2"/>
-      <c r="K502" s="2"/>
-      <c r="L502" s="2"/>
+      <c r="C502" s="1">
+        <v>28956.0</v>
+      </c>
+      <c r="D502" s="2">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E502" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="F502" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="G502" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="H502" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="I502" s="1">
+        <v>162744.0</v>
+      </c>
+      <c r="J502" s="1">
+        <v>63766.0</v>
+      </c>
+      <c r="K502" s="1">
+        <v>5943.0</v>
+      </c>
+      <c r="L502" s="1">
+        <v>232453.0</v>
+      </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="1">
@@ -15866,16 +15992,37 @@
       <c r="B503" s="4">
         <v>44422.0</v>
       </c>
-      <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="2"/>
-      <c r="F503" s="2"/>
-      <c r="G503" s="2"/>
-      <c r="H503" s="2"/>
-      <c r="I503" s="2"/>
-      <c r="J503" s="2"/>
-      <c r="K503" s="2"/>
-      <c r="L503" s="2"/>
+      <c r="C503" s="15">
+        <v>28995.0</v>
+      </c>
+      <c r="D503" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E503" s="15">
+        <v>566.0</v>
+      </c>
+      <c r="F503" s="15">
+        <v>58.0</v>
+      </c>
+      <c r="G503" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="H503" s="15">
+        <v>34.0</v>
+      </c>
+      <c r="I503" s="15">
+        <v>165134.0</v>
+      </c>
+      <c r="J503" s="15">
+        <v>64846.0</v>
+      </c>
+      <c r="K503" s="15">
+        <v>6943.0</v>
+      </c>
+      <c r="L503" s="15">
+        <v>235923.0</v>
+      </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="1">
@@ -16684,7 +16831,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1B7F48FD-B353-4FFD-A0DA-E3D5BAFE3953}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{12621F90-3527-4EC5-8665-E3613A458E47}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_12621F90_3527_4EC5_8665_E3613A458E47_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3048ACAE_E4B1_45E5_83C0_B10EF9140B30_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{12621F90-3527-4EC5-8665-E3613A458E47}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3048ACAE-E4B1-45E5-83C0-B10EF9140B30}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -568,7 +568,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D503" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D510" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -15992,35 +15992,35 @@
       <c r="B503" s="4">
         <v>44422.0</v>
       </c>
-      <c r="C503" s="15">
+      <c r="C503" s="1">
         <v>28995.0</v>
       </c>
       <c r="D503" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E503" s="15">
+      <c r="E503" s="1">
         <v>566.0</v>
       </c>
-      <c r="F503" s="15">
+      <c r="F503" s="1">
         <v>58.0</v>
       </c>
-      <c r="G503" s="15">
+      <c r="G503" s="1">
         <v>56.0</v>
       </c>
-      <c r="H503" s="15">
+      <c r="H503" s="1">
         <v>34.0</v>
       </c>
-      <c r="I503" s="15">
+      <c r="I503" s="1">
         <v>165134.0</v>
       </c>
-      <c r="J503" s="15">
+      <c r="J503" s="1">
         <v>64846.0</v>
       </c>
-      <c r="K503" s="15">
-        <v>6943.0</v>
-      </c>
-      <c r="L503" s="15">
+      <c r="K503" s="1">
+        <v>5943.0</v>
+      </c>
+      <c r="L503" s="1">
         <v>235923.0</v>
       </c>
     </row>
@@ -16032,16 +16032,37 @@
       <c r="B504" s="4">
         <v>44423.0</v>
       </c>
-      <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-      <c r="E504" s="2"/>
-      <c r="F504" s="2"/>
-      <c r="G504" s="2"/>
-      <c r="H504" s="2"/>
-      <c r="I504" s="2"/>
-      <c r="J504" s="2"/>
-      <c r="K504" s="2"/>
-      <c r="L504" s="2"/>
+      <c r="C504" s="1">
+        <v>29027.0</v>
+      </c>
+      <c r="D504" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E504" s="1">
+        <v>568.0</v>
+      </c>
+      <c r="F504" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="G504" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="H504" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="I504" s="1">
+        <v>165247.0</v>
+      </c>
+      <c r="J504" s="1">
+        <v>64890.0</v>
+      </c>
+      <c r="K504" s="1">
+        <v>5943.0</v>
+      </c>
+      <c r="L504" s="1">
+        <v>236080.0</v>
+      </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="1">
@@ -16051,16 +16072,37 @@
       <c r="B505" s="4">
         <v>44424.0</v>
       </c>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-      <c r="E505" s="2"/>
-      <c r="F505" s="2"/>
-      <c r="G505" s="2"/>
-      <c r="H505" s="2"/>
-      <c r="I505" s="2"/>
-      <c r="J505" s="2"/>
-      <c r="K505" s="2"/>
-      <c r="L505" s="2"/>
+      <c r="C505" s="1">
+        <v>29034.0</v>
+      </c>
+      <c r="D505" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E505" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="F505" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="G505" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="H505" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="I505" s="1">
+        <v>165300.0</v>
+      </c>
+      <c r="J505" s="1">
+        <v>64950.0</v>
+      </c>
+      <c r="K505" s="1">
+        <v>5943.0</v>
+      </c>
+      <c r="L505" s="1">
+        <v>236193.0</v>
+      </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="1">
@@ -16070,16 +16112,37 @@
       <c r="B506" s="4">
         <v>44425.0</v>
       </c>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-      <c r="E506" s="2"/>
-      <c r="F506" s="2"/>
-      <c r="G506" s="2"/>
-      <c r="H506" s="2"/>
-      <c r="I506" s="2"/>
-      <c r="J506" s="2"/>
-      <c r="K506" s="2"/>
-      <c r="L506" s="2"/>
+      <c r="C506" s="1">
+        <v>29114.0</v>
+      </c>
+      <c r="D506" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E506" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="F506" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="G506" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="H506" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="I506" s="1">
+        <v>167382.0</v>
+      </c>
+      <c r="J506" s="1">
+        <v>66139.0</v>
+      </c>
+      <c r="K506" s="1">
+        <v>5944.0</v>
+      </c>
+      <c r="L506" s="1">
+        <v>239465.0</v>
+      </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="1">
@@ -16089,16 +16152,37 @@
       <c r="B507" s="4">
         <v>44426.0</v>
       </c>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="2"/>
-      <c r="F507" s="2"/>
-      <c r="G507" s="2"/>
-      <c r="H507" s="2"/>
-      <c r="I507" s="2"/>
-      <c r="J507" s="2"/>
-      <c r="K507" s="2"/>
-      <c r="L507" s="2"/>
+      <c r="C507" s="1">
+        <v>29167.0</v>
+      </c>
+      <c r="D507" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="E507" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="F507" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="G507" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="H507" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="I507" s="1">
+        <v>169292.0</v>
+      </c>
+      <c r="J507" s="1">
+        <v>67944.0</v>
+      </c>
+      <c r="K507" s="1">
+        <v>5944.0</v>
+      </c>
+      <c r="L507" s="1">
+        <v>243180.0</v>
+      </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="1">
@@ -16108,16 +16192,37 @@
       <c r="B508" s="4">
         <v>44427.0</v>
       </c>
-      <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-      <c r="E508" s="2"/>
-      <c r="F508" s="2"/>
-      <c r="G508" s="2"/>
-      <c r="H508" s="2"/>
-      <c r="I508" s="2"/>
-      <c r="J508" s="2"/>
-      <c r="K508" s="2"/>
-      <c r="L508" s="2"/>
+      <c r="C508" s="1">
+        <v>29194.0</v>
+      </c>
+      <c r="D508" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E508" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="F508" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="G508" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="H508" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I508" s="1">
+        <v>171294.0</v>
+      </c>
+      <c r="J508" s="1">
+        <v>69946.0</v>
+      </c>
+      <c r="K508" s="1">
+        <v>5944.0</v>
+      </c>
+      <c r="L508" s="1">
+        <v>247184.0</v>
+      </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="1">
@@ -16127,16 +16232,37 @@
       <c r="B509" s="4">
         <v>44428.0</v>
       </c>
-      <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-      <c r="E509" s="2"/>
-      <c r="F509" s="2"/>
-      <c r="G509" s="2"/>
-      <c r="H509" s="2"/>
-      <c r="I509" s="2"/>
-      <c r="J509" s="2"/>
-      <c r="K509" s="2"/>
-      <c r="L509" s="2"/>
+      <c r="C509" s="1">
+        <v>29225.0</v>
+      </c>
+      <c r="D509" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E509" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="F509" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="G509" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="H509" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="I509" s="1">
+        <v>173042.0</v>
+      </c>
+      <c r="J509" s="1">
+        <v>71889.0</v>
+      </c>
+      <c r="K509" s="1">
+        <v>5944.0</v>
+      </c>
+      <c r="L509" s="1">
+        <v>250875.0</v>
+      </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="1">
@@ -16146,16 +16272,37 @@
       <c r="B510" s="4">
         <v>44429.0</v>
       </c>
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="2"/>
-      <c r="F510" s="2"/>
-      <c r="G510" s="2"/>
-      <c r="H510" s="2"/>
-      <c r="I510" s="2"/>
-      <c r="J510" s="2"/>
-      <c r="K510" s="2"/>
-      <c r="L510" s="2"/>
+      <c r="C510" s="15">
+        <v>29271.0</v>
+      </c>
+      <c r="D510" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E510" s="15">
+        <v>570.0</v>
+      </c>
+      <c r="F510" s="15">
+        <v>41.0</v>
+      </c>
+      <c r="G510" s="15">
+        <v>41.0</v>
+      </c>
+      <c r="H510" s="15">
+        <v>23.0</v>
+      </c>
+      <c r="I510" s="15">
+        <v>174035.0</v>
+      </c>
+      <c r="J510" s="15">
+        <v>74818.0</v>
+      </c>
+      <c r="K510" s="15">
+        <v>5977.0</v>
+      </c>
+      <c r="L510" s="15">
+        <v>254830.0</v>
+      </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="1">
@@ -16831,7 +16978,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{12621F90-3527-4EC5-8665-E3613A458E47}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3048ACAE-E4B1-45E5-83C0-B10EF9140B30}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,15 +6,15 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_3048ACAE_E4B1_45E5_83C0_B10EF9140B30_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3D47EBC0_2541_4FA8_B20D_D6C6F15D89F7_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3048ACAE-E4B1-45E5-83C0-B10EF9140B30}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3D47EBC0-2541-4FA8-B20D-D6C6F15D89F7}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgppbr6QK10FqNFf4Dos1wFGmhEAA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi0rmjeiBQm4x3+fU+J16YuQuflDQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +26,26 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="J1">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAO9jLkpc
+Daniel Nogueira Hammer    (2021-09-11 23:40:13)
+A partir do dia 10/09 a prefeitura passou a comunicar 2a dose + dose única neste campo.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J530">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAO9jLkpY
+Daniel Nogueira Hammer    (2021-09-11 23:39:56)
+A partir do dia 10/09 a prefeitura passou a comunicar 2a dose + dose única neste campo.
+------
+ID#AAAAPo0CRA0
+Daniel Nogueira Hammer    (2021-09-17 22:40:18)
+Sugestão: Fazer uma coluna para 2a dose + unica aí subtrair do valor da dose unica pra obter 2a dose</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="I488">
       <text>
         <t xml:space="preserve">======
@@ -42,7 +62,7 @@
 valor entra em conflito com o mostrado de internações totais</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L462">
+    <comment authorId="0" ref="M462">
       <text>
         <t xml:space="preserve">======
 ID#AAAANNmOp70
@@ -95,14 +115,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgXH8Yftvi4L0xY/EXwvbq6Pt1r/A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miAHvS+S3PH0iF91g83oZO50UVhnA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>dia</t>
   </si>
@@ -137,6 +157,9 @@
     <t>dose unica</t>
   </si>
   <si>
+    <t>3a dose</t>
+  </si>
+  <si>
     <t>total vac</t>
   </si>
   <si>
@@ -151,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -166,14 +189,25 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,6 +233,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -206,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -219,6 +265,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -228,13 +277,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -243,16 +292,25 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -491,7 +549,7 @@
     <col customWidth="1" min="5" max="5" width="7.56"/>
     <col customWidth="1" min="6" max="6" width="13.67"/>
     <col customWidth="1" min="7" max="7" width="18.56"/>
-    <col customWidth="1" min="8" max="12" width="10.56"/>
+    <col customWidth="1" min="8" max="13" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -522,7 +580,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -531,12 +589,15 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>0.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>43921.0</v>
       </c>
       <c r="C2" s="1">
@@ -551,24 +612,25 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A520" si="1">A2+1</f>
+        <f t="shared" ref="A3:A550" si="1">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>43922.0</v>
       </c>
       <c r="C3" s="2">
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D510" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D537" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -577,17 +639,18 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>43923.0</v>
       </c>
       <c r="C4" s="2">
@@ -603,17 +666,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>43924.0</v>
       </c>
       <c r="C5" s="2">
@@ -629,17 +693,18 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>43925.0</v>
       </c>
       <c r="C6" s="2">
@@ -655,17 +720,18 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>43926.0</v>
       </c>
       <c r="C7" s="2">
@@ -681,17 +747,18 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>43927.0</v>
       </c>
       <c r="C8" s="2">
@@ -707,17 +774,18 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>43928.0</v>
       </c>
       <c r="C9" s="2">
@@ -733,17 +801,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>43929.0</v>
       </c>
       <c r="C10" s="2">
@@ -759,17 +828,18 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>43930.0</v>
       </c>
       <c r="C11" s="2">
@@ -785,17 +855,18 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>43931.0</v>
       </c>
       <c r="C12" s="2">
@@ -811,17 +882,18 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>43932.0</v>
       </c>
       <c r="C13" s="2">
@@ -837,17 +909,18 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>43933.0</v>
       </c>
       <c r="C14" s="2">
@@ -863,17 +936,18 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>43934.0</v>
       </c>
       <c r="C15" s="2">
@@ -889,17 +963,18 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>43935.0</v>
       </c>
       <c r="C16" s="2">
@@ -919,13 +994,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>43936.0</v>
       </c>
       <c r="C17" s="2">
@@ -945,13 +1021,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>43937.0</v>
       </c>
       <c r="C18" s="2">
@@ -971,13 +1048,14 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>43938.0</v>
       </c>
       <c r="C19" s="2">
@@ -997,13 +1075,14 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>43939.0</v>
       </c>
       <c r="C20" s="2">
@@ -1022,13 +1101,14 @@
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>43940.0</v>
       </c>
       <c r="C21" s="2">
@@ -1047,13 +1127,14 @@
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>43941.0</v>
       </c>
       <c r="C22" s="2">
@@ -1072,13 +1153,14 @@
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>43942.0</v>
       </c>
       <c r="C23" s="2">
@@ -1091,19 +1173,20 @@
       <c r="E23" s="1">
         <v>3.0</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>43943.0</v>
       </c>
       <c r="C24" s="2">
@@ -1116,19 +1199,20 @@
       <c r="E24" s="1">
         <v>3.0</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>43944.0</v>
       </c>
       <c r="C25" s="2">
@@ -1153,13 +1237,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>43945.0</v>
       </c>
       <c r="C26" s="2">
@@ -1184,13 +1269,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>43946.0</v>
       </c>
       <c r="C27" s="2">
@@ -1215,13 +1301,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>43947.0</v>
       </c>
       <c r="C28" s="2">
@@ -1246,13 +1333,14 @@
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>43948.0</v>
       </c>
       <c r="C29" s="2">
@@ -1277,13 +1365,14 @@
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>43949.0</v>
       </c>
       <c r="C30" s="2">
@@ -1308,13 +1397,14 @@
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>43950.0</v>
       </c>
       <c r="C31" s="2">
@@ -1339,13 +1429,14 @@
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>43951.0</v>
       </c>
       <c r="C32" s="2">
@@ -1370,13 +1461,14 @@
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>43952.0</v>
       </c>
       <c r="C33" s="2">
@@ -1401,13 +1493,14 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>43953.0</v>
       </c>
       <c r="C34" s="2">
@@ -1432,13 +1525,14 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>43954.0</v>
       </c>
       <c r="C35" s="2">
@@ -1463,13 +1557,14 @@
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>43955.0</v>
       </c>
       <c r="C36" s="1">
@@ -1494,13 +1589,14 @@
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>43956.0</v>
       </c>
       <c r="C37" s="1">
@@ -1525,13 +1621,14 @@
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>43957.0</v>
       </c>
       <c r="C38" s="1">
@@ -1556,13 +1653,14 @@
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>43958.0</v>
       </c>
       <c r="C39" s="1">
@@ -1587,13 +1685,14 @@
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>43959.0</v>
       </c>
       <c r="C40" s="1">
@@ -1618,13 +1717,14 @@
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>43960.0</v>
       </c>
       <c r="C41" s="1">
@@ -1649,13 +1749,14 @@
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>43961.0</v>
       </c>
       <c r="C42" s="1">
@@ -1680,13 +1781,14 @@
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>43962.0</v>
       </c>
       <c r="C43" s="1">
@@ -1711,13 +1813,14 @@
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>43963.0</v>
       </c>
       <c r="C44" s="1">
@@ -1742,13 +1845,14 @@
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>43964.0</v>
       </c>
       <c r="C45" s="1">
@@ -1773,13 +1877,14 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>43965.0</v>
       </c>
       <c r="C46" s="1">
@@ -1807,7 +1912,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>43966.0</v>
       </c>
       <c r="C47" s="1">
@@ -1835,7 +1940,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>43967.0</v>
       </c>
       <c r="C48" s="1">
@@ -1863,7 +1968,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>43968.0</v>
       </c>
       <c r="C49" s="1">
@@ -1891,7 +1996,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>43969.0</v>
       </c>
       <c r="C50" s="1">
@@ -1919,7 +2024,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>43970.0</v>
       </c>
       <c r="C51" s="1">
@@ -1947,7 +2052,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>43971.0</v>
       </c>
       <c r="C52" s="1">
@@ -1975,7 +2080,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>43972.0</v>
       </c>
       <c r="C53" s="1">
@@ -2003,7 +2108,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>43973.0</v>
       </c>
       <c r="C54" s="1">
@@ -2031,7 +2136,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>43974.0</v>
       </c>
       <c r="C55" s="1">
@@ -2059,7 +2164,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>43975.0</v>
       </c>
       <c r="C56" s="1">
@@ -2087,7 +2192,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>43976.0</v>
       </c>
       <c r="C57" s="1">
@@ -2115,7 +2220,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>43977.0</v>
       </c>
       <c r="C58" s="1">
@@ -2143,7 +2248,7 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>43978.0</v>
       </c>
       <c r="C59" s="1">
@@ -2171,7 +2276,7 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="5">
         <v>43979.0</v>
       </c>
       <c r="C60" s="1">
@@ -2199,7 +2304,7 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>43980.0</v>
       </c>
       <c r="C61" s="1">
@@ -2225,13 +2330,14 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>43981.0</v>
       </c>
       <c r="C62" s="1">
@@ -2257,13 +2363,14 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>43982.0</v>
       </c>
       <c r="C63" s="1">
@@ -2289,13 +2396,14 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="5">
         <v>43983.0</v>
       </c>
       <c r="C64" s="1">
@@ -2321,13 +2429,14 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>43984.0</v>
       </c>
       <c r="C65" s="1">
@@ -2355,7 +2464,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="5">
         <v>43985.0</v>
       </c>
       <c r="C66" s="1">
@@ -2383,7 +2492,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>43986.0</v>
       </c>
       <c r="C67" s="1">
@@ -2411,7 +2520,7 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="5">
         <v>43987.0</v>
       </c>
       <c r="C68" s="1">
@@ -2439,7 +2548,7 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="5">
         <v>43988.0</v>
       </c>
       <c r="C69" s="1">
@@ -2467,7 +2576,7 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="5">
         <v>43989.0</v>
       </c>
       <c r="C70" s="1">
@@ -2495,7 +2604,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="5">
         <v>43990.0</v>
       </c>
       <c r="C71" s="1">
@@ -2523,7 +2632,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="5">
         <v>43991.0</v>
       </c>
       <c r="C72" s="1">
@@ -2551,7 +2660,7 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="5">
         <v>43992.0</v>
       </c>
       <c r="C73" s="1">
@@ -2579,7 +2688,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="5">
         <v>43993.0</v>
       </c>
       <c r="C74" s="1">
@@ -2607,7 +2716,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="5">
         <v>43994.0</v>
       </c>
       <c r="C75" s="1">
@@ -2635,7 +2744,7 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="5">
         <v>43995.0</v>
       </c>
       <c r="C76" s="1">
@@ -2663,7 +2772,7 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="5">
         <v>43996.0</v>
       </c>
       <c r="C77" s="1">
@@ -2691,7 +2800,7 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="5">
         <v>43997.0</v>
       </c>
       <c r="C78" s="1">
@@ -2719,7 +2828,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="5">
         <v>43998.0</v>
       </c>
       <c r="C79" s="1">
@@ -2747,7 +2856,7 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="5">
         <v>43999.0</v>
       </c>
       <c r="C80" s="1">
@@ -2775,7 +2884,7 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="5">
         <v>44000.0</v>
       </c>
       <c r="C81" s="1">
@@ -2803,7 +2912,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="5">
         <v>44001.0</v>
       </c>
       <c r="C82" s="1">
@@ -2831,7 +2940,7 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="5">
         <v>44002.0</v>
       </c>
       <c r="C83" s="1">
@@ -2859,7 +2968,7 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="5">
         <v>44003.0</v>
       </c>
       <c r="C84" s="1">
@@ -2887,7 +2996,7 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="5">
         <v>44004.0</v>
       </c>
       <c r="C85" s="1">
@@ -2915,7 +3024,7 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="5">
         <v>44005.0</v>
       </c>
       <c r="C86" s="1">
@@ -2943,7 +3052,7 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="5">
         <v>44006.0</v>
       </c>
       <c r="C87" s="1">
@@ -2971,7 +3080,7 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="5">
         <v>44007.0</v>
       </c>
       <c r="C88" s="1">
@@ -2999,7 +3108,7 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="5">
         <v>44008.0</v>
       </c>
       <c r="C89" s="1">
@@ -3027,7 +3136,7 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="5">
         <v>44009.0</v>
       </c>
       <c r="C90" s="1">
@@ -3055,7 +3164,7 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="5">
         <v>44010.0</v>
       </c>
       <c r="C91" s="1">
@@ -3083,7 +3192,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="5">
         <v>44011.0</v>
       </c>
       <c r="C92" s="1">
@@ -3111,7 +3220,7 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="5">
         <v>44012.0</v>
       </c>
       <c r="C93" s="1">
@@ -3139,7 +3248,7 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="5">
         <v>44013.0</v>
       </c>
       <c r="C94" s="1">
@@ -3167,7 +3276,7 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="5">
         <v>44014.0</v>
       </c>
       <c r="C95" s="1">
@@ -3195,7 +3304,7 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="5">
         <v>44015.0</v>
       </c>
       <c r="C96" s="1">
@@ -3223,7 +3332,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="5">
         <v>44016.0</v>
       </c>
       <c r="C97" s="1">
@@ -3251,7 +3360,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="5">
         <v>44017.0</v>
       </c>
       <c r="C98" s="1">
@@ -3279,7 +3388,7 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="5">
         <v>44018.0</v>
       </c>
       <c r="C99" s="1">
@@ -3307,7 +3416,7 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="5">
         <v>44019.0</v>
       </c>
       <c r="C100" s="1">
@@ -3335,7 +3444,7 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="5">
         <v>44020.0</v>
       </c>
       <c r="C101" s="1">
@@ -3363,7 +3472,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="5">
         <v>44021.0</v>
       </c>
       <c r="C102" s="1">
@@ -3391,7 +3500,7 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="5">
         <v>44022.0</v>
       </c>
       <c r="C103" s="1">
@@ -3419,7 +3528,7 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="5">
         <v>44023.0</v>
       </c>
       <c r="C104" s="1">
@@ -3447,7 +3556,7 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="5">
         <v>44024.0</v>
       </c>
       <c r="C105" s="1">
@@ -3475,7 +3584,7 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="5">
         <v>44025.0</v>
       </c>
       <c r="C106" s="1">
@@ -3503,7 +3612,7 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="5">
         <v>44026.0</v>
       </c>
       <c r="C107" s="1">
@@ -3531,7 +3640,7 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="5">
         <v>44027.0</v>
       </c>
       <c r="C108" s="1">
@@ -3559,7 +3668,7 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="5">
         <v>44028.0</v>
       </c>
       <c r="C109" s="1">
@@ -3587,7 +3696,7 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="5">
         <v>44029.0</v>
       </c>
       <c r="C110" s="1">
@@ -3615,7 +3724,7 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="5">
         <v>44030.0</v>
       </c>
       <c r="C111" s="1">
@@ -3643,7 +3752,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="5">
         <v>44031.0</v>
       </c>
       <c r="C112" s="1">
@@ -3671,7 +3780,7 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="5">
         <v>44032.0</v>
       </c>
       <c r="C113" s="1">
@@ -3699,7 +3808,7 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="5">
         <v>44033.0</v>
       </c>
       <c r="C114" s="1">
@@ -3727,7 +3836,7 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="5">
         <v>44034.0</v>
       </c>
       <c r="C115" s="1">
@@ -3755,7 +3864,7 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="5">
         <v>44035.0</v>
       </c>
       <c r="C116" s="1">
@@ -3783,7 +3892,7 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="5">
         <v>44036.0</v>
       </c>
       <c r="C117" s="1">
@@ -3811,7 +3920,7 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="5">
         <v>44037.0</v>
       </c>
       <c r="C118" s="1">
@@ -3839,7 +3948,7 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="5">
         <v>44038.0</v>
       </c>
       <c r="C119" s="1">
@@ -3867,7 +3976,7 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="5">
         <v>44039.0</v>
       </c>
       <c r="C120" s="1">
@@ -3895,7 +4004,7 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="5">
         <v>44040.0</v>
       </c>
       <c r="C121" s="1">
@@ -3923,7 +4032,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="5">
         <v>44041.0</v>
       </c>
       <c r="C122" s="1">
@@ -3951,7 +4060,7 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="5">
         <v>44042.0</v>
       </c>
       <c r="C123" s="1">
@@ -3979,7 +4088,7 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="5">
         <v>44043.0</v>
       </c>
       <c r="C124" s="1">
@@ -4007,7 +4116,7 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="5">
         <v>44044.0</v>
       </c>
       <c r="C125" s="1">
@@ -4035,7 +4144,7 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="5">
         <v>44045.0</v>
       </c>
       <c r="C126" s="1">
@@ -4063,7 +4172,7 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="5">
         <v>44046.0</v>
       </c>
       <c r="C127" s="1">
@@ -4091,7 +4200,7 @@
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="5">
         <v>44047.0</v>
       </c>
       <c r="C128" s="1">
@@ -4119,7 +4228,7 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="5">
         <v>44048.0</v>
       </c>
       <c r="C129" s="1">
@@ -4147,7 +4256,7 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="5">
         <v>44049.0</v>
       </c>
       <c r="C130" s="1">
@@ -4175,7 +4284,7 @@
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="5">
         <v>44050.0</v>
       </c>
       <c r="C131" s="1">
@@ -4203,7 +4312,7 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="5">
         <v>44051.0</v>
       </c>
       <c r="C132" s="1">
@@ -4231,26 +4340,26 @@
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="5">
         <v>44052.0</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="9">
         <v>2339.0</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="9">
         <v>21.0</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F133" s="9">
         <v>78.0</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="9">
         <v>57.0</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H133" s="9">
         <v>19.0</v>
       </c>
     </row>
@@ -4259,7 +4368,7 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="5">
         <v>44053.0</v>
       </c>
       <c r="C134" s="1">
@@ -4287,7 +4396,7 @@
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="5">
         <v>44054.0</v>
       </c>
       <c r="C135" s="1">
@@ -4315,7 +4424,7 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="5">
         <v>44055.0</v>
       </c>
       <c r="C136" s="1">
@@ -4343,7 +4452,7 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="5">
         <v>44056.0</v>
       </c>
       <c r="C137" s="1">
@@ -4371,7 +4480,7 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="5">
         <v>44057.0</v>
       </c>
       <c r="C138" s="1">
@@ -4399,7 +4508,7 @@
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="5">
         <v>44058.0</v>
       </c>
       <c r="C139" s="1">
@@ -4427,7 +4536,7 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="5">
         <v>44059.0</v>
       </c>
       <c r="C140" s="1">
@@ -4455,7 +4564,7 @@
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="5">
         <v>44060.0</v>
       </c>
       <c r="C141" s="1">
@@ -4483,7 +4592,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="5">
         <v>44061.0</v>
       </c>
       <c r="C142" s="1">
@@ -4511,7 +4620,7 @@
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="5">
         <v>44062.0</v>
       </c>
       <c r="C143" s="1">
@@ -4539,7 +4648,7 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="5">
         <v>44063.0</v>
       </c>
       <c r="C144" s="1">
@@ -4567,7 +4676,7 @@
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="5">
         <v>44064.0</v>
       </c>
       <c r="C145" s="1">
@@ -4595,7 +4704,7 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="5">
         <v>44065.0</v>
       </c>
       <c r="C146" s="1">
@@ -4623,7 +4732,7 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="5">
         <v>44066.0</v>
       </c>
       <c r="C147" s="1">
@@ -4651,7 +4760,7 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="5">
         <v>44067.0</v>
       </c>
       <c r="C148" s="1">
@@ -4679,7 +4788,7 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="5">
         <v>44068.0</v>
       </c>
       <c r="C149" s="1">
@@ -4707,7 +4816,7 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="5">
         <v>44069.0</v>
       </c>
       <c r="C150" s="1">
@@ -4735,7 +4844,7 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="5">
         <v>44070.0</v>
       </c>
       <c r="C151" s="1">
@@ -4763,7 +4872,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="5">
         <v>44071.0</v>
       </c>
       <c r="C152" s="1">
@@ -4791,7 +4900,7 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="5">
         <v>44072.0</v>
       </c>
       <c r="C153" s="1">
@@ -4819,7 +4928,7 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="5">
         <v>44073.0</v>
       </c>
       <c r="C154" s="1">
@@ -4847,7 +4956,7 @@
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="5">
         <v>44074.0</v>
       </c>
       <c r="C155" s="1">
@@ -4875,7 +4984,7 @@
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="5">
         <v>44075.0</v>
       </c>
       <c r="C156" s="1">
@@ -4903,7 +5012,7 @@
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="5">
         <v>44076.0</v>
       </c>
       <c r="C157" s="1">
@@ -4931,7 +5040,7 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="5">
         <v>44077.0</v>
       </c>
       <c r="C158" s="1">
@@ -4959,7 +5068,7 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="5">
         <v>44078.0</v>
       </c>
       <c r="C159" s="1">
@@ -4987,7 +5096,7 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="5">
         <v>44079.0</v>
       </c>
       <c r="C160" s="1">
@@ -5015,7 +5124,7 @@
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="5">
         <v>44080.0</v>
       </c>
       <c r="C161" s="1">
@@ -5043,7 +5152,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="5">
         <v>44081.0</v>
       </c>
       <c r="C162" s="1">
@@ -5071,7 +5180,7 @@
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="5">
         <v>44082.0</v>
       </c>
       <c r="C163" s="1">
@@ -5099,7 +5208,7 @@
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="5">
         <v>44083.0</v>
       </c>
       <c r="C164" s="1">
@@ -5127,7 +5236,7 @@
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="5">
         <v>44084.0</v>
       </c>
       <c r="C165" s="1">
@@ -5155,7 +5264,7 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="5">
         <v>44085.0</v>
       </c>
       <c r="C166" s="1">
@@ -5183,7 +5292,7 @@
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="5">
         <v>44086.0</v>
       </c>
       <c r="C167" s="1">
@@ -5211,7 +5320,7 @@
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="5">
         <v>44087.0</v>
       </c>
       <c r="C168" s="1">
@@ -5239,7 +5348,7 @@
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="5">
         <v>44088.0</v>
       </c>
       <c r="C169" s="1">
@@ -5267,7 +5376,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="5">
         <v>44089.0</v>
       </c>
       <c r="C170" s="1">
@@ -5295,7 +5404,7 @@
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="5">
         <v>44090.0</v>
       </c>
       <c r="C171" s="1">
@@ -5323,7 +5432,7 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="5">
         <v>44091.0</v>
       </c>
       <c r="C172" s="1">
@@ -5351,7 +5460,7 @@
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="5">
         <v>44092.0</v>
       </c>
       <c r="C173" s="1">
@@ -5379,7 +5488,7 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="5">
         <v>44093.0</v>
       </c>
       <c r="C174" s="1">
@@ -5407,7 +5516,7 @@
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="5">
         <v>44094.0</v>
       </c>
       <c r="C175" s="1">
@@ -5435,7 +5544,7 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="5">
         <v>44095.0</v>
       </c>
       <c r="C176" s="1">
@@ -5463,7 +5572,7 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="5">
         <v>44096.0</v>
       </c>
       <c r="C177" s="1">
@@ -5489,7 +5598,7 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="5">
         <v>44097.0</v>
       </c>
       <c r="C178" s="1">
@@ -5517,7 +5626,7 @@
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="5">
         <v>44098.0</v>
       </c>
       <c r="C179" s="1">
@@ -5545,7 +5654,7 @@
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="5">
         <v>44099.0</v>
       </c>
       <c r="C180" s="1">
@@ -5573,7 +5682,7 @@
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="5">
         <v>44100.0</v>
       </c>
       <c r="C181" s="1">
@@ -5601,7 +5710,7 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="5">
         <v>44101.0</v>
       </c>
       <c r="C182" s="1">
@@ -5629,7 +5738,7 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="5">
         <v>44102.0</v>
       </c>
       <c r="C183" s="1">
@@ -5657,7 +5766,7 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="5">
         <v>44103.0</v>
       </c>
       <c r="C184" s="1">
@@ -5685,7 +5794,7 @@
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="5">
         <v>44104.0</v>
       </c>
       <c r="C185" s="1">
@@ -5713,7 +5822,7 @@
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="5">
         <v>44105.0</v>
       </c>
       <c r="C186" s="1">
@@ -5741,7 +5850,7 @@
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="5">
         <v>44106.0</v>
       </c>
       <c r="C187" s="1">
@@ -5769,7 +5878,7 @@
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="5">
         <v>44107.0</v>
       </c>
       <c r="C188" s="1">
@@ -5797,7 +5906,7 @@
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="5">
         <v>44108.0</v>
       </c>
       <c r="C189" s="1">
@@ -5825,7 +5934,7 @@
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="5">
         <v>44109.0</v>
       </c>
       <c r="C190" s="1">
@@ -5853,7 +5962,7 @@
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="5">
         <v>44110.0</v>
       </c>
       <c r="C191" s="1">
@@ -5881,7 +5990,7 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="5">
         <v>44111.0</v>
       </c>
       <c r="C192" s="1">
@@ -5909,7 +6018,7 @@
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="5">
         <v>44112.0</v>
       </c>
       <c r="C193" s="1">
@@ -5937,7 +6046,7 @@
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="5">
         <v>44113.0</v>
       </c>
       <c r="C194" s="1">
@@ -5965,7 +6074,7 @@
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="5">
         <v>44114.0</v>
       </c>
       <c r="C195" s="1">
@@ -5993,7 +6102,7 @@
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="5">
         <v>44115.0</v>
       </c>
       <c r="C196" s="1">
@@ -6021,7 +6130,7 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="5">
         <v>44116.0</v>
       </c>
       <c r="C197" s="1">
@@ -6049,7 +6158,7 @@
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="5">
         <v>44117.0</v>
       </c>
       <c r="C198" s="1">
@@ -6077,7 +6186,7 @@
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="5">
         <v>44118.0</v>
       </c>
       <c r="C199" s="1">
@@ -6105,7 +6214,7 @@
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="5">
         <v>44119.0</v>
       </c>
       <c r="C200" s="1">
@@ -6133,7 +6242,7 @@
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="5">
         <v>44120.0</v>
       </c>
       <c r="C201" s="1">
@@ -6161,7 +6270,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="5">
         <v>44121.0</v>
       </c>
       <c r="C202" s="1">
@@ -6189,7 +6298,7 @@
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="5">
         <v>44122.0</v>
       </c>
       <c r="C203" s="1">
@@ -6217,7 +6326,7 @@
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="5">
         <v>44123.0</v>
       </c>
       <c r="C204" s="1">
@@ -6245,7 +6354,7 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="5">
         <v>44124.0</v>
       </c>
       <c r="C205" s="1">
@@ -6273,7 +6382,7 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="5">
         <v>44125.0</v>
       </c>
       <c r="C206" s="1">
@@ -6301,7 +6410,7 @@
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="5">
         <v>44126.0</v>
       </c>
       <c r="C207" s="1">
@@ -6329,7 +6438,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="5">
         <v>44127.0</v>
       </c>
       <c r="C208" s="1">
@@ -6357,7 +6466,7 @@
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="5">
         <v>44128.0</v>
       </c>
       <c r="C209" s="1">
@@ -6385,13 +6494,13 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="10">
         <v>44129.0</v>
       </c>
-      <c r="C210" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="11">
+      <c r="C210" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="12">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -6411,13 +6520,13 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="5">
         <v>44130.0</v>
       </c>
       <c r="C211" s="1">
         <v>5413.0</v>
       </c>
-      <c r="D211" s="11">
+      <c r="D211" s="12">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -6439,7 +6548,7 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="5">
         <v>44131.0</v>
       </c>
       <c r="C212" s="1">
@@ -6467,7 +6576,7 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="10">
         <v>44132.0</v>
       </c>
       <c r="C213" s="1">
@@ -6493,7 +6602,7 @@
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="5">
         <v>44133.0</v>
       </c>
       <c r="C214" s="1">
@@ -6521,7 +6630,7 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="5">
         <v>44134.0</v>
       </c>
       <c r="C215" s="1">
@@ -6549,7 +6658,7 @@
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="5">
         <v>44135.0</v>
       </c>
       <c r="C216" s="1">
@@ -6577,7 +6686,7 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="5">
         <v>44136.0</v>
       </c>
       <c r="C217" s="1">
@@ -6605,7 +6714,7 @@
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="5">
         <v>44137.0</v>
       </c>
       <c r="C218" s="1">
@@ -6633,7 +6742,7 @@
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="5">
         <v>44138.0</v>
       </c>
       <c r="C219" s="1">
@@ -6661,7 +6770,7 @@
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="5">
         <v>44139.0</v>
       </c>
       <c r="C220" s="1">
@@ -6689,7 +6798,7 @@
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="5">
         <v>44140.0</v>
       </c>
       <c r="C221" s="1">
@@ -6717,7 +6826,7 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="5">
         <v>44141.0</v>
       </c>
       <c r="C222" s="1">
@@ -6745,7 +6854,7 @@
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="5">
         <v>44142.0</v>
       </c>
       <c r="C223" s="1">
@@ -6773,7 +6882,7 @@
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="5">
         <v>44143.0</v>
       </c>
       <c r="C224" s="1">
@@ -6801,7 +6910,7 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="5">
         <v>44144.0</v>
       </c>
       <c r="C225" s="1">
@@ -6829,7 +6938,7 @@
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="5">
         <v>44145.0</v>
       </c>
       <c r="C226" s="1">
@@ -6857,7 +6966,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="5">
         <v>44146.0</v>
       </c>
       <c r="C227" s="1">
@@ -6885,7 +6994,7 @@
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="5">
         <v>44147.0</v>
       </c>
       <c r="C228" s="1">
@@ -6913,7 +7022,7 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="5">
         <v>44148.0</v>
       </c>
       <c r="C229" s="1">
@@ -6941,7 +7050,7 @@
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="5">
         <v>44149.0</v>
       </c>
       <c r="C230" s="1">
@@ -6969,7 +7078,7 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="5">
         <v>44150.0</v>
       </c>
       <c r="C231" s="1">
@@ -6997,7 +7106,7 @@
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="5">
         <v>44151.0</v>
       </c>
       <c r="C232" s="1">
@@ -7025,7 +7134,7 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="5">
         <v>44152.0</v>
       </c>
       <c r="C233" s="1">
@@ -7053,7 +7162,7 @@
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="5">
         <v>44153.0</v>
       </c>
       <c r="C234" s="1">
@@ -7081,7 +7190,7 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="5">
         <v>44154.0</v>
       </c>
       <c r="C235" s="1">
@@ -7109,7 +7218,7 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="5">
         <v>44155.0</v>
       </c>
       <c r="C236" s="1">
@@ -7137,7 +7246,7 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="5">
         <v>44156.0</v>
       </c>
       <c r="C237" s="1">
@@ -7165,7 +7274,7 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="5">
         <v>44157.0</v>
       </c>
       <c r="C238" s="1">
@@ -7193,7 +7302,7 @@
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="5">
         <v>44158.0</v>
       </c>
       <c r="C239" s="1">
@@ -7221,7 +7330,7 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="5">
         <v>44159.0</v>
       </c>
       <c r="C240" s="1">
@@ -7249,7 +7358,7 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="5">
         <v>44160.0</v>
       </c>
       <c r="C241" s="1">
@@ -7277,7 +7386,7 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="5">
         <v>44161.0</v>
       </c>
       <c r="C242" s="1">
@@ -7305,7 +7414,7 @@
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="5">
         <v>44162.0</v>
       </c>
       <c r="C243" s="1">
@@ -7333,7 +7442,7 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="5">
         <v>44163.0</v>
       </c>
       <c r="C244" s="1">
@@ -7361,7 +7470,7 @@
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="5">
         <v>44164.0</v>
       </c>
       <c r="C245" s="1">
@@ -7389,7 +7498,7 @@
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="5">
         <v>44165.0</v>
       </c>
       <c r="C246" s="1">
@@ -7417,7 +7526,7 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="5">
         <v>44166.0</v>
       </c>
       <c r="C247" s="1">
@@ -7445,7 +7554,7 @@
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="5">
         <v>44167.0</v>
       </c>
       <c r="C248" s="1">
@@ -7473,7 +7582,7 @@
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="5">
         <v>44168.0</v>
       </c>
       <c r="C249" s="1">
@@ -7501,7 +7610,7 @@
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="5">
         <v>44169.0</v>
       </c>
       <c r="C250" s="1">
@@ -7529,7 +7638,7 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="5">
         <v>44170.0</v>
       </c>
       <c r="C251" s="1">
@@ -7557,7 +7666,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="5">
         <v>44171.0</v>
       </c>
       <c r="C252" s="1">
@@ -7585,7 +7694,7 @@
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="5">
         <v>44172.0</v>
       </c>
       <c r="C253" s="1">
@@ -7613,7 +7722,7 @@
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="5">
         <v>44173.0</v>
       </c>
       <c r="C254" s="1">
@@ -7641,7 +7750,7 @@
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="5">
         <v>44174.0</v>
       </c>
       <c r="C255" s="1">
@@ -7669,7 +7778,7 @@
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="5">
         <v>44175.0</v>
       </c>
       <c r="C256" s="1">
@@ -7697,7 +7806,7 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="5">
         <v>44176.0</v>
       </c>
       <c r="C257" s="1">
@@ -7725,7 +7834,7 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="5">
         <v>44177.0</v>
       </c>
       <c r="C258" s="1">
@@ -7753,7 +7862,7 @@
         <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="5">
         <v>44178.0</v>
       </c>
       <c r="C259" s="1">
@@ -7781,7 +7890,7 @@
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="5">
         <v>44179.0</v>
       </c>
       <c r="C260" s="1">
@@ -7809,7 +7918,7 @@
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="5">
         <v>44180.0</v>
       </c>
       <c r="C261" s="1">
@@ -7837,7 +7946,7 @@
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="5">
         <v>44181.0</v>
       </c>
       <c r="C262" s="1">
@@ -7865,7 +7974,7 @@
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="5">
         <v>44182.0</v>
       </c>
       <c r="C263" s="1">
@@ -7893,7 +8002,7 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="5">
         <v>44183.0</v>
       </c>
       <c r="C264" s="1">
@@ -7921,7 +8030,7 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="5">
         <v>44184.0</v>
       </c>
       <c r="C265" s="1">
@@ -7949,7 +8058,7 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="5">
         <v>44185.0</v>
       </c>
       <c r="C266" s="1">
@@ -7977,7 +8086,7 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="5">
         <v>44186.0</v>
       </c>
       <c r="C267" s="1">
@@ -8005,7 +8114,7 @@
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="5">
         <v>44187.0</v>
       </c>
       <c r="C268" s="1">
@@ -8033,7 +8142,7 @@
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="5">
         <v>44188.0</v>
       </c>
       <c r="C269" s="1">
@@ -8061,7 +8170,7 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="5">
         <v>44189.0</v>
       </c>
       <c r="C270" s="1">
@@ -8089,7 +8198,7 @@
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="5">
         <v>44190.0</v>
       </c>
       <c r="C271" s="1">
@@ -8117,7 +8226,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="5">
         <v>44191.0</v>
       </c>
       <c r="C272" s="1">
@@ -8145,7 +8254,7 @@
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="5">
         <v>44192.0</v>
       </c>
       <c r="C273" s="1">
@@ -8173,7 +8282,7 @@
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="5">
         <v>44193.0</v>
       </c>
       <c r="C274" s="1">
@@ -8201,7 +8310,7 @@
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="5">
         <v>44194.0</v>
       </c>
       <c r="C275" s="1">
@@ -8229,7 +8338,7 @@
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="5">
         <v>44195.0</v>
       </c>
       <c r="C276" s="1">
@@ -8257,7 +8366,7 @@
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="5">
         <v>44196.0</v>
       </c>
       <c r="C277" s="1">
@@ -8285,7 +8394,7 @@
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="5">
         <v>44197.0</v>
       </c>
       <c r="C278" s="1">
@@ -8313,7 +8422,7 @@
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="5">
         <v>44198.0</v>
       </c>
       <c r="C279" s="1">
@@ -8341,7 +8450,7 @@
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="5">
         <v>44199.0</v>
       </c>
       <c r="C280" s="1">
@@ -8369,7 +8478,7 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="5">
         <v>44200.0</v>
       </c>
       <c r="C281" s="1">
@@ -8397,7 +8506,7 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="5">
         <v>44201.0</v>
       </c>
       <c r="C282" s="1">
@@ -8425,13 +8534,13 @@
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="5">
         <v>44202.0</v>
       </c>
       <c r="C283" s="1">
         <v>8623.0</v>
       </c>
-      <c r="D283" s="12">
+      <c r="D283" s="13">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -8453,13 +8562,13 @@
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="5">
         <v>44203.0</v>
       </c>
       <c r="C284" s="1">
         <v>8677.0</v>
       </c>
-      <c r="D284" s="12">
+      <c r="D284" s="13">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -8481,7 +8590,7 @@
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="5">
         <v>44204.0</v>
       </c>
       <c r="C285" s="1">
@@ -8509,7 +8618,7 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="5">
         <v>44205.0</v>
       </c>
       <c r="C286" s="1">
@@ -8537,7 +8646,7 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="5">
         <v>44206.0</v>
       </c>
       <c r="C287" s="1">
@@ -8565,7 +8674,7 @@
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="5">
         <v>44207.0</v>
       </c>
       <c r="C288" s="1">
@@ -8593,7 +8702,7 @@
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="5">
         <v>44208.0</v>
       </c>
       <c r="C289" s="1">
@@ -8621,7 +8730,7 @@
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="5">
         <v>44209.0</v>
       </c>
       <c r="C290" s="1">
@@ -8649,7 +8758,7 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="B291" s="13">
+      <c r="B291" s="14">
         <v>44210.0</v>
       </c>
       <c r="C291" s="1">
@@ -8677,7 +8786,7 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="5">
         <v>44211.0</v>
       </c>
       <c r="C292" s="1">
@@ -8705,7 +8814,7 @@
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="5">
         <v>44212.0</v>
       </c>
       <c r="C293" s="1">
@@ -8733,7 +8842,7 @@
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="5">
         <v>44213.0</v>
       </c>
       <c r="C294" s="1">
@@ -8761,7 +8870,7 @@
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="5">
         <v>44214.0</v>
       </c>
       <c r="C295" s="1">
@@ -8789,7 +8898,7 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="5">
         <v>44215.0</v>
       </c>
       <c r="C296" s="1">
@@ -8817,7 +8926,7 @@
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="5">
         <v>44216.0</v>
       </c>
       <c r="C297" s="1">
@@ -8845,7 +8954,7 @@
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="5">
         <v>44217.0</v>
       </c>
       <c r="C298" s="1">
@@ -8873,7 +8982,7 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="5">
         <v>44218.0</v>
       </c>
       <c r="C299" s="1">
@@ -8901,7 +9010,7 @@
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="5">
         <v>44219.0</v>
       </c>
       <c r="C300" s="1">
@@ -8929,7 +9038,7 @@
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="5">
         <v>44220.0</v>
       </c>
       <c r="C301" s="1">
@@ -8957,7 +9066,7 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="5">
         <v>44221.0</v>
       </c>
       <c r="C302" s="1">
@@ -8985,7 +9094,7 @@
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="5">
         <v>44222.0</v>
       </c>
       <c r="C303" s="1">
@@ -9013,7 +9122,7 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="5">
         <v>44223.0</v>
       </c>
       <c r="C304" s="1">
@@ -9041,7 +9150,7 @@
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="5">
         <v>44224.0</v>
       </c>
       <c r="C305" s="1">
@@ -9069,7 +9178,7 @@
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="5">
         <v>44225.0</v>
       </c>
       <c r="C306" s="1">
@@ -9097,7 +9206,7 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="5">
         <v>44226.0</v>
       </c>
       <c r="C307" s="1">
@@ -9125,7 +9234,7 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="5">
         <v>44227.0</v>
       </c>
       <c r="C308" s="1">
@@ -9153,7 +9262,7 @@
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="5">
         <v>44228.0</v>
       </c>
       <c r="C309" s="1">
@@ -9181,7 +9290,7 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="5">
         <v>44229.0</v>
       </c>
       <c r="C310" s="1">
@@ -9209,7 +9318,7 @@
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="5">
         <v>44230.0</v>
       </c>
       <c r="C311" s="1">
@@ -9237,7 +9346,7 @@
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="5">
         <v>44231.0</v>
       </c>
       <c r="C312" s="1">
@@ -9265,7 +9374,7 @@
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="5">
         <v>44232.0</v>
       </c>
       <c r="C313" s="1">
@@ -9293,7 +9402,7 @@
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="5">
         <v>44233.0</v>
       </c>
       <c r="C314" s="1">
@@ -9321,7 +9430,7 @@
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="5">
         <v>44234.0</v>
       </c>
       <c r="C315" s="1">
@@ -9349,7 +9458,7 @@
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="5">
         <v>44235.0</v>
       </c>
       <c r="C316" s="1">
@@ -9377,7 +9486,7 @@
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="5">
         <v>44236.0</v>
       </c>
       <c r="C317" s="1">
@@ -9405,7 +9514,7 @@
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="5">
         <v>44237.0</v>
       </c>
       <c r="C318" s="1">
@@ -9433,7 +9542,7 @@
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="5">
         <v>44238.0</v>
       </c>
       <c r="C319" s="1">
@@ -9461,7 +9570,7 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="5">
         <v>44239.0</v>
       </c>
       <c r="C320" s="1">
@@ -9489,7 +9598,7 @@
         <f t="shared" si="1"/>
         <v>319</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="5">
         <v>44240.0</v>
       </c>
       <c r="C321" s="1">
@@ -9517,7 +9626,7 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="5">
         <v>44241.0</v>
       </c>
       <c r="C322" s="1">
@@ -9545,7 +9654,7 @@
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="5">
         <v>44242.0</v>
       </c>
       <c r="C323" s="1">
@@ -9573,7 +9682,7 @@
         <f t="shared" si="1"/>
         <v>322</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="5">
         <v>44243.0</v>
       </c>
       <c r="C324" s="1">
@@ -9601,7 +9710,7 @@
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="5">
         <v>44244.0</v>
       </c>
       <c r="C325" s="1">
@@ -9629,7 +9738,7 @@
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="5">
         <v>44245.0</v>
       </c>
       <c r="C326" s="1">
@@ -9657,7 +9766,7 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="5">
         <v>44246.0</v>
       </c>
       <c r="C327" s="1">
@@ -9685,7 +9794,7 @@
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="5">
         <v>44247.0</v>
       </c>
       <c r="C328" s="1">
@@ -9713,7 +9822,7 @@
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="5">
         <v>44248.0</v>
       </c>
       <c r="C329" s="1">
@@ -9741,7 +9850,7 @@
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="5">
         <v>44249.0</v>
       </c>
       <c r="C330" s="1">
@@ -9769,7 +9878,7 @@
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="5">
         <v>44250.0</v>
       </c>
       <c r="C331" s="1">
@@ -9797,7 +9906,7 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="5">
         <v>44251.0</v>
       </c>
       <c r="C332" s="1">
@@ -9825,7 +9934,7 @@
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="5">
         <v>44252.0</v>
       </c>
       <c r="C333" s="1">
@@ -9853,7 +9962,7 @@
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="5">
         <v>44253.0</v>
       </c>
       <c r="C334" s="1">
@@ -9881,7 +9990,7 @@
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="5">
         <v>44254.0</v>
       </c>
       <c r="C335" s="1">
@@ -9909,7 +10018,7 @@
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="5">
         <v>44255.0</v>
       </c>
       <c r="C336" s="1">
@@ -9937,7 +10046,7 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="5">
         <v>44256.0</v>
       </c>
       <c r="C337" s="1">
@@ -9965,7 +10074,7 @@
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="5">
         <v>44257.0</v>
       </c>
       <c r="C338" s="1">
@@ -9993,7 +10102,7 @@
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="5">
         <v>44258.0</v>
       </c>
       <c r="C339" s="1">
@@ -10021,7 +10130,7 @@
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="5">
         <v>44259.0</v>
       </c>
       <c r="C340" s="1">
@@ -10049,7 +10158,7 @@
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="B341" s="4">
+      <c r="B341" s="5">
         <v>44260.0</v>
       </c>
       <c r="C341" s="1">
@@ -10077,7 +10186,7 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342" s="5">
         <v>44261.0</v>
       </c>
       <c r="C342" s="1">
@@ -10105,7 +10214,7 @@
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="B343" s="4">
+      <c r="B343" s="5">
         <v>44262.0</v>
       </c>
       <c r="C343" s="1">
@@ -10133,7 +10242,7 @@
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="5">
         <v>44263.0</v>
       </c>
       <c r="C344" s="1">
@@ -10161,7 +10270,7 @@
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="5">
         <v>44264.0</v>
       </c>
       <c r="C345" s="1">
@@ -10189,7 +10298,7 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346" s="5">
         <v>44265.0</v>
       </c>
       <c r="C346" s="1">
@@ -10217,7 +10326,7 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="5">
         <v>44266.0</v>
       </c>
       <c r="C347" s="1">
@@ -10245,7 +10354,7 @@
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348" s="5">
         <v>44267.0</v>
       </c>
       <c r="C348" s="1">
@@ -10273,7 +10382,7 @@
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
-      <c r="B349" s="4">
+      <c r="B349" s="5">
         <v>44268.0</v>
       </c>
       <c r="C349" s="1">
@@ -10301,7 +10410,7 @@
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350" s="5">
         <v>44269.0</v>
       </c>
       <c r="C350" s="1">
@@ -10329,7 +10438,7 @@
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="B351" s="4">
+      <c r="B351" s="5">
         <v>44270.0</v>
       </c>
       <c r="C351" s="1">
@@ -10357,7 +10466,7 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352" s="5">
         <v>44271.0</v>
       </c>
       <c r="C352" s="1">
@@ -10385,7 +10494,7 @@
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
-      <c r="B353" s="4">
+      <c r="B353" s="5">
         <v>44272.0</v>
       </c>
       <c r="C353" s="1">
@@ -10413,7 +10522,7 @@
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354" s="5">
         <v>44273.0</v>
       </c>
       <c r="C354" s="1">
@@ -10441,7 +10550,7 @@
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="B355" s="4">
+      <c r="B355" s="5">
         <v>44274.0</v>
       </c>
       <c r="C355" s="1">
@@ -10469,7 +10578,7 @@
         <f t="shared" si="1"/>
         <v>354</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356" s="5">
         <v>44275.0</v>
       </c>
       <c r="C356" s="1">
@@ -10497,7 +10606,7 @@
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="B357" s="4">
+      <c r="B357" s="5">
         <v>44276.0</v>
       </c>
       <c r="C357" s="1">
@@ -10525,7 +10634,7 @@
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="5">
         <v>44277.0</v>
       </c>
       <c r="C358" s="1">
@@ -10553,7 +10662,7 @@
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="B359" s="4">
+      <c r="B359" s="5">
         <v>44278.0</v>
       </c>
       <c r="C359" s="1">
@@ -10581,7 +10690,7 @@
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360" s="5">
         <v>44279.0</v>
       </c>
       <c r="C360" s="1">
@@ -10609,7 +10718,7 @@
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
-      <c r="B361" s="4">
+      <c r="B361" s="5">
         <v>44280.0</v>
       </c>
       <c r="C361" s="1">
@@ -10637,7 +10746,7 @@
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362" s="5">
         <v>44281.0</v>
       </c>
       <c r="C362" s="1">
@@ -10665,7 +10774,7 @@
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="B363" s="4">
+      <c r="B363" s="5">
         <v>44282.0</v>
       </c>
       <c r="C363" s="1">
@@ -10693,7 +10802,7 @@
         <f t="shared" si="1"/>
         <v>362</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364" s="5">
         <v>44283.0</v>
       </c>
       <c r="C364" s="1">
@@ -10721,7 +10830,7 @@
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
-      <c r="B365" s="4">
+      <c r="B365" s="5">
         <v>44284.0</v>
       </c>
       <c r="C365" s="1">
@@ -10749,7 +10858,7 @@
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="5">
         <v>44285.0</v>
       </c>
       <c r="C366" s="1">
@@ -10777,7 +10886,7 @@
         <f t="shared" si="1"/>
         <v>365</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="5">
         <v>44286.0</v>
       </c>
       <c r="C367" s="1">
@@ -10805,7 +10914,7 @@
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368" s="5">
         <v>44287.0</v>
       </c>
       <c r="C368" s="1">
@@ -10833,7 +10942,7 @@
         <f t="shared" si="1"/>
         <v>367</v>
       </c>
-      <c r="B369" s="4">
+      <c r="B369" s="5">
         <v>44288.0</v>
       </c>
       <c r="C369" s="1">
@@ -10861,7 +10970,7 @@
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370" s="5">
         <v>44289.0</v>
       </c>
       <c r="C370" s="1">
@@ -10889,7 +10998,7 @@
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
-      <c r="B371" s="4">
+      <c r="B371" s="5">
         <v>44290.0</v>
       </c>
       <c r="C371" s="1">
@@ -10917,7 +11026,7 @@
         <f t="shared" si="1"/>
         <v>370</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372" s="5">
         <v>44291.0</v>
       </c>
       <c r="C372" s="1">
@@ -10945,7 +11054,7 @@
         <f t="shared" si="1"/>
         <v>371</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B373" s="5">
         <v>44292.0</v>
       </c>
       <c r="C373" s="1">
@@ -10973,7 +11082,7 @@
         <f t="shared" si="1"/>
         <v>372</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374" s="5">
         <v>44293.0</v>
       </c>
       <c r="C374" s="1">
@@ -11001,7 +11110,7 @@
         <f t="shared" si="1"/>
         <v>373</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B375" s="5">
         <v>44294.0</v>
       </c>
       <c r="C375" s="1">
@@ -11029,7 +11138,7 @@
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="5">
         <v>44295.0</v>
       </c>
       <c r="C376" s="1">
@@ -11057,7 +11166,7 @@
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="B377" s="4">
+      <c r="B377" s="5">
         <v>44296.0</v>
       </c>
       <c r="C377" s="1">
@@ -11085,7 +11194,7 @@
         <f t="shared" si="1"/>
         <v>376</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378" s="5">
         <v>44297.0</v>
       </c>
       <c r="C378" s="1">
@@ -11113,7 +11222,7 @@
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
-      <c r="B379" s="4">
+      <c r="B379" s="5">
         <v>44298.0</v>
       </c>
       <c r="C379" s="1">
@@ -11141,7 +11250,7 @@
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380" s="5">
         <v>44299.0</v>
       </c>
       <c r="C380" s="1">
@@ -11169,7 +11278,7 @@
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
-      <c r="B381" s="4">
+      <c r="B381" s="5">
         <v>44300.0</v>
       </c>
       <c r="C381" s="1">
@@ -11179,7 +11288,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="E381" s="14">
+      <c r="E381" s="15">
         <v>354.0</v>
       </c>
       <c r="F381" s="1">
@@ -11197,7 +11306,7 @@
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382" s="5">
         <v>44301.0</v>
       </c>
       <c r="C382" s="1">
@@ -11225,7 +11334,7 @@
         <f t="shared" si="1"/>
         <v>381</v>
       </c>
-      <c r="B383" s="4">
+      <c r="B383" s="5">
         <v>44302.0</v>
       </c>
       <c r="C383" s="1">
@@ -11253,7 +11362,7 @@
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384" s="5">
         <v>44303.0</v>
       </c>
       <c r="C384" s="1">
@@ -11281,7 +11390,7 @@
         <f t="shared" si="1"/>
         <v>383</v>
       </c>
-      <c r="B385" s="4">
+      <c r="B385" s="5">
         <v>44304.0</v>
       </c>
       <c r="C385" s="1">
@@ -11309,7 +11418,7 @@
         <f t="shared" si="1"/>
         <v>384</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386" s="5">
         <v>44305.0</v>
       </c>
       <c r="C386" s="1">
@@ -11341,6 +11450,9 @@
         <v>0.0</v>
       </c>
       <c r="L386" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M386" s="1">
         <v>56601.0</v>
       </c>
     </row>
@@ -11349,7 +11461,7 @@
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="B387" s="4">
+      <c r="B387" s="5">
         <v>44306.0</v>
       </c>
       <c r="C387" s="1">
@@ -11381,6 +11493,9 @@
         <v>0.0</v>
       </c>
       <c r="L387" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M387" s="1">
         <v>57256.0</v>
       </c>
     </row>
@@ -11389,7 +11504,7 @@
         <f t="shared" si="1"/>
         <v>386</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="5">
         <v>44307.0</v>
       </c>
       <c r="C388" s="1">
@@ -11421,6 +11536,9 @@
         <v>0.0</v>
       </c>
       <c r="L388" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M388" s="1">
         <v>59208.0</v>
       </c>
     </row>
@@ -11429,7 +11547,7 @@
         <f t="shared" si="1"/>
         <v>387</v>
       </c>
-      <c r="B389" s="4">
+      <c r="B389" s="5">
         <v>44308.0</v>
       </c>
       <c r="C389" s="1">
@@ -11461,6 +11579,9 @@
         <v>0.0</v>
       </c>
       <c r="L389" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M389" s="1">
         <v>59560.0</v>
       </c>
     </row>
@@ -11469,7 +11590,7 @@
         <f t="shared" si="1"/>
         <v>388</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390" s="5">
         <v>44309.0</v>
       </c>
       <c r="C390" s="1">
@@ -11501,6 +11622,9 @@
         <v>0.0</v>
       </c>
       <c r="L390" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M390" s="1">
         <v>62318.0</v>
       </c>
     </row>
@@ -11509,7 +11633,7 @@
         <f t="shared" si="1"/>
         <v>389</v>
       </c>
-      <c r="B391" s="4">
+      <c r="B391" s="5">
         <v>44310.0</v>
       </c>
       <c r="C391" s="1">
@@ -11541,6 +11665,9 @@
         <v>0.0</v>
       </c>
       <c r="L391" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M391" s="1">
         <v>65021.0</v>
       </c>
     </row>
@@ -11549,7 +11676,7 @@
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392" s="5">
         <v>44311.0</v>
       </c>
       <c r="C392" s="1">
@@ -11581,6 +11708,9 @@
         <v>0.0</v>
       </c>
       <c r="L392" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M392" s="1">
         <v>65098.0</v>
       </c>
     </row>
@@ -11589,7 +11719,7 @@
         <f t="shared" si="1"/>
         <v>391</v>
       </c>
-      <c r="B393" s="4">
+      <c r="B393" s="5">
         <v>44312.0</v>
       </c>
       <c r="C393" s="1">
@@ -11621,6 +11751,9 @@
         <v>0.0</v>
       </c>
       <c r="L393" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M393" s="1">
         <v>65469.0</v>
       </c>
     </row>
@@ -11629,7 +11762,7 @@
         <f t="shared" si="1"/>
         <v>392</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394" s="5">
         <v>44313.0</v>
       </c>
       <c r="C394" s="1">
@@ -11661,6 +11794,9 @@
         <v>0.0</v>
       </c>
       <c r="L394" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M394" s="1">
         <v>68482.0</v>
       </c>
     </row>
@@ -11669,7 +11805,7 @@
         <f t="shared" si="1"/>
         <v>393</v>
       </c>
-      <c r="B395" s="4">
+      <c r="B395" s="5">
         <v>44314.0</v>
       </c>
       <c r="C395" s="1">
@@ -11701,6 +11837,9 @@
         <v>0.0</v>
       </c>
       <c r="L395" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M395" s="1">
         <v>69470.0</v>
       </c>
     </row>
@@ -11709,7 +11848,7 @@
         <f t="shared" si="1"/>
         <v>394</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396" s="5">
         <v>44315.0</v>
       </c>
       <c r="C396" s="1">
@@ -11741,6 +11880,9 @@
         <v>0.0</v>
       </c>
       <c r="L396" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M396" s="1">
         <v>72235.0</v>
       </c>
     </row>
@@ -11749,7 +11891,7 @@
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="B397" s="4">
+      <c r="B397" s="5">
         <v>44316.0</v>
       </c>
       <c r="C397" s="1">
@@ -11781,6 +11923,9 @@
         <v>0.0</v>
       </c>
       <c r="L397" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M397" s="1">
         <v>73885.0</v>
       </c>
     </row>
@@ -11789,7 +11934,7 @@
         <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398" s="5">
         <v>44317.0</v>
       </c>
       <c r="C398" s="1">
@@ -11821,6 +11966,9 @@
         <v>0.0</v>
       </c>
       <c r="L398" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M398" s="1">
         <v>74265.0</v>
       </c>
     </row>
@@ -11829,7 +11977,7 @@
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="B399" s="4">
+      <c r="B399" s="5">
         <v>44318.0</v>
       </c>
       <c r="C399" s="1">
@@ -11861,6 +12009,9 @@
         <v>0.0</v>
       </c>
       <c r="L399" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M399" s="1">
         <v>74488.0</v>
       </c>
     </row>
@@ -11869,7 +12020,7 @@
         <f t="shared" si="1"/>
         <v>398</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400" s="5">
         <v>44319.0</v>
       </c>
       <c r="C400" s="1">
@@ -11901,6 +12052,9 @@
         <v>0.0</v>
       </c>
       <c r="L400" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M400" s="1">
         <v>74548.0</v>
       </c>
     </row>
@@ -11909,7 +12063,7 @@
         <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="5">
         <v>44320.0</v>
       </c>
       <c r="C401" s="1">
@@ -11941,6 +12095,9 @@
         <v>0.0</v>
       </c>
       <c r="L401" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M401" s="1">
         <v>75627.0</v>
       </c>
     </row>
@@ -11949,7 +12106,7 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402" s="5">
         <v>44321.0</v>
       </c>
       <c r="C402" s="1">
@@ -11981,6 +12138,9 @@
         <v>0.0</v>
       </c>
       <c r="L402" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M402" s="1">
         <v>77308.0</v>
       </c>
     </row>
@@ -11989,7 +12149,7 @@
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="B403" s="4">
+      <c r="B403" s="5">
         <v>44322.0</v>
       </c>
       <c r="C403" s="1">
@@ -12021,6 +12181,9 @@
         <v>0.0</v>
       </c>
       <c r="L403" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M403" s="1">
         <v>79088.0</v>
       </c>
     </row>
@@ -12029,7 +12192,7 @@
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404" s="5">
         <v>44323.0</v>
       </c>
       <c r="C404" s="1">
@@ -12061,6 +12224,9 @@
         <v>0.0</v>
       </c>
       <c r="L404" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M404" s="1">
         <v>80701.0</v>
       </c>
     </row>
@@ -12069,7 +12235,7 @@
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="B405" s="4">
+      <c r="B405" s="5">
         <v>44324.0</v>
       </c>
       <c r="C405" s="1">
@@ -12101,6 +12267,9 @@
         <v>0.0</v>
       </c>
       <c r="L405" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M405" s="1">
         <v>82771.0</v>
       </c>
     </row>
@@ -12109,7 +12278,7 @@
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406" s="5">
         <v>44325.0</v>
       </c>
       <c r="C406" s="1">
@@ -12141,6 +12310,9 @@
         <v>0.0</v>
       </c>
       <c r="L406" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M406" s="1">
         <v>82771.0</v>
       </c>
     </row>
@@ -12149,7 +12321,7 @@
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="B407" s="4">
+      <c r="B407" s="5">
         <v>44326.0</v>
       </c>
       <c r="C407" s="1">
@@ -12181,6 +12353,9 @@
         <v>0.0</v>
       </c>
       <c r="L407" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M407" s="1">
         <v>83136.0</v>
       </c>
     </row>
@@ -12189,7 +12364,7 @@
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="B408" s="4">
+      <c r="B408" s="5">
         <v>44327.0</v>
       </c>
       <c r="C408" s="1">
@@ -12221,6 +12396,9 @@
         <v>0.0</v>
       </c>
       <c r="L408" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M408" s="1">
         <v>84589.0</v>
       </c>
     </row>
@@ -12229,7 +12407,7 @@
         <f t="shared" si="1"/>
         <v>407</v>
       </c>
-      <c r="B409" s="4">
+      <c r="B409" s="5">
         <v>44328.0</v>
       </c>
       <c r="C409" s="1">
@@ -12261,6 +12439,9 @@
         <v>0.0</v>
       </c>
       <c r="L409" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M409" s="1">
         <v>85803.0</v>
       </c>
     </row>
@@ -12269,7 +12450,7 @@
         <f t="shared" si="1"/>
         <v>408</v>
       </c>
-      <c r="B410" s="4">
+      <c r="B410" s="5">
         <v>44329.0</v>
       </c>
       <c r="C410" s="1">
@@ -12301,6 +12482,9 @@
         <v>0.0</v>
       </c>
       <c r="L410" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M410" s="1">
         <v>86633.0</v>
       </c>
     </row>
@@ -12309,7 +12493,7 @@
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
-      <c r="B411" s="4">
+      <c r="B411" s="5">
         <v>44330.0</v>
       </c>
       <c r="C411" s="1">
@@ -12331,7 +12515,7 @@
       <c r="H411" s="1">
         <v>82.0</v>
       </c>
-      <c r="I411" s="14">
+      <c r="I411" s="15">
         <v>55916.0</v>
       </c>
       <c r="J411" s="1">
@@ -12341,6 +12525,9 @@
         <v>0.0</v>
       </c>
       <c r="L411" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M411" s="1">
         <v>87432.0</v>
       </c>
     </row>
@@ -12349,7 +12536,7 @@
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="B412" s="4">
+      <c r="B412" s="5">
         <v>44331.0</v>
       </c>
       <c r="C412" s="1">
@@ -12381,6 +12568,9 @@
         <v>0.0</v>
       </c>
       <c r="L412" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M412" s="1">
         <v>88220.0</v>
       </c>
     </row>
@@ -12389,7 +12579,7 @@
         <f t="shared" si="1"/>
         <v>411</v>
       </c>
-      <c r="B413" s="4">
+      <c r="B413" s="5">
         <v>44332.0</v>
       </c>
       <c r="C413" s="1">
@@ -12421,6 +12611,9 @@
         <v>0.0</v>
       </c>
       <c r="L413" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M413" s="1">
         <v>88238.0</v>
       </c>
     </row>
@@ -12429,7 +12622,7 @@
         <f t="shared" si="1"/>
         <v>412</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414" s="5">
         <v>44333.0</v>
       </c>
       <c r="C414" s="1">
@@ -12461,6 +12654,9 @@
         <v>0.0</v>
       </c>
       <c r="L414" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M414" s="1">
         <v>88260.0</v>
       </c>
     </row>
@@ -12469,7 +12665,7 @@
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="B415" s="4">
+      <c r="B415" s="5">
         <v>44334.0</v>
       </c>
       <c r="C415" s="1">
@@ -12501,6 +12697,9 @@
         <v>0.0</v>
       </c>
       <c r="L415" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M415" s="1">
         <v>88798.0</v>
       </c>
     </row>
@@ -12509,7 +12708,7 @@
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B416" s="5">
         <v>44335.0</v>
       </c>
       <c r="C416" s="1">
@@ -12541,6 +12740,9 @@
         <v>0.0</v>
       </c>
       <c r="L416" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M416" s="1">
         <v>89615.0</v>
       </c>
     </row>
@@ -12549,7 +12751,7 @@
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="B417" s="4">
+      <c r="B417" s="5">
         <v>44336.0</v>
       </c>
       <c r="C417" s="1">
@@ -12581,6 +12783,9 @@
         <v>0.0</v>
       </c>
       <c r="L417" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M417" s="1">
         <v>90519.0</v>
       </c>
     </row>
@@ -12589,7 +12794,7 @@
         <f t="shared" si="1"/>
         <v>416</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418" s="5">
         <v>44337.0</v>
       </c>
       <c r="C418" s="1">
@@ -12621,6 +12826,9 @@
         <v>0.0</v>
       </c>
       <c r="L418" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M418" s="1">
         <v>91328.0</v>
       </c>
     </row>
@@ -12629,7 +12837,7 @@
         <f t="shared" si="1"/>
         <v>417</v>
       </c>
-      <c r="B419" s="4">
+      <c r="B419" s="5">
         <v>44338.0</v>
       </c>
       <c r="C419" s="1">
@@ -12661,6 +12869,9 @@
         <v>0.0</v>
       </c>
       <c r="L419" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M419" s="1">
         <v>93128.0</v>
       </c>
     </row>
@@ -12669,7 +12880,7 @@
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
-      <c r="B420" s="4">
+      <c r="B420" s="5">
         <v>44339.0</v>
       </c>
       <c r="C420" s="1">
@@ -12701,6 +12912,9 @@
         <v>0.0</v>
       </c>
       <c r="L420" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M420" s="1">
         <v>93310.0</v>
       </c>
     </row>
@@ -12709,7 +12923,7 @@
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
-      <c r="B421" s="4">
+      <c r="B421" s="5">
         <v>44340.0</v>
       </c>
       <c r="C421" s="1">
@@ -12741,6 +12955,9 @@
         <v>0.0</v>
       </c>
       <c r="L421" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M421" s="1">
         <v>93346.0</v>
       </c>
     </row>
@@ -12749,7 +12966,7 @@
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422" s="5">
         <v>44341.0</v>
       </c>
       <c r="C422" s="1">
@@ -12781,6 +12998,9 @@
         <v>0.0</v>
       </c>
       <c r="L422" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M422" s="1">
         <v>94340.0</v>
       </c>
     </row>
@@ -12789,7 +13009,7 @@
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
-      <c r="B423" s="4">
+      <c r="B423" s="5">
         <v>44342.0</v>
       </c>
       <c r="C423" s="1">
@@ -12821,6 +13041,9 @@
         <v>0.0</v>
       </c>
       <c r="L423" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M423" s="1">
         <v>95633.0</v>
       </c>
     </row>
@@ -12829,7 +13052,7 @@
         <f t="shared" si="1"/>
         <v>422</v>
       </c>
-      <c r="B424" s="4">
+      <c r="B424" s="5">
         <v>44343.0</v>
       </c>
       <c r="C424" s="1">
@@ -12861,6 +13084,9 @@
         <v>0.0</v>
       </c>
       <c r="L424" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M424" s="1">
         <v>97483.0</v>
       </c>
     </row>
@@ -12869,7 +13095,7 @@
         <f t="shared" si="1"/>
         <v>423</v>
       </c>
-      <c r="B425" s="4">
+      <c r="B425" s="5">
         <v>44344.0</v>
       </c>
       <c r="C425" s="1">
@@ -12901,6 +13127,9 @@
         <v>0.0</v>
       </c>
       <c r="L425" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M425" s="1">
         <v>98728.0</v>
       </c>
     </row>
@@ -12909,7 +13138,7 @@
         <f t="shared" si="1"/>
         <v>424</v>
       </c>
-      <c r="B426" s="4">
+      <c r="B426" s="5">
         <v>44345.0</v>
       </c>
       <c r="C426" s="1">
@@ -12941,6 +13170,9 @@
         <v>0.0</v>
       </c>
       <c r="L426" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M426" s="1">
         <v>99680.0</v>
       </c>
     </row>
@@ -12949,7 +13181,7 @@
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
-      <c r="B427" s="4">
+      <c r="B427" s="5">
         <v>44346.0</v>
       </c>
       <c r="C427" s="1">
@@ -12981,6 +13213,9 @@
         <v>0.0</v>
       </c>
       <c r="L427" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M427" s="1">
         <v>99884.0</v>
       </c>
     </row>
@@ -12989,7 +13224,7 @@
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
-      <c r="B428" s="4">
+      <c r="B428" s="5">
         <v>44347.0</v>
       </c>
       <c r="C428" s="1">
@@ -13021,6 +13256,9 @@
         <v>0.0</v>
       </c>
       <c r="L428" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M428" s="1">
         <v>99889.0</v>
       </c>
     </row>
@@ -13029,7 +13267,7 @@
         <f t="shared" si="1"/>
         <v>427</v>
       </c>
-      <c r="B429" s="4">
+      <c r="B429" s="5">
         <v>44348.0</v>
       </c>
       <c r="C429" s="1">
@@ -13061,6 +13299,9 @@
         <v>0.0</v>
       </c>
       <c r="L429" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M429" s="1">
         <v>100759.0</v>
       </c>
     </row>
@@ -13069,7 +13310,7 @@
         <f t="shared" si="1"/>
         <v>428</v>
       </c>
-      <c r="B430" s="4">
+      <c r="B430" s="5">
         <v>44349.0</v>
       </c>
       <c r="C430" s="1">
@@ -13101,6 +13342,9 @@
         <v>0.0</v>
       </c>
       <c r="L430" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M430" s="1">
         <v>101631.0</v>
       </c>
     </row>
@@ -13109,7 +13353,7 @@
         <f t="shared" si="1"/>
         <v>429</v>
       </c>
-      <c r="B431" s="4">
+      <c r="B431" s="5">
         <v>44350.0</v>
       </c>
       <c r="C431" s="1">
@@ -13141,6 +13385,9 @@
         <v>0.0</v>
       </c>
       <c r="L431" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M431" s="1">
         <v>102879.0</v>
       </c>
     </row>
@@ -13149,7 +13396,7 @@
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="B432" s="4">
+      <c r="B432" s="5">
         <v>44351.0</v>
       </c>
       <c r="C432" s="1">
@@ -13181,6 +13428,9 @@
         <v>0.0</v>
       </c>
       <c r="L432" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M432" s="1">
         <v>104315.0</v>
       </c>
     </row>
@@ -13189,7 +13439,7 @@
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
-      <c r="B433" s="4">
+      <c r="B433" s="5">
         <v>44352.0</v>
       </c>
       <c r="C433" s="1">
@@ -13221,6 +13471,9 @@
         <v>0.0</v>
       </c>
       <c r="L433" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M433" s="1">
         <v>105135.0</v>
       </c>
     </row>
@@ -13229,7 +13482,7 @@
         <f t="shared" si="1"/>
         <v>432</v>
       </c>
-      <c r="B434" s="4">
+      <c r="B434" s="5">
         <v>44353.0</v>
       </c>
       <c r="C434" s="1">
@@ -13261,6 +13514,9 @@
         <v>0.0</v>
       </c>
       <c r="L434" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M434" s="1">
         <v>105137.0</v>
       </c>
     </row>
@@ -13269,7 +13525,7 @@
         <f t="shared" si="1"/>
         <v>433</v>
       </c>
-      <c r="B435" s="4">
+      <c r="B435" s="5">
         <v>44354.0</v>
       </c>
       <c r="C435" s="1">
@@ -13301,6 +13557,9 @@
         <v>0.0</v>
       </c>
       <c r="L435" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M435" s="1">
         <v>105137.0</v>
       </c>
     </row>
@@ -13309,7 +13568,7 @@
         <f t="shared" si="1"/>
         <v>434</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436" s="5">
         <v>44355.0</v>
       </c>
       <c r="C436" s="1">
@@ -13341,6 +13600,9 @@
         <v>0.0</v>
       </c>
       <c r="L436" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M436" s="1">
         <v>106373.0</v>
       </c>
     </row>
@@ -13349,7 +13611,7 @@
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
-      <c r="B437" s="4">
+      <c r="B437" s="5">
         <v>44356.0</v>
       </c>
       <c r="C437" s="1">
@@ -13381,6 +13643,9 @@
         <v>0.0</v>
       </c>
       <c r="L437" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M437" s="1">
         <v>107517.0</v>
       </c>
     </row>
@@ -13389,7 +13654,7 @@
         <f t="shared" si="1"/>
         <v>436</v>
       </c>
-      <c r="B438" s="4">
+      <c r="B438" s="5">
         <v>44357.0</v>
       </c>
       <c r="C438" s="1">
@@ -13421,6 +13686,9 @@
         <v>0.0</v>
       </c>
       <c r="L438" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M438" s="1">
         <v>108103.0</v>
       </c>
     </row>
@@ -13429,7 +13697,7 @@
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="B439" s="4">
+      <c r="B439" s="5">
         <v>44358.0</v>
       </c>
       <c r="C439" s="1">
@@ -13461,6 +13729,9 @@
         <v>0.0</v>
       </c>
       <c r="L439" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M439" s="1">
         <v>109700.0</v>
       </c>
     </row>
@@ -13469,7 +13740,7 @@
         <f t="shared" si="1"/>
         <v>438</v>
       </c>
-      <c r="B440" s="4">
+      <c r="B440" s="5">
         <v>44359.0</v>
       </c>
       <c r="C440" s="1">
@@ -13501,6 +13772,9 @@
         <v>0.0</v>
       </c>
       <c r="L440" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M440" s="1">
         <v>110297.0</v>
       </c>
     </row>
@@ -13509,7 +13783,7 @@
         <f t="shared" si="1"/>
         <v>439</v>
       </c>
-      <c r="B441" s="4">
+      <c r="B441" s="5">
         <v>44360.0</v>
       </c>
       <c r="C441" s="1">
@@ -13541,6 +13815,9 @@
         <v>0.0</v>
       </c>
       <c r="L441" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M441" s="1">
         <v>110539.0</v>
       </c>
     </row>
@@ -13549,7 +13826,7 @@
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="B442" s="4">
+      <c r="B442" s="5">
         <v>44361.0</v>
       </c>
       <c r="C442" s="1">
@@ -13581,6 +13858,9 @@
         <v>0.0</v>
       </c>
       <c r="L442" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M442" s="1">
         <v>110585.0</v>
       </c>
     </row>
@@ -13589,7 +13869,7 @@
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="B443" s="4">
+      <c r="B443" s="5">
         <v>44362.0</v>
       </c>
       <c r="C443" s="1">
@@ -13621,6 +13901,9 @@
         <v>0.0</v>
       </c>
       <c r="L443" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M443" s="1">
         <v>111806.0</v>
       </c>
     </row>
@@ -13629,7 +13912,7 @@
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444" s="5">
         <v>44363.0</v>
       </c>
       <c r="C444" s="1">
@@ -13661,6 +13944,9 @@
         <v>0.0</v>
       </c>
       <c r="L444" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M444" s="1">
         <v>113348.0</v>
       </c>
     </row>
@@ -13669,7 +13955,7 @@
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
-      <c r="B445" s="4">
+      <c r="B445" s="5">
         <v>44364.0</v>
       </c>
       <c r="C445" s="1">
@@ -13701,6 +13987,9 @@
         <v>0.0</v>
       </c>
       <c r="L445" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M445" s="1">
         <v>114577.0</v>
       </c>
     </row>
@@ -13709,7 +13998,7 @@
         <f t="shared" si="1"/>
         <v>444</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446" s="5">
         <v>44365.0</v>
       </c>
       <c r="C446" s="1">
@@ -13741,6 +14030,9 @@
         <v>0.0</v>
       </c>
       <c r="L446" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M446" s="1">
         <v>116862.0</v>
       </c>
     </row>
@@ -13749,7 +14041,7 @@
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
-      <c r="B447" s="4">
+      <c r="B447" s="5">
         <v>44366.0</v>
       </c>
       <c r="C447" s="1">
@@ -13781,6 +14073,9 @@
         <v>0.0</v>
       </c>
       <c r="L447" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M447" s="1">
         <v>117176.0</v>
       </c>
     </row>
@@ -13789,7 +14084,7 @@
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
-      <c r="B448" s="4">
+      <c r="B448" s="5">
         <v>44367.0</v>
       </c>
       <c r="C448" s="1">
@@ -13821,6 +14116,9 @@
         <v>0.0</v>
       </c>
       <c r="L448" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M448" s="1">
         <v>117917.0</v>
       </c>
     </row>
@@ -13829,7 +14127,7 @@
         <f t="shared" si="1"/>
         <v>447</v>
       </c>
-      <c r="B449" s="4">
+      <c r="B449" s="5">
         <v>44368.0</v>
       </c>
       <c r="C449" s="1">
@@ -13861,6 +14159,9 @@
         <v>0.0</v>
       </c>
       <c r="L449" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M449" s="1">
         <v>117917.0</v>
       </c>
     </row>
@@ -13869,7 +14170,7 @@
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450" s="5">
         <v>44369.0</v>
       </c>
       <c r="C450" s="1">
@@ -13894,13 +14195,16 @@
       <c r="I450" s="1">
         <v>85434.0</v>
       </c>
-      <c r="J450" s="14">
+      <c r="J450" s="15">
         <v>38252.0</v>
       </c>
       <c r="K450" s="1">
         <v>0.0</v>
       </c>
       <c r="L450" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M450" s="1">
         <v>123752.0</v>
       </c>
     </row>
@@ -13909,7 +14213,7 @@
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
-      <c r="B451" s="4">
+      <c r="B451" s="5">
         <v>44370.0</v>
       </c>
       <c r="C451" s="1">
@@ -13941,6 +14245,9 @@
         <v>0.0</v>
       </c>
       <c r="L451" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M451" s="1">
         <v>126365.0</v>
       </c>
     </row>
@@ -13949,7 +14256,7 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="B452" s="4">
+      <c r="B452" s="5">
         <v>44371.0</v>
       </c>
       <c r="C452" s="1">
@@ -13981,6 +14288,9 @@
         <v>0.0</v>
       </c>
       <c r="L452" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M452" s="1">
         <v>129948.0</v>
       </c>
     </row>
@@ -13989,7 +14299,7 @@
         <f t="shared" si="1"/>
         <v>451</v>
       </c>
-      <c r="B453" s="4">
+      <c r="B453" s="5">
         <v>44372.0</v>
       </c>
       <c r="C453" s="1">
@@ -14021,6 +14331,9 @@
         <v>0.0</v>
       </c>
       <c r="L453" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M453" s="1">
         <v>132050.0</v>
       </c>
     </row>
@@ -14029,7 +14342,7 @@
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
-      <c r="B454" s="4">
+      <c r="B454" s="5">
         <v>44373.0</v>
       </c>
       <c r="C454" s="1">
@@ -14061,6 +14374,9 @@
         <v>0.0</v>
       </c>
       <c r="L454" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M454" s="1">
         <v>133459.0</v>
       </c>
     </row>
@@ -14069,7 +14385,7 @@
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
-      <c r="B455" s="4">
+      <c r="B455" s="5">
         <v>44374.0</v>
       </c>
       <c r="C455" s="1">
@@ -14101,6 +14417,9 @@
         <v>0.0</v>
       </c>
       <c r="L455" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M455" s="1">
         <v>133968.0</v>
       </c>
     </row>
@@ -14109,10 +14428,10 @@
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="B456" s="4">
+      <c r="B456" s="5">
         <v>44375.0</v>
       </c>
-      <c r="C456" s="14">
+      <c r="C456" s="15">
         <v>25430.0</v>
       </c>
       <c r="D456" s="2">
@@ -14141,6 +14460,9 @@
         <v>0.0</v>
       </c>
       <c r="L456" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M456" s="1">
         <v>134140.0</v>
       </c>
     </row>
@@ -14149,7 +14471,7 @@
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="B457" s="4">
+      <c r="B457" s="5">
         <v>44376.0</v>
       </c>
       <c r="C457" s="1">
@@ -14181,6 +14503,9 @@
         <v>0.0</v>
       </c>
       <c r="L457" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M457" s="1">
         <v>136379.0</v>
       </c>
     </row>
@@ -14189,7 +14514,7 @@
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458" s="5">
         <v>44377.0</v>
       </c>
       <c r="C458" s="1">
@@ -14221,6 +14546,9 @@
         <v>0.0</v>
       </c>
       <c r="L458" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M458" s="1">
         <v>138800.0</v>
       </c>
     </row>
@@ -14229,7 +14557,7 @@
         <f t="shared" si="1"/>
         <v>457</v>
       </c>
-      <c r="B459" s="4">
+      <c r="B459" s="5">
         <v>44378.0</v>
       </c>
       <c r="C459" s="1">
@@ -14261,6 +14589,9 @@
         <v>0.0</v>
       </c>
       <c r="L459" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M459" s="1">
         <v>141371.0</v>
       </c>
     </row>
@@ -14269,7 +14600,7 @@
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
-      <c r="B460" s="4">
+      <c r="B460" s="5">
         <v>44379.0</v>
       </c>
       <c r="C460" s="1">
@@ -14301,6 +14632,9 @@
         <v>56.0</v>
       </c>
       <c r="L460" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M460" s="1">
         <v>143434.0</v>
       </c>
     </row>
@@ -14309,7 +14643,7 @@
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
-      <c r="B461" s="4">
+      <c r="B461" s="5">
         <v>44380.0</v>
       </c>
       <c r="C461" s="1">
@@ -14341,6 +14675,9 @@
         <v>135.0</v>
       </c>
       <c r="L461" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M461" s="1">
         <v>146425.0</v>
       </c>
     </row>
@@ -14349,7 +14686,7 @@
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="B462" s="4">
+      <c r="B462" s="5">
         <v>44381.0</v>
       </c>
       <c r="C462" s="1">
@@ -14381,6 +14718,9 @@
         <v>135.0</v>
       </c>
       <c r="L462" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M462" s="1">
         <v>146425.0</v>
       </c>
     </row>
@@ -14389,7 +14729,7 @@
         <f t="shared" si="1"/>
         <v>461</v>
       </c>
-      <c r="B463" s="4">
+      <c r="B463" s="5">
         <v>44382.0</v>
       </c>
       <c r="C463" s="1">
@@ -14421,6 +14761,9 @@
         <v>257.0</v>
       </c>
       <c r="L463" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M463" s="1">
         <v>147877.0</v>
       </c>
     </row>
@@ -14429,7 +14772,7 @@
         <f t="shared" si="1"/>
         <v>462</v>
       </c>
-      <c r="B464" s="4">
+      <c r="B464" s="5">
         <v>44383.0</v>
       </c>
       <c r="C464" s="1">
@@ -14461,6 +14804,9 @@
         <v>318.0</v>
       </c>
       <c r="L464" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M464" s="1">
         <v>150018.0</v>
       </c>
     </row>
@@ -14469,7 +14815,7 @@
         <f t="shared" si="1"/>
         <v>463</v>
       </c>
-      <c r="B465" s="4">
+      <c r="B465" s="5">
         <v>44384.0</v>
       </c>
       <c r="C465" s="1">
@@ -14501,6 +14847,9 @@
         <v>319.0</v>
       </c>
       <c r="L465" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M465" s="1">
         <v>152008.0</v>
       </c>
     </row>
@@ -14509,7 +14858,7 @@
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="B466" s="4">
+      <c r="B466" s="5">
         <v>44385.0</v>
       </c>
       <c r="C466" s="1">
@@ -14541,6 +14890,9 @@
         <v>336.0</v>
       </c>
       <c r="L466" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M466" s="1">
         <v>154295.0</v>
       </c>
     </row>
@@ -14549,7 +14901,7 @@
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="B467" s="4">
+      <c r="B467" s="5">
         <v>44386.0</v>
       </c>
       <c r="C467" s="1">
@@ -14581,6 +14933,9 @@
         <v>1017.0</v>
       </c>
       <c r="L467" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M467" s="1">
         <v>156698.0</v>
       </c>
     </row>
@@ -14589,7 +14944,7 @@
         <f t="shared" si="1"/>
         <v>466</v>
       </c>
-      <c r="B468" s="4">
+      <c r="B468" s="5">
         <v>44387.0</v>
       </c>
       <c r="C468" s="1">
@@ -14621,6 +14976,9 @@
         <v>1113.0</v>
       </c>
       <c r="L468" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M468" s="1">
         <v>158477.0</v>
       </c>
     </row>
@@ -14629,7 +14987,7 @@
         <f t="shared" si="1"/>
         <v>467</v>
       </c>
-      <c r="B469" s="4">
+      <c r="B469" s="5">
         <v>44388.0</v>
       </c>
       <c r="C469" s="1">
@@ -14661,6 +15019,9 @@
         <v>2179.0</v>
       </c>
       <c r="L469" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M469" s="1">
         <v>159606.0</v>
       </c>
     </row>
@@ -14669,7 +15030,7 @@
         <f t="shared" si="1"/>
         <v>468</v>
       </c>
-      <c r="B470" s="4">
+      <c r="B470" s="5">
         <v>44389.0</v>
       </c>
       <c r="C470" s="1">
@@ -14701,6 +15062,9 @@
         <v>2179.0</v>
       </c>
       <c r="L470" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M470" s="1">
         <v>159669.0</v>
       </c>
     </row>
@@ -14709,7 +15073,7 @@
         <f t="shared" si="1"/>
         <v>469</v>
       </c>
-      <c r="B471" s="4">
+      <c r="B471" s="5">
         <v>44390.0</v>
       </c>
       <c r="C471" s="1">
@@ -14741,6 +15105,9 @@
         <v>2668.0</v>
       </c>
       <c r="L471" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M471" s="1">
         <v>161994.0</v>
       </c>
     </row>
@@ -14749,7 +15116,7 @@
         <f t="shared" si="1"/>
         <v>470</v>
       </c>
-      <c r="B472" s="4">
+      <c r="B472" s="5">
         <v>44391.0</v>
       </c>
       <c r="C472" s="1">
@@ -14781,6 +15148,9 @@
         <v>2669.0</v>
       </c>
       <c r="L472" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M472" s="1">
         <v>162259.0</v>
       </c>
     </row>
@@ -14789,7 +15159,7 @@
         <f t="shared" si="1"/>
         <v>471</v>
       </c>
-      <c r="B473" s="4">
+      <c r="B473" s="5">
         <v>44392.0</v>
       </c>
       <c r="C473" s="1">
@@ -14821,6 +15191,9 @@
         <v>2981.0</v>
       </c>
       <c r="L473" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M473" s="1">
         <v>164750.0</v>
       </c>
     </row>
@@ -14829,7 +15202,7 @@
         <f t="shared" si="1"/>
         <v>472</v>
       </c>
-      <c r="B474" s="4">
+      <c r="B474" s="5">
         <v>44393.0</v>
       </c>
       <c r="C474" s="1">
@@ -14861,6 +15234,9 @@
         <v>3605.0</v>
       </c>
       <c r="L474" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M474" s="1">
         <v>167720.0</v>
       </c>
     </row>
@@ -14869,7 +15245,7 @@
         <f t="shared" si="1"/>
         <v>473</v>
       </c>
-      <c r="B475" s="4">
+      <c r="B475" s="5">
         <v>44394.0</v>
       </c>
       <c r="C475" s="1">
@@ -14901,6 +15277,9 @@
         <v>4204.0</v>
       </c>
       <c r="L475" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M475" s="1">
         <v>171064.0</v>
       </c>
     </row>
@@ -14909,7 +15288,7 @@
         <f t="shared" si="1"/>
         <v>474</v>
       </c>
-      <c r="B476" s="4">
+      <c r="B476" s="5">
         <v>44395.0</v>
       </c>
       <c r="C476" s="1">
@@ -14941,6 +15320,9 @@
         <v>4204.0</v>
       </c>
       <c r="L476" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M476" s="1">
         <v>171064.0</v>
       </c>
     </row>
@@ -14949,7 +15331,7 @@
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="B477" s="4">
+      <c r="B477" s="5">
         <v>44396.0</v>
       </c>
       <c r="C477" s="1">
@@ -14965,7 +15347,7 @@
       <c r="F477" s="1">
         <v>146.0</v>
       </c>
-      <c r="G477" s="14">
+      <c r="G477" s="15">
         <v>133.0</v>
       </c>
       <c r="H477" s="1">
@@ -14981,6 +15363,9 @@
         <v>4204.0</v>
       </c>
       <c r="L477" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M477" s="1">
         <v>171064.0</v>
       </c>
     </row>
@@ -14989,7 +15374,7 @@
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="B478" s="4">
+      <c r="B478" s="5">
         <v>44397.0</v>
       </c>
       <c r="C478" s="1">
@@ -15021,6 +15406,9 @@
         <v>4427.0</v>
       </c>
       <c r="L478" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M478" s="1">
         <v>174562.0</v>
       </c>
     </row>
@@ -15029,7 +15417,7 @@
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
-      <c r="B479" s="4">
+      <c r="B479" s="5">
         <v>44398.0</v>
       </c>
       <c r="C479" s="1">
@@ -15061,6 +15449,9 @@
         <v>5198.0</v>
       </c>
       <c r="L479" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M479" s="1">
         <v>180429.0</v>
       </c>
     </row>
@@ -15069,7 +15460,7 @@
         <f t="shared" si="1"/>
         <v>478</v>
       </c>
-      <c r="B480" s="4">
+      <c r="B480" s="5">
         <v>44399.0</v>
       </c>
       <c r="C480" s="1">
@@ -15101,6 +15492,9 @@
         <v>5647.0</v>
       </c>
       <c r="L480" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M480" s="1">
         <v>185083.0</v>
       </c>
     </row>
@@ -15109,7 +15503,7 @@
         <f t="shared" si="1"/>
         <v>479</v>
       </c>
-      <c r="B481" s="4">
+      <c r="B481" s="5">
         <v>44400.0</v>
       </c>
       <c r="C481" s="1">
@@ -15141,6 +15535,9 @@
         <v>5749.0</v>
       </c>
       <c r="L481" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M481" s="1">
         <v>188196.0</v>
       </c>
     </row>
@@ -15149,7 +15546,7 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="B482" s="4">
+      <c r="B482" s="5">
         <v>44401.0</v>
       </c>
       <c r="C482" s="1">
@@ -15181,6 +15578,9 @@
         <v>5763.0</v>
       </c>
       <c r="L482" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M482" s="1">
         <v>192036.0</v>
       </c>
     </row>
@@ -15189,7 +15589,7 @@
         <f t="shared" si="1"/>
         <v>481</v>
       </c>
-      <c r="B483" s="4">
+      <c r="B483" s="5">
         <v>44402.0</v>
       </c>
       <c r="C483" s="1">
@@ -15221,6 +15621,9 @@
         <v>5764.0</v>
       </c>
       <c r="L483" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M483" s="1">
         <v>193185.0</v>
       </c>
     </row>
@@ -15229,7 +15632,7 @@
         <f t="shared" si="1"/>
         <v>482</v>
       </c>
-      <c r="B484" s="4">
+      <c r="B484" s="5">
         <v>44403.0</v>
       </c>
       <c r="C484" s="1">
@@ -15261,6 +15664,9 @@
         <v>5853.0</v>
       </c>
       <c r="L484" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M484" s="1">
         <v>193683.0</v>
       </c>
     </row>
@@ -15269,7 +15675,7 @@
         <f t="shared" si="1"/>
         <v>483</v>
       </c>
-      <c r="B485" s="4">
+      <c r="B485" s="5">
         <v>44404.0</v>
       </c>
       <c r="C485" s="1">
@@ -15301,6 +15707,9 @@
         <v>5839.0</v>
       </c>
       <c r="L485" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M485" s="1">
         <v>195640.0</v>
       </c>
     </row>
@@ -15309,7 +15718,7 @@
         <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="B486" s="4">
+      <c r="B486" s="5">
         <v>44405.0</v>
       </c>
       <c r="C486" s="1">
@@ -15341,6 +15750,9 @@
         <v>5852.0</v>
       </c>
       <c r="L486" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M486" s="1">
         <v>198677.0</v>
       </c>
     </row>
@@ -15349,7 +15761,7 @@
         <f t="shared" si="1"/>
         <v>485</v>
       </c>
-      <c r="B487" s="4">
+      <c r="B487" s="5">
         <v>44406.0</v>
       </c>
       <c r="C487" s="1">
@@ -15381,6 +15793,9 @@
         <v>5878.0</v>
       </c>
       <c r="L487" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M487" s="1">
         <v>201501.0</v>
       </c>
     </row>
@@ -15389,7 +15804,7 @@
         <f t="shared" si="1"/>
         <v>486</v>
       </c>
-      <c r="B488" s="4">
+      <c r="B488" s="5">
         <v>44407.0</v>
       </c>
       <c r="C488" s="1">
@@ -15411,7 +15826,7 @@
       <c r="H488" s="1">
         <v>49.0</v>
       </c>
-      <c r="I488" s="14">
+      <c r="I488" s="15">
         <v>144080.0</v>
       </c>
       <c r="J488" s="1">
@@ -15421,6 +15836,9 @@
         <v>5884.0</v>
       </c>
       <c r="L488" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M488" s="1">
         <v>204336.0</v>
       </c>
     </row>
@@ -15429,7 +15847,7 @@
         <f t="shared" si="1"/>
         <v>487</v>
       </c>
-      <c r="B489" s="4">
+      <c r="B489" s="5">
         <v>44408.0</v>
       </c>
       <c r="C489" s="1">
@@ -15461,6 +15879,9 @@
         <v>5884.0</v>
       </c>
       <c r="L489" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M489" s="1">
         <v>206892.0</v>
       </c>
     </row>
@@ -15469,7 +15890,7 @@
         <f t="shared" si="1"/>
         <v>488</v>
       </c>
-      <c r="B490" s="4">
+      <c r="B490" s="5">
         <v>44409.0</v>
       </c>
       <c r="C490" s="1">
@@ -15501,6 +15922,9 @@
         <v>5884.0</v>
       </c>
       <c r="L490" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M490" s="1">
         <v>207094.0</v>
       </c>
     </row>
@@ -15509,7 +15933,7 @@
         <f t="shared" si="1"/>
         <v>489</v>
       </c>
-      <c r="B491" s="4">
+      <c r="B491" s="5">
         <v>44410.0</v>
       </c>
       <c r="C491" s="1">
@@ -15541,6 +15965,9 @@
         <v>5884.0</v>
       </c>
       <c r="L491" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M491" s="1">
         <v>207279.0</v>
       </c>
     </row>
@@ -15549,7 +15976,7 @@
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="B492" s="4">
+      <c r="B492" s="5">
         <v>44411.0</v>
       </c>
       <c r="C492" s="1">
@@ -15581,6 +16008,9 @@
         <v>5884.0</v>
       </c>
       <c r="L492" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M492" s="1">
         <v>209431.0</v>
       </c>
     </row>
@@ -15589,7 +16019,7 @@
         <f t="shared" si="1"/>
         <v>491</v>
       </c>
-      <c r="B493" s="4">
+      <c r="B493" s="5">
         <v>44412.0</v>
       </c>
       <c r="C493" s="1">
@@ -15621,6 +16051,9 @@
         <v>5902.0</v>
       </c>
       <c r="L493" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M493" s="1">
         <v>213054.0</v>
       </c>
     </row>
@@ -15629,7 +16062,7 @@
         <f t="shared" si="1"/>
         <v>492</v>
       </c>
-      <c r="B494" s="4">
+      <c r="B494" s="5">
         <v>44413.0</v>
       </c>
       <c r="C494" s="1">
@@ -15661,6 +16094,9 @@
         <v>5941.0</v>
       </c>
       <c r="L494" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M494" s="1">
         <v>216129.0</v>
       </c>
     </row>
@@ -15669,7 +16105,7 @@
         <f t="shared" si="1"/>
         <v>493</v>
       </c>
-      <c r="B495" s="4">
+      <c r="B495" s="5">
         <v>44414.0</v>
       </c>
       <c r="C495" s="1">
@@ -15701,6 +16137,9 @@
         <v>5941.0</v>
       </c>
       <c r="L495" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M495" s="1">
         <v>218665.0</v>
       </c>
     </row>
@@ -15709,7 +16148,7 @@
         <f t="shared" si="1"/>
         <v>494</v>
       </c>
-      <c r="B496" s="4">
+      <c r="B496" s="5">
         <v>44415.0</v>
       </c>
       <c r="C496" s="1">
@@ -15741,6 +16180,9 @@
         <v>5941.0</v>
       </c>
       <c r="L496" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M496" s="1">
         <v>221496.0</v>
       </c>
     </row>
@@ -15749,7 +16191,7 @@
         <f t="shared" si="1"/>
         <v>495</v>
       </c>
-      <c r="B497" s="4">
+      <c r="B497" s="5">
         <v>44416.0</v>
       </c>
       <c r="C497" s="1">
@@ -15781,6 +16223,9 @@
         <v>5941.0</v>
       </c>
       <c r="L497" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M497" s="1">
         <v>222104.0</v>
       </c>
     </row>
@@ -15789,7 +16234,7 @@
         <f t="shared" si="1"/>
         <v>496</v>
       </c>
-      <c r="B498" s="4">
+      <c r="B498" s="5">
         <v>44417.0</v>
       </c>
       <c r="C498" s="1">
@@ -15821,6 +16266,9 @@
         <v>5941.0</v>
       </c>
       <c r="L498" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M498" s="1">
         <v>222283.0</v>
       </c>
     </row>
@@ -15829,7 +16277,7 @@
         <f t="shared" si="1"/>
         <v>497</v>
       </c>
-      <c r="B499" s="4">
+      <c r="B499" s="5">
         <v>44418.0</v>
       </c>
       <c r="C499" s="1">
@@ -15861,6 +16309,9 @@
         <v>5942.0</v>
       </c>
       <c r="L499" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M499" s="1">
         <v>224794.0</v>
       </c>
     </row>
@@ -15869,7 +16320,7 @@
         <f t="shared" si="1"/>
         <v>498</v>
       </c>
-      <c r="B500" s="4">
+      <c r="B500" s="5">
         <v>44419.0</v>
       </c>
       <c r="C500" s="1">
@@ -15901,6 +16352,9 @@
         <v>5942.0</v>
       </c>
       <c r="L500" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M500" s="1">
         <v>226537.0</v>
       </c>
     </row>
@@ -15909,7 +16363,7 @@
         <f t="shared" si="1"/>
         <v>499</v>
       </c>
-      <c r="B501" s="4">
+      <c r="B501" s="5">
         <v>44420.0</v>
       </c>
       <c r="C501" s="1">
@@ -15941,6 +16395,9 @@
         <v>5943.0</v>
       </c>
       <c r="L501" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M501" s="1">
         <v>229133.0</v>
       </c>
     </row>
@@ -15949,7 +16406,7 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="B502" s="4">
+      <c r="B502" s="5">
         <v>44421.0</v>
       </c>
       <c r="C502" s="1">
@@ -15981,6 +16438,9 @@
         <v>5943.0</v>
       </c>
       <c r="L502" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M502" s="1">
         <v>232453.0</v>
       </c>
     </row>
@@ -15989,7 +16449,7 @@
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="B503" s="4">
+      <c r="B503" s="5">
         <v>44422.0</v>
       </c>
       <c r="C503" s="1">
@@ -16021,6 +16481,9 @@
         <v>5943.0</v>
       </c>
       <c r="L503" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M503" s="1">
         <v>235923.0</v>
       </c>
     </row>
@@ -16029,7 +16492,7 @@
         <f t="shared" si="1"/>
         <v>502</v>
       </c>
-      <c r="B504" s="4">
+      <c r="B504" s="5">
         <v>44423.0</v>
       </c>
       <c r="C504" s="1">
@@ -16061,6 +16524,9 @@
         <v>5943.0</v>
       </c>
       <c r="L504" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M504" s="1">
         <v>236080.0</v>
       </c>
     </row>
@@ -16069,7 +16535,7 @@
         <f t="shared" si="1"/>
         <v>503</v>
       </c>
-      <c r="B505" s="4">
+      <c r="B505" s="5">
         <v>44424.0</v>
       </c>
       <c r="C505" s="1">
@@ -16101,6 +16567,9 @@
         <v>5943.0</v>
       </c>
       <c r="L505" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M505" s="1">
         <v>236193.0</v>
       </c>
     </row>
@@ -16109,7 +16578,7 @@
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="B506" s="4">
+      <c r="B506" s="5">
         <v>44425.0</v>
       </c>
       <c r="C506" s="1">
@@ -16141,6 +16610,9 @@
         <v>5944.0</v>
       </c>
       <c r="L506" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M506" s="1">
         <v>239465.0</v>
       </c>
     </row>
@@ -16149,7 +16621,7 @@
         <f t="shared" si="1"/>
         <v>505</v>
       </c>
-      <c r="B507" s="4">
+      <c r="B507" s="5">
         <v>44426.0</v>
       </c>
       <c r="C507" s="1">
@@ -16181,6 +16653,9 @@
         <v>5944.0</v>
       </c>
       <c r="L507" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M507" s="1">
         <v>243180.0</v>
       </c>
     </row>
@@ -16189,7 +16664,7 @@
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="B508" s="4">
+      <c r="B508" s="5">
         <v>44427.0</v>
       </c>
       <c r="C508" s="1">
@@ -16221,6 +16696,9 @@
         <v>5944.0</v>
       </c>
       <c r="L508" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M508" s="1">
         <v>247184.0</v>
       </c>
     </row>
@@ -16229,7 +16707,7 @@
         <f t="shared" si="1"/>
         <v>507</v>
       </c>
-      <c r="B509" s="4">
+      <c r="B509" s="5">
         <v>44428.0</v>
       </c>
       <c r="C509" s="1">
@@ -16261,6 +16739,9 @@
         <v>5944.0</v>
       </c>
       <c r="L509" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M509" s="1">
         <v>250875.0</v>
       </c>
     </row>
@@ -16269,38 +16750,41 @@
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
-      <c r="B510" s="4">
+      <c r="B510" s="5">
         <v>44429.0</v>
       </c>
-      <c r="C510" s="15">
+      <c r="C510" s="1">
         <v>29271.0</v>
       </c>
       <c r="D510" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="E510" s="15">
+      <c r="E510" s="1">
         <v>570.0</v>
       </c>
-      <c r="F510" s="15">
+      <c r="F510" s="1">
         <v>41.0</v>
       </c>
-      <c r="G510" s="15">
+      <c r="G510" s="1">
         <v>41.0</v>
       </c>
-      <c r="H510" s="15">
+      <c r="H510" s="1">
         <v>23.0</v>
       </c>
-      <c r="I510" s="15">
+      <c r="I510" s="1">
         <v>174035.0</v>
       </c>
-      <c r="J510" s="15">
+      <c r="J510" s="1">
         <v>74818.0</v>
       </c>
-      <c r="K510" s="15">
+      <c r="K510" s="1">
         <v>5977.0</v>
       </c>
-      <c r="L510" s="15">
+      <c r="L510" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M510" s="1">
         <v>254830.0</v>
       </c>
     </row>
@@ -16309,223 +16793,1422 @@
         <f t="shared" si="1"/>
         <v>509</v>
       </c>
-      <c r="B511" s="4">
+      <c r="B511" s="5">
         <v>44430.0</v>
       </c>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="2"/>
-      <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
-      <c r="H511" s="2"/>
-      <c r="I511" s="2"/>
-      <c r="J511" s="2"/>
-      <c r="K511" s="2"/>
-      <c r="L511" s="2"/>
+      <c r="C511" s="1">
+        <v>29294.0</v>
+      </c>
+      <c r="D511" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E511" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="F511" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="G511" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="H511" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I511" s="1">
+        <v>174068.0</v>
+      </c>
+      <c r="J511" s="1">
+        <v>74861.0</v>
+      </c>
+      <c r="K511" s="1">
+        <v>5977.0</v>
+      </c>
+      <c r="L511" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M511" s="1">
+        <v>254906.0</v>
+      </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="1">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="B512" s="4">
+      <c r="B512" s="5">
         <v>44431.0</v>
       </c>
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2"/>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
+      <c r="C512" s="1">
+        <v>29304.0</v>
+      </c>
+      <c r="D512" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E512" s="1">
+        <v>571.0</v>
+      </c>
+      <c r="F512" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="G512" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="H512" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="I512" s="1">
+        <v>174226.0</v>
+      </c>
+      <c r="J512" s="1">
+        <v>75055.0</v>
+      </c>
+      <c r="K512" s="1">
+        <v>5977.0</v>
+      </c>
+      <c r="L512" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M512" s="1">
+        <v>255258.0</v>
+      </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="1">
         <f t="shared" si="1"/>
         <v>511</v>
       </c>
-      <c r="B513" s="4">
+      <c r="B513" s="5">
         <v>44432.0</v>
       </c>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="2"/>
-      <c r="K513" s="2"/>
-      <c r="L513" s="2"/>
+      <c r="C513" s="1">
+        <v>29333.0</v>
+      </c>
+      <c r="D513" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E513" s="1">
+        <v>572.0</v>
+      </c>
+      <c r="F513" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G513" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="H513" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="I513" s="1">
+        <v>175314.0</v>
+      </c>
+      <c r="J513" s="1">
+        <v>77841.0</v>
+      </c>
+      <c r="K513" s="1">
+        <v>5978.0</v>
+      </c>
+      <c r="L513" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M513" s="1">
+        <v>259133.0</v>
+      </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="1">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="B514" s="4">
+      <c r="B514" s="5">
         <v>44433.0</v>
       </c>
-      <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-      <c r="E514" s="2"/>
-      <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
-      <c r="H514" s="2"/>
-      <c r="I514" s="2"/>
-      <c r="J514" s="2"/>
-      <c r="K514" s="2"/>
-      <c r="L514" s="2"/>
+      <c r="C514" s="1">
+        <v>29351.0</v>
+      </c>
+      <c r="D514" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E514" s="1">
+        <v>573.0</v>
+      </c>
+      <c r="F514" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="G514" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="H514" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="I514" s="1">
+        <v>175858.0</v>
+      </c>
+      <c r="J514" s="1">
+        <v>80461.0</v>
+      </c>
+      <c r="K514" s="1">
+        <v>6006.0</v>
+      </c>
+      <c r="L514" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M514" s="1">
+        <v>262325.0</v>
+      </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="1">
         <f t="shared" si="1"/>
         <v>513</v>
       </c>
-      <c r="B515" s="4">
+      <c r="B515" s="5">
         <v>44434.0</v>
       </c>
-      <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="2"/>
-      <c r="F515" s="2"/>
-      <c r="G515" s="2"/>
-      <c r="H515" s="2"/>
-      <c r="I515" s="2"/>
-      <c r="J515" s="2"/>
-      <c r="K515" s="2"/>
-      <c r="L515" s="2"/>
+      <c r="C515" s="1">
+        <v>29374.0</v>
+      </c>
+      <c r="D515" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E515" s="1">
+        <v>573.0</v>
+      </c>
+      <c r="F515" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="G515" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="H515" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="I515" s="1">
+        <v>176110.0</v>
+      </c>
+      <c r="J515" s="1">
+        <v>81538.0</v>
+      </c>
+      <c r="K515" s="1">
+        <v>6006.0</v>
+      </c>
+      <c r="L515" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M515" s="1">
+        <v>263654.0</v>
+      </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="1">
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="B516" s="4">
+      <c r="B516" s="5">
         <v>44435.0</v>
       </c>
-      <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="2"/>
-      <c r="F516" s="2"/>
-      <c r="G516" s="2"/>
-      <c r="H516" s="2"/>
-      <c r="I516" s="2"/>
-      <c r="J516" s="2"/>
-      <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
+      <c r="C516" s="1">
+        <v>29416.0</v>
+      </c>
+      <c r="D516" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E516" s="1">
+        <v>574.0</v>
+      </c>
+      <c r="F516" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="G516" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="H516" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="I516" s="1">
+        <v>176110.0</v>
+      </c>
+      <c r="J516" s="1">
+        <v>81538.0</v>
+      </c>
+      <c r="K516" s="1">
+        <v>6006.0</v>
+      </c>
+      <c r="L516" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M516" s="1">
+        <v>263654.0</v>
+      </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="1">
         <f t="shared" si="1"/>
         <v>515</v>
       </c>
-      <c r="B517" s="4">
+      <c r="B517" s="5">
         <v>44436.0</v>
       </c>
-      <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="2"/>
-      <c r="K517" s="2"/>
-      <c r="L517" s="2"/>
+      <c r="C517" s="1">
+        <v>29442.0</v>
+      </c>
+      <c r="D517" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E517" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F517" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G517" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="H517" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I517" s="1">
+        <v>176555.0</v>
+      </c>
+      <c r="J517" s="1">
+        <v>84329.0</v>
+      </c>
+      <c r="K517" s="1">
+        <v>6061.0</v>
+      </c>
+      <c r="L517" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M517" s="1">
+        <v>266945.0</v>
+      </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="1">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
-      <c r="B518" s="4">
+      <c r="B518" s="5">
         <v>44437.0</v>
       </c>
-      <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="2"/>
-      <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="2"/>
-      <c r="K518" s="2"/>
-      <c r="L518" s="2"/>
+      <c r="C518" s="1">
+        <v>29457.0</v>
+      </c>
+      <c r="D518" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E518" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F518" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="G518" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H518" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="I518" s="1">
+        <v>176555.0</v>
+      </c>
+      <c r="J518" s="1">
+        <v>84329.0</v>
+      </c>
+      <c r="K518" s="1">
+        <v>6061.0</v>
+      </c>
+      <c r="L518" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M518" s="1">
+        <v>266945.0</v>
+      </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="1">
         <f t="shared" si="1"/>
         <v>517</v>
       </c>
-      <c r="B519" s="4">
+      <c r="B519" s="5">
         <v>44438.0</v>
       </c>
-      <c r="C519" s="2"/>
-      <c r="D519" s="2"/>
-      <c r="E519" s="2"/>
-      <c r="F519" s="2"/>
-      <c r="G519" s="2"/>
-      <c r="H519" s="2"/>
-      <c r="I519" s="2"/>
-      <c r="J519" s="2"/>
-      <c r="K519" s="2"/>
-      <c r="L519" s="2"/>
+      <c r="C519" s="1">
+        <v>29461.0</v>
+      </c>
+      <c r="D519" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E519" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F519" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="G519" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="H519" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="I519" s="1">
+        <v>176634.0</v>
+      </c>
+      <c r="J519" s="1">
+        <v>84388.0</v>
+      </c>
+      <c r="K519" s="1">
+        <v>6061.0</v>
+      </c>
+      <c r="L519" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M519" s="1">
+        <v>267083.0</v>
+      </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="1">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B520" s="5">
         <v>44439.0</v>
       </c>
-      <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
-      <c r="E520" s="2"/>
-      <c r="F520" s="2"/>
-      <c r="G520" s="2"/>
-      <c r="H520" s="2"/>
-      <c r="I520" s="2"/>
-      <c r="J520" s="2"/>
-      <c r="K520" s="2"/>
-      <c r="L520" s="2"/>
+      <c r="C520" s="1">
+        <v>29495.0</v>
+      </c>
+      <c r="D520" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E520" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F520" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G520" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="H520" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="I520" s="1">
+        <v>177423.0</v>
+      </c>
+      <c r="J520" s="1">
+        <v>85844.0</v>
+      </c>
+      <c r="K520" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L520" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M520" s="1">
+        <v>269330.0</v>
+      </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="4"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
+      <c r="A521" s="1">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+      <c r="B521" s="5">
+        <v>44440.0</v>
+      </c>
+      <c r="C521" s="1">
+        <v>29509.0</v>
+      </c>
+      <c r="D521" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E521" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F521" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G521" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="H521" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I521" s="1">
+        <v>178163.0</v>
+      </c>
+      <c r="J521" s="1">
+        <v>87764.0</v>
+      </c>
+      <c r="K521" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L521" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M521" s="1">
+        <v>271990.0</v>
+      </c>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="A522" s="1">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="B522" s="5">
+        <v>44441.0</v>
+      </c>
+      <c r="C522" s="1">
+        <v>29529.0</v>
+      </c>
+      <c r="D522" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E522" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F522" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G522" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="H522" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I522" s="1">
+        <v>179247.0</v>
+      </c>
+      <c r="J522" s="16">
+        <v>89670.0</v>
+      </c>
+      <c r="K522" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L522" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M522" s="1">
+        <v>274980.0</v>
+      </c>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="A523" s="1">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+      <c r="B523" s="5">
+        <v>44442.0</v>
+      </c>
+      <c r="C523" s="1">
+        <v>29541.0</v>
+      </c>
+      <c r="D523" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E523" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F523" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G523" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="H523" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I523" s="1">
+        <v>180980.0</v>
+      </c>
+      <c r="J523" s="1">
+        <v>91355.0</v>
+      </c>
+      <c r="K523" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L523" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M523" s="17">
+        <v>278398.0</v>
+      </c>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="A524" s="1">
+        <f t="shared" si="1"/>
+        <v>522</v>
+      </c>
+      <c r="B524" s="5">
+        <v>44443.0</v>
+      </c>
+      <c r="C524" s="1">
+        <v>29568.0</v>
+      </c>
+      <c r="D524" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E524" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F524" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G524" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="H524" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I524" s="1">
+        <v>183050.0</v>
+      </c>
+      <c r="J524" s="1">
+        <v>92894.0</v>
+      </c>
+      <c r="K524" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L524" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M524" s="1">
+        <v>282007.0</v>
+      </c>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="A525" s="1">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="B525" s="5">
+        <v>44444.0</v>
+      </c>
+      <c r="C525" s="1">
+        <v>29592.0</v>
+      </c>
+      <c r="D525" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E525" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F525" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="G525" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H525" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I525" s="1">
+        <v>183050.0</v>
+      </c>
+      <c r="J525" s="1">
+        <v>92894.0</v>
+      </c>
+      <c r="K525" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L525" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M525" s="1">
+        <v>282007.0</v>
+      </c>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="A526" s="1">
+        <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="B526" s="5">
+        <v>44445.0</v>
+      </c>
+      <c r="C526" s="1">
+        <v>29599.0</v>
+      </c>
+      <c r="D526" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E526" s="1">
+        <v>575.0</v>
+      </c>
+      <c r="F526" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G526" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="H526" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I526" s="1">
+        <v>183055.0</v>
+      </c>
+      <c r="J526" s="1">
+        <v>92905.0</v>
+      </c>
+      <c r="K526" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L526" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M526" s="1">
+        <v>282023.0</v>
+      </c>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="A527" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="B527" s="5">
+        <v>44446.0</v>
+      </c>
+      <c r="C527" s="1">
+        <v>29631.0</v>
+      </c>
+      <c r="D527" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E527" s="1">
+        <v>576.0</v>
+      </c>
+      <c r="F527" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G527" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H527" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I527" s="1">
+        <v>183979.0</v>
+      </c>
+      <c r="J527" s="1">
+        <v>94486.0</v>
+      </c>
+      <c r="K527" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L527" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M527" s="1">
+        <v>284528.0</v>
+      </c>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="A528" s="1">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="B528" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="C528" s="1">
+        <v>29636.0</v>
+      </c>
+      <c r="D528" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E528" s="1">
+        <v>578.0</v>
+      </c>
+      <c r="F528" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G528" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H528" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I528" s="1">
+        <v>183980.0</v>
+      </c>
+      <c r="J528" s="1">
+        <v>94534.0</v>
+      </c>
+      <c r="K528" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L528" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M528" s="16">
+        <v>284577.0</v>
+      </c>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="A529" s="1">
+        <f t="shared" si="1"/>
+        <v>527</v>
+      </c>
+      <c r="B529" s="5">
+        <v>44448.0</v>
+      </c>
+      <c r="C529" s="1">
+        <v>29648.0</v>
+      </c>
+      <c r="D529" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E529" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="F529" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G529" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H529" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I529" s="1">
+        <v>184766.0</v>
+      </c>
+      <c r="J529" s="1">
+        <v>96958.0</v>
+      </c>
+      <c r="K529" s="1">
+        <v>6063.0</v>
+      </c>
+      <c r="L529" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M529" s="1">
+        <v>287787.0</v>
+      </c>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="A530" s="1">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="B530" s="5">
+        <v>44449.0</v>
+      </c>
+      <c r="C530" s="1">
+        <v>29671.0</v>
+      </c>
+      <c r="D530" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E530" s="1">
+        <v>581.0</v>
+      </c>
+      <c r="F530" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="G530" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H530" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I530" s="1">
+        <v>185745.0</v>
+      </c>
+      <c r="J530" s="18">
+        <v>106206.0</v>
+      </c>
+      <c r="K530" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L530" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="M530" s="1">
+        <v>291967.0</v>
+      </c>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="A531" s="1">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="B531" s="5">
+        <v>44450.0</v>
+      </c>
+      <c r="C531" s="1">
+        <v>29687.0</v>
+      </c>
+      <c r="D531" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E531" s="1">
+        <v>581.0</v>
+      </c>
+      <c r="F531" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G531" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H531" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I531" s="1">
+        <v>186618.0</v>
+      </c>
+      <c r="J531" s="1">
+        <v>109075.0</v>
+      </c>
+      <c r="K531" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L531" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="M531" s="1">
+        <v>295740.0</v>
+      </c>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="A532" s="1">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="B532" s="5">
+        <v>44451.0</v>
+      </c>
+      <c r="C532" s="19">
+        <v>29705.0</v>
+      </c>
+      <c r="D532" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E532" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F532" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="G532" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="H532" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I532" s="19">
+        <v>186618.0</v>
+      </c>
+      <c r="J532" s="19">
+        <v>109075.0</v>
+      </c>
+      <c r="K532" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L532" s="19">
+        <v>47.0</v>
+      </c>
+      <c r="M532" s="19">
+        <v>295740.0</v>
+      </c>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="A533" s="1">
+        <f t="shared" si="1"/>
+        <v>531</v>
+      </c>
+      <c r="B533" s="5">
+        <v>44452.0</v>
+      </c>
+      <c r="C533" s="19">
+        <v>29712.0</v>
+      </c>
+      <c r="D533" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E533" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F533" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="G533" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="H533" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="I533" s="19">
+        <v>186618.0</v>
+      </c>
+      <c r="J533" s="19">
+        <v>109075.0</v>
+      </c>
+      <c r="K533" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L533" s="19">
+        <v>47.0</v>
+      </c>
+      <c r="M533" s="19">
+        <v>295740.0</v>
+      </c>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="A534" s="1">
+        <f t="shared" si="1"/>
+        <v>532</v>
+      </c>
+      <c r="B534" s="5">
+        <v>44453.0</v>
+      </c>
+      <c r="C534" s="19">
+        <v>29762.0</v>
+      </c>
+      <c r="D534" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E534" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F534" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="G534" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="H534" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I534" s="19">
+        <v>188440.0</v>
+      </c>
+      <c r="J534" s="19">
+        <v>113289.0</v>
+      </c>
+      <c r="K534" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L534" s="19">
+        <v>78.0</v>
+      </c>
+      <c r="M534" s="19">
+        <v>301807.0</v>
+      </c>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="A535" s="1">
+        <f t="shared" si="1"/>
+        <v>533</v>
+      </c>
+      <c r="B535" s="5">
+        <v>44454.0</v>
+      </c>
+      <c r="C535" s="19">
+        <v>29792.0</v>
+      </c>
+      <c r="D535" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E535" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F535" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G535" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="H535" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I535" s="19">
+        <v>189159.0</v>
+      </c>
+      <c r="J535" s="19">
+        <v>116747.0</v>
+      </c>
+      <c r="K535" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L535" s="19">
+        <v>123.0</v>
+      </c>
+      <c r="M535" s="19">
+        <v>306029.0</v>
+      </c>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="A536" s="1">
+        <f t="shared" si="1"/>
+        <v>534</v>
+      </c>
+      <c r="B536" s="5">
+        <v>44455.0</v>
+      </c>
+      <c r="C536" s="19">
+        <v>29836.0</v>
+      </c>
+      <c r="D536" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E536" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F536" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="G536" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="H536" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I536" s="19">
+        <v>190380.0</v>
+      </c>
+      <c r="J536" s="19">
+        <v>119097.0</v>
+      </c>
+      <c r="K536" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L536" s="19">
+        <v>241.0</v>
+      </c>
+      <c r="M536" s="19">
+        <v>309718.0</v>
+      </c>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="A537" s="1">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="B537" s="5">
+        <v>44456.0</v>
+      </c>
+      <c r="C537" s="19">
+        <v>29880.0</v>
+      </c>
+      <c r="D537" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E537" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F537" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="G537" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="H537" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="I537" s="19">
+        <v>191214.0</v>
+      </c>
+      <c r="J537" s="19">
+        <v>121655.0</v>
+      </c>
+      <c r="K537" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L537" s="19">
+        <v>369.0</v>
+      </c>
+      <c r="M537" s="19">
+        <v>313238.0</v>
+      </c>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="A538" s="1">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
+      <c r="B538" s="5">
+        <v>44457.0</v>
+      </c>
+      <c r="C538" s="2"/>
+      <c r="D538" s="2"/>
+      <c r="E538" s="2"/>
+      <c r="F538" s="2"/>
+      <c r="G538" s="2"/>
+      <c r="H538" s="2"/>
+      <c r="I538" s="2"/>
+      <c r="J538" s="2"/>
+      <c r="K538" s="2"/>
+      <c r="L538" s="2"/>
+      <c r="M538" s="2"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="A539" s="1">
+        <f t="shared" si="1"/>
+        <v>537</v>
+      </c>
+      <c r="B539" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="C539" s="2"/>
+      <c r="D539" s="2"/>
+      <c r="E539" s="2"/>
+      <c r="F539" s="2"/>
+      <c r="G539" s="2"/>
+      <c r="H539" s="2"/>
+      <c r="I539" s="2"/>
+      <c r="J539" s="2"/>
+      <c r="K539" s="2"/>
+      <c r="L539" s="2"/>
+      <c r="M539" s="2"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="A540" s="1">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="B540" s="5">
+        <v>44459.0</v>
+      </c>
+      <c r="C540" s="2"/>
+      <c r="D540" s="2"/>
+      <c r="E540" s="2"/>
+      <c r="F540" s="2"/>
+      <c r="G540" s="2"/>
+      <c r="H540" s="2"/>
+      <c r="I540" s="2"/>
+      <c r="J540" s="2"/>
+      <c r="K540" s="2"/>
+      <c r="L540" s="2"/>
+      <c r="M540" s="2"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="A541" s="1">
+        <f t="shared" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="B541" s="5">
+        <v>44460.0</v>
+      </c>
+      <c r="C541" s="2"/>
+      <c r="D541" s="2"/>
+      <c r="E541" s="2"/>
+      <c r="F541" s="2"/>
+      <c r="G541" s="2"/>
+      <c r="H541" s="2"/>
+      <c r="I541" s="2"/>
+      <c r="J541" s="2"/>
+      <c r="K541" s="2"/>
+      <c r="L541" s="2"/>
+      <c r="M541" s="2"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="A542" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="B542" s="5">
+        <v>44461.0</v>
+      </c>
+      <c r="C542" s="2"/>
+      <c r="D542" s="2"/>
+      <c r="E542" s="2"/>
+      <c r="F542" s="2"/>
+      <c r="G542" s="2"/>
+      <c r="H542" s="2"/>
+      <c r="I542" s="2"/>
+      <c r="J542" s="2"/>
+      <c r="K542" s="2"/>
+      <c r="L542" s="2"/>
+      <c r="M542" s="2"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="A543" s="1">
+        <f t="shared" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="B543" s="5">
+        <v>44462.0</v>
+      </c>
+      <c r="C543" s="2"/>
+      <c r="D543" s="2"/>
+      <c r="E543" s="2"/>
+      <c r="F543" s="2"/>
+      <c r="G543" s="2"/>
+      <c r="H543" s="2"/>
+      <c r="I543" s="2"/>
+      <c r="J543" s="2"/>
+      <c r="K543" s="2"/>
+      <c r="L543" s="2"/>
+      <c r="M543" s="2"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="A544" s="1">
+        <f t="shared" si="1"/>
+        <v>542</v>
+      </c>
+      <c r="B544" s="5">
+        <v>44463.0</v>
+      </c>
+      <c r="C544" s="2"/>
+      <c r="D544" s="2"/>
+      <c r="E544" s="2"/>
+      <c r="F544" s="2"/>
+      <c r="G544" s="2"/>
+      <c r="H544" s="2"/>
+      <c r="I544" s="2"/>
+      <c r="J544" s="2"/>
+      <c r="K544" s="2"/>
+      <c r="L544" s="2"/>
+      <c r="M544" s="2"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="A545" s="1">
+        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="B545" s="5">
+        <v>44464.0</v>
+      </c>
+      <c r="C545" s="2"/>
+      <c r="D545" s="2"/>
+      <c r="E545" s="2"/>
+      <c r="F545" s="2"/>
+      <c r="G545" s="2"/>
+      <c r="H545" s="2"/>
+      <c r="I545" s="2"/>
+      <c r="J545" s="2"/>
+      <c r="K545" s="2"/>
+      <c r="L545" s="2"/>
+      <c r="M545" s="2"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="A546" s="1">
+        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="B546" s="5">
+        <v>44465.0</v>
+      </c>
+      <c r="C546" s="2"/>
+      <c r="D546" s="2"/>
+      <c r="E546" s="2"/>
+      <c r="F546" s="2"/>
+      <c r="G546" s="2"/>
+      <c r="H546" s="2"/>
+      <c r="I546" s="2"/>
+      <c r="J546" s="2"/>
+      <c r="K546" s="2"/>
+      <c r="L546" s="2"/>
+      <c r="M546" s="2"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="A547" s="1">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="B547" s="5">
+        <v>44466.0</v>
+      </c>
+      <c r="C547" s="2"/>
+      <c r="D547" s="2"/>
+      <c r="E547" s="2"/>
+      <c r="F547" s="2"/>
+      <c r="G547" s="2"/>
+      <c r="H547" s="2"/>
+      <c r="I547" s="2"/>
+      <c r="J547" s="2"/>
+      <c r="K547" s="2"/>
+      <c r="L547" s="2"/>
+      <c r="M547" s="2"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="A548" s="1">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="B548" s="5">
+        <v>44467.0</v>
+      </c>
+      <c r="C548" s="2"/>
+      <c r="D548" s="2"/>
+      <c r="E548" s="2"/>
+      <c r="F548" s="2"/>
+      <c r="G548" s="2"/>
+      <c r="H548" s="2"/>
+      <c r="I548" s="2"/>
+      <c r="J548" s="2"/>
+      <c r="K548" s="2"/>
+      <c r="L548" s="2"/>
+      <c r="M548" s="2"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="A549" s="1">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="B549" s="5">
+        <v>44468.0</v>
+      </c>
+      <c r="C549" s="2"/>
+      <c r="D549" s="2"/>
+      <c r="E549" s="2"/>
+      <c r="F549" s="2"/>
+      <c r="G549" s="2"/>
+      <c r="H549" s="2"/>
+      <c r="I549" s="2"/>
+      <c r="J549" s="2"/>
+      <c r="K549" s="2"/>
+      <c r="L549" s="2"/>
+      <c r="M549" s="2"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="A550" s="1">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="B550" s="5">
+        <v>44469.0</v>
+      </c>
+      <c r="C550" s="2"/>
+      <c r="D550" s="2"/>
+      <c r="E550" s="2"/>
+      <c r="F550" s="2"/>
+      <c r="G550" s="2"/>
+      <c r="H550" s="2"/>
+      <c r="I550" s="2"/>
+      <c r="J550" s="2"/>
+      <c r="K550" s="2"/>
+      <c r="L550" s="2"/>
+      <c r="M550" s="2"/>
+    </row>
     <row r="551" ht="15.75" customHeight="1"/>
     <row r="552" ht="15.75" customHeight="1"/>
     <row r="553" ht="15.75" customHeight="1"/>
@@ -16978,7 +18661,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3048ACAE-E4B1-45E5-83C0-B10EF9140B30}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3D47EBC0-2541-4FA8-B20D-D6C6F15D89F7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_3D47EBC0_2541_4FA8_B20D_D6C6F15D89F7_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_88A7EE37_FF51_4D26_B0DB_7723BB5C1D1C_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3D47EBC0-2541-4FA8-B20D-D6C6F15D89F7}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{88A7EE37-FF51-4D26-B0DB-7723BB5C1D1C}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -115,7 +115,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miAHvS+S3PH0iF91g83oZO50UVhnA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjqDJWptaSoO8UbkZGhFqk2raMP/A=="/>
     </ext>
   </extLst>
 </comments>
@@ -630,7 +630,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D537" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D538" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -17699,38 +17699,38 @@
       <c r="B532" s="5">
         <v>44451.0</v>
       </c>
-      <c r="C532" s="19">
+      <c r="C532" s="1">
         <v>29705.0</v>
       </c>
       <c r="D532" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="E532" s="19">
+      <c r="E532" s="1">
         <v>583.0</v>
       </c>
-      <c r="F532" s="19">
+      <c r="F532" s="1">
         <v>13.0</v>
       </c>
-      <c r="G532" s="19">
+      <c r="G532" s="1">
         <v>10.0</v>
       </c>
-      <c r="H532" s="19">
+      <c r="H532" s="1">
         <v>4.0</v>
       </c>
-      <c r="I532" s="19">
+      <c r="I532" s="1">
         <v>186618.0</v>
       </c>
-      <c r="J532" s="19">
+      <c r="J532" s="1">
         <v>109075.0</v>
       </c>
-      <c r="K532" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L532" s="19">
+      <c r="K532" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L532" s="1">
         <v>47.0</v>
       </c>
-      <c r="M532" s="19">
+      <c r="M532" s="1">
         <v>295740.0</v>
       </c>
     </row>
@@ -17742,38 +17742,38 @@
       <c r="B533" s="5">
         <v>44452.0</v>
       </c>
-      <c r="C533" s="19">
+      <c r="C533" s="1">
         <v>29712.0</v>
       </c>
       <c r="D533" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E533" s="19">
+      <c r="E533" s="1">
         <v>583.0</v>
       </c>
-      <c r="F533" s="19">
+      <c r="F533" s="1">
         <v>17.0</v>
       </c>
-      <c r="G533" s="19">
+      <c r="G533" s="1">
         <v>14.0</v>
       </c>
-      <c r="H533" s="19">
+      <c r="H533" s="1">
         <v>3.0</v>
       </c>
-      <c r="I533" s="19">
+      <c r="I533" s="1">
         <v>186618.0</v>
       </c>
-      <c r="J533" s="19">
+      <c r="J533" s="1">
         <v>109075.0</v>
       </c>
-      <c r="K533" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L533" s="19">
+      <c r="K533" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L533" s="1">
         <v>47.0</v>
       </c>
-      <c r="M533" s="19">
+      <c r="M533" s="1">
         <v>295740.0</v>
       </c>
     </row>
@@ -17785,38 +17785,38 @@
       <c r="B534" s="5">
         <v>44453.0</v>
       </c>
-      <c r="C534" s="19">
+      <c r="C534" s="1">
         <v>29762.0</v>
       </c>
       <c r="D534" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E534" s="19">
+      <c r="E534" s="1">
         <v>583.0</v>
       </c>
-      <c r="F534" s="19">
+      <c r="F534" s="1">
         <v>17.0</v>
       </c>
-      <c r="G534" s="19">
+      <c r="G534" s="1">
         <v>15.0</v>
       </c>
-      <c r="H534" s="19">
+      <c r="H534" s="1">
         <v>4.0</v>
       </c>
-      <c r="I534" s="19">
+      <c r="I534" s="1">
         <v>188440.0</v>
       </c>
-      <c r="J534" s="19">
+      <c r="J534" s="1">
         <v>113289.0</v>
       </c>
-      <c r="K534" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L534" s="19">
+      <c r="K534" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L534" s="1">
         <v>78.0</v>
       </c>
-      <c r="M534" s="19">
+      <c r="M534" s="1">
         <v>301807.0</v>
       </c>
     </row>
@@ -17828,38 +17828,38 @@
       <c r="B535" s="5">
         <v>44454.0</v>
       </c>
-      <c r="C535" s="19">
+      <c r="C535" s="1">
         <v>29792.0</v>
       </c>
       <c r="D535" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E535" s="19">
+      <c r="E535" s="1">
         <v>583.0</v>
       </c>
-      <c r="F535" s="19">
+      <c r="F535" s="1">
         <v>18.0</v>
       </c>
-      <c r="G535" s="19">
+      <c r="G535" s="1">
         <v>17.0</v>
       </c>
-      <c r="H535" s="19">
+      <c r="H535" s="1">
         <v>4.0</v>
       </c>
-      <c r="I535" s="19">
+      <c r="I535" s="1">
         <v>189159.0</v>
       </c>
-      <c r="J535" s="19">
+      <c r="J535" s="1">
         <v>116747.0</v>
       </c>
-      <c r="K535" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L535" s="19">
+      <c r="K535" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L535" s="1">
         <v>123.0</v>
       </c>
-      <c r="M535" s="19">
+      <c r="M535" s="1">
         <v>306029.0</v>
       </c>
     </row>
@@ -17871,38 +17871,38 @@
       <c r="B536" s="5">
         <v>44455.0</v>
       </c>
-      <c r="C536" s="19">
+      <c r="C536" s="1">
         <v>29836.0</v>
       </c>
       <c r="D536" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="E536" s="19">
+      <c r="E536" s="1">
         <v>583.0</v>
       </c>
-      <c r="F536" s="19">
+      <c r="F536" s="1">
         <v>20.0</v>
       </c>
-      <c r="G536" s="19">
+      <c r="G536" s="1">
         <v>18.0</v>
       </c>
-      <c r="H536" s="19">
+      <c r="H536" s="1">
         <v>4.0</v>
       </c>
-      <c r="I536" s="19">
+      <c r="I536" s="1">
         <v>190380.0</v>
       </c>
-      <c r="J536" s="19">
+      <c r="J536" s="1">
         <v>119097.0</v>
       </c>
-      <c r="K536" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L536" s="19">
+      <c r="K536" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L536" s="1">
         <v>241.0</v>
       </c>
-      <c r="M536" s="19">
+      <c r="M536" s="1">
         <v>309718.0</v>
       </c>
     </row>
@@ -17914,38 +17914,38 @@
       <c r="B537" s="5">
         <v>44456.0</v>
       </c>
-      <c r="C537" s="19">
+      <c r="C537" s="1">
         <v>29880.0</v>
       </c>
       <c r="D537" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="E537" s="19">
+      <c r="E537" s="1">
         <v>583.0</v>
       </c>
-      <c r="F537" s="19">
+      <c r="F537" s="1">
         <v>21.0</v>
       </c>
-      <c r="G537" s="19">
+      <c r="G537" s="1">
         <v>17.0</v>
       </c>
-      <c r="H537" s="19">
+      <c r="H537" s="1">
         <v>2.0</v>
       </c>
-      <c r="I537" s="19">
+      <c r="I537" s="1">
         <v>191214.0</v>
       </c>
-      <c r="J537" s="19">
+      <c r="J537" s="1">
         <v>121655.0</v>
       </c>
-      <c r="K537" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L537" s="19">
+      <c r="K537" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L537" s="1">
         <v>369.0</v>
       </c>
-      <c r="M537" s="19">
+      <c r="M537" s="1">
         <v>313238.0</v>
       </c>
     </row>
@@ -17957,17 +17957,40 @@
       <c r="B538" s="5">
         <v>44457.0</v>
       </c>
-      <c r="C538" s="2"/>
-      <c r="D538" s="2"/>
-      <c r="E538" s="2"/>
-      <c r="F538" s="2"/>
-      <c r="G538" s="2"/>
-      <c r="H538" s="2"/>
-      <c r="I538" s="2"/>
-      <c r="J538" s="2"/>
-      <c r="K538" s="2"/>
-      <c r="L538" s="2"/>
-      <c r="M538" s="2"/>
+      <c r="C538" s="19">
+        <v>29917.0</v>
+      </c>
+      <c r="D538" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E538" s="19">
+        <v>583.0</v>
+      </c>
+      <c r="F538" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="G538" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="H538" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I538" s="19">
+        <v>192207.0</v>
+      </c>
+      <c r="J538" s="19">
+        <v>124347.0</v>
+      </c>
+      <c r="K538" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L538" s="19">
+        <v>524.0</v>
+      </c>
+      <c r="M538" s="19">
+        <v>317078.0</v>
+      </c>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="1">
@@ -18661,7 +18684,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3D47EBC0-2541-4FA8-B20D-D6C6F15D89F7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{88A7EE37-FF51-4D26-B0DB-7723BB5C1D1C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,15 +6,15 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_88A7EE37_FF51_4D26_B0DB_7723BB5C1D1C_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B5C5D958_6324_40D8_B4E1_76BBA7389C94_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{88A7EE37-FF51-4D26-B0DB-7723BB5C1D1C}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B5C5D958-6324-40D8-B4E1-76BBA7389C94}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi0rmjeiBQm4x3+fU+J16YuQuflDQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj/E0YO6oMf7E2klD9t4mGgJXT68w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +26,14 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="J547">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAQkWK1fQ
+Daniel Nogueira Hammer    (2021-10-02 23:04:12)
+No boletim da prefeitura está 139734. Esse número é menor do que o do dia anterior. Ao olhar o texto, diz que foram registrados 133731+6063 = 139.794</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="J1">
       <text>
         <t xml:space="preserve">======
@@ -115,7 +123,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjqDJWptaSoO8UbkZGhFqk2raMP/A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhsCv6ErEnzZl9lc9UDQB1vUrdLhw=="/>
     </ext>
   </extLst>
 </comments>
@@ -252,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -311,6 +319,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -620,7 +634,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A550" si="1">A2+1</f>
+        <f t="shared" ref="A3:A581" si="1">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -630,7 +644,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D538" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D552" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -17957,38 +17971,38 @@
       <c r="B538" s="5">
         <v>44457.0</v>
       </c>
-      <c r="C538" s="19">
+      <c r="C538" s="1">
         <v>29917.0</v>
       </c>
       <c r="D538" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E538" s="19">
+      <c r="E538" s="1">
         <v>583.0</v>
       </c>
-      <c r="F538" s="19">
+      <c r="F538" s="1">
         <v>20.0</v>
       </c>
-      <c r="G538" s="19">
+      <c r="G538" s="1">
         <v>18.0</v>
       </c>
-      <c r="H538" s="19">
+      <c r="H538" s="1">
         <v>4.0</v>
       </c>
-      <c r="I538" s="19">
+      <c r="I538" s="1">
         <v>192207.0</v>
       </c>
-      <c r="J538" s="19">
+      <c r="J538" s="1">
         <v>124347.0</v>
       </c>
-      <c r="K538" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L538" s="19">
+      <c r="K538" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L538" s="1">
         <v>524.0</v>
       </c>
-      <c r="M538" s="19">
+      <c r="M538" s="1">
         <v>317078.0</v>
       </c>
     </row>
@@ -18000,17 +18014,40 @@
       <c r="B539" s="5">
         <v>44458.0</v>
       </c>
-      <c r="C539" s="2"/>
-      <c r="D539" s="2"/>
-      <c r="E539" s="2"/>
-      <c r="F539" s="2"/>
-      <c r="G539" s="2"/>
-      <c r="H539" s="2"/>
-      <c r="I539" s="2"/>
-      <c r="J539" s="2"/>
-      <c r="K539" s="2"/>
-      <c r="L539" s="2"/>
-      <c r="M539" s="2"/>
+      <c r="C539" s="19">
+        <v>29951.0</v>
+      </c>
+      <c r="D539" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E539" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F539" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G539" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="H539" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="I539" s="19">
+        <v>192410.0</v>
+      </c>
+      <c r="J539" s="19">
+        <v>125022.0</v>
+      </c>
+      <c r="K539" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L539" s="19">
+        <v>890.0</v>
+      </c>
+      <c r="M539" s="19">
+        <v>318322.0</v>
+      </c>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="1">
@@ -18020,17 +18057,40 @@
       <c r="B540" s="5">
         <v>44459.0</v>
       </c>
-      <c r="C540" s="2"/>
-      <c r="D540" s="2"/>
-      <c r="E540" s="2"/>
-      <c r="F540" s="2"/>
-      <c r="G540" s="2"/>
-      <c r="H540" s="2"/>
-      <c r="I540" s="2"/>
-      <c r="J540" s="2"/>
-      <c r="K540" s="2"/>
-      <c r="L540" s="2"/>
-      <c r="M540" s="2"/>
+      <c r="C540" s="19">
+        <v>29956.0</v>
+      </c>
+      <c r="D540" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E540" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F540" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G540" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="H540" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="I540" s="19">
+        <v>192472.0</v>
+      </c>
+      <c r="J540" s="19">
+        <v>125409.0</v>
+      </c>
+      <c r="K540" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L540" s="19">
+        <v>900.0</v>
+      </c>
+      <c r="M540" s="19">
+        <v>318781.0</v>
+      </c>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="1">
@@ -18040,17 +18100,40 @@
       <c r="B541" s="5">
         <v>44460.0</v>
       </c>
-      <c r="C541" s="2"/>
-      <c r="D541" s="2"/>
-      <c r="E541" s="2"/>
-      <c r="F541" s="2"/>
-      <c r="G541" s="2"/>
-      <c r="H541" s="2"/>
-      <c r="I541" s="2"/>
-      <c r="J541" s="2"/>
-      <c r="K541" s="2"/>
-      <c r="L541" s="2"/>
-      <c r="M541" s="2"/>
+      <c r="C541" s="19">
+        <v>30014.0</v>
+      </c>
+      <c r="D541" s="2">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E541" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F541" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="G541" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="H541" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="I541" s="19">
+        <v>192943.0</v>
+      </c>
+      <c r="J541" s="19">
+        <v>127253.0</v>
+      </c>
+      <c r="K541" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L541" s="19">
+        <v>979.0</v>
+      </c>
+      <c r="M541" s="19">
+        <v>321175.0</v>
+      </c>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="1">
@@ -18060,17 +18143,40 @@
       <c r="B542" s="5">
         <v>44461.0</v>
       </c>
-      <c r="C542" s="2"/>
-      <c r="D542" s="2"/>
-      <c r="E542" s="2"/>
-      <c r="F542" s="2"/>
-      <c r="G542" s="2"/>
-      <c r="H542" s="2"/>
-      <c r="I542" s="2"/>
-      <c r="J542" s="2"/>
-      <c r="K542" s="2"/>
-      <c r="L542" s="2"/>
-      <c r="M542" s="2"/>
+      <c r="C542" s="19">
+        <v>30053.0</v>
+      </c>
+      <c r="D542" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E542" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F542" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="G542" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="H542" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I542" s="19">
+        <v>193302.0</v>
+      </c>
+      <c r="J542" s="19">
+        <v>129966.0</v>
+      </c>
+      <c r="K542" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L542" s="19">
+        <v>1129.0</v>
+      </c>
+      <c r="M542" s="19">
+        <v>324397.0</v>
+      </c>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="1">
@@ -18080,17 +18186,40 @@
       <c r="B543" s="5">
         <v>44462.0</v>
       </c>
-      <c r="C543" s="2"/>
-      <c r="D543" s="2"/>
-      <c r="E543" s="2"/>
-      <c r="F543" s="2"/>
-      <c r="G543" s="2"/>
-      <c r="H543" s="2"/>
-      <c r="I543" s="2"/>
-      <c r="J543" s="2"/>
-      <c r="K543" s="2"/>
-      <c r="L543" s="2"/>
-      <c r="M543" s="2"/>
+      <c r="C543" s="19">
+        <v>30115.0</v>
+      </c>
+      <c r="D543" s="2">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E543" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F543" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="G543" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="H543" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I543" s="19">
+        <v>193558.0</v>
+      </c>
+      <c r="J543" s="19">
+        <v>132558.0</v>
+      </c>
+      <c r="K543" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L543" s="19">
+        <v>1408.0</v>
+      </c>
+      <c r="M543" s="19">
+        <v>327524.0</v>
+      </c>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="1">
@@ -18100,17 +18229,40 @@
       <c r="B544" s="5">
         <v>44463.0</v>
       </c>
-      <c r="C544" s="2"/>
-      <c r="D544" s="2"/>
-      <c r="E544" s="2"/>
-      <c r="F544" s="2"/>
-      <c r="G544" s="2"/>
-      <c r="H544" s="2"/>
-      <c r="I544" s="2"/>
-      <c r="J544" s="2"/>
-      <c r="K544" s="2"/>
-      <c r="L544" s="2"/>
-      <c r="M544" s="2"/>
+      <c r="C544" s="19">
+        <v>30144.0</v>
+      </c>
+      <c r="D544" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E544" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F544" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G544" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="H544" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="I544" s="19">
+        <v>193860.0</v>
+      </c>
+      <c r="J544" s="19">
+        <v>135291.0</v>
+      </c>
+      <c r="K544" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L544" s="19">
+        <v>1512.0</v>
+      </c>
+      <c r="M544" s="19">
+        <v>330663.0</v>
+      </c>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="1">
@@ -18120,17 +18272,40 @@
       <c r="B545" s="5">
         <v>44464.0</v>
       </c>
-      <c r="C545" s="2"/>
-      <c r="D545" s="2"/>
-      <c r="E545" s="2"/>
-      <c r="F545" s="2"/>
-      <c r="G545" s="2"/>
-      <c r="H545" s="2"/>
-      <c r="I545" s="2"/>
-      <c r="J545" s="2"/>
-      <c r="K545" s="2"/>
-      <c r="L545" s="2"/>
-      <c r="M545" s="2"/>
+      <c r="C545" s="19">
+        <v>30186.0</v>
+      </c>
+      <c r="D545" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E545" s="19">
+        <v>584.0</v>
+      </c>
+      <c r="F545" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="G545" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="H545" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="I545" s="19">
+        <v>194056.0</v>
+      </c>
+      <c r="J545" s="19">
+        <v>138108.0</v>
+      </c>
+      <c r="K545" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L545" s="19">
+        <v>1681.0</v>
+      </c>
+      <c r="M545" s="19">
+        <v>333845.0</v>
+      </c>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="1">
@@ -18140,17 +18315,40 @@
       <c r="B546" s="5">
         <v>44465.0</v>
       </c>
-      <c r="C546" s="2"/>
-      <c r="D546" s="2"/>
-      <c r="E546" s="2"/>
-      <c r="F546" s="2"/>
-      <c r="G546" s="2"/>
-      <c r="H546" s="2"/>
-      <c r="I546" s="2"/>
-      <c r="J546" s="2"/>
-      <c r="K546" s="2"/>
-      <c r="L546" s="2"/>
-      <c r="M546" s="2"/>
+      <c r="C546" s="19">
+        <v>30224.0</v>
+      </c>
+      <c r="D546" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E546" s="19">
+        <v>585.0</v>
+      </c>
+      <c r="F546" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="G546" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="H546" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="I546" s="19">
+        <v>194187.0</v>
+      </c>
+      <c r="J546" s="19">
+        <v>139779.0</v>
+      </c>
+      <c r="K546" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L546" s="19">
+        <v>1770.0</v>
+      </c>
+      <c r="M546" s="19">
+        <v>335736.0</v>
+      </c>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="1">
@@ -18160,17 +18358,40 @@
       <c r="B547" s="5">
         <v>44466.0</v>
       </c>
-      <c r="C547" s="2"/>
-      <c r="D547" s="2"/>
-      <c r="E547" s="2"/>
-      <c r="F547" s="2"/>
-      <c r="G547" s="2"/>
-      <c r="H547" s="2"/>
-      <c r="I547" s="2"/>
-      <c r="J547" s="2"/>
-      <c r="K547" s="2"/>
-      <c r="L547" s="2"/>
-      <c r="M547" s="2"/>
+      <c r="C547" s="19">
+        <v>30237.0</v>
+      </c>
+      <c r="D547" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E547" s="19">
+        <v>586.0</v>
+      </c>
+      <c r="F547" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="G547" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="H547" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="I547" s="19">
+        <v>194191.0</v>
+      </c>
+      <c r="J547" s="20">
+        <v>139794.0</v>
+      </c>
+      <c r="K547" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L547" s="16">
+        <v>1770.0</v>
+      </c>
+      <c r="M547" s="19">
+        <v>335755.0</v>
+      </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="1">
@@ -18180,17 +18401,40 @@
       <c r="B548" s="5">
         <v>44467.0</v>
       </c>
-      <c r="C548" s="2"/>
-      <c r="D548" s="2"/>
-      <c r="E548" s="2"/>
-      <c r="F548" s="2"/>
-      <c r="G548" s="2"/>
-      <c r="H548" s="2"/>
-      <c r="I548" s="2"/>
-      <c r="J548" s="2"/>
-      <c r="K548" s="2"/>
-      <c r="L548" s="2"/>
-      <c r="M548" s="2"/>
+      <c r="C548" s="19">
+        <v>30270.0</v>
+      </c>
+      <c r="D548" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E548" s="19">
+        <v>586.0</v>
+      </c>
+      <c r="F548" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="G548" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="H548" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="I548" s="19">
+        <v>194366.0</v>
+      </c>
+      <c r="J548" s="19">
+        <v>141731.0</v>
+      </c>
+      <c r="K548" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L548" s="19">
+        <v>1796.0</v>
+      </c>
+      <c r="M548" s="19">
+        <v>337893.0</v>
+      </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="1">
@@ -18200,17 +18444,40 @@
       <c r="B549" s="5">
         <v>44468.0</v>
       </c>
-      <c r="C549" s="2"/>
-      <c r="D549" s="2"/>
-      <c r="E549" s="2"/>
-      <c r="F549" s="2"/>
-      <c r="G549" s="2"/>
-      <c r="H549" s="2"/>
-      <c r="I549" s="2"/>
-      <c r="J549" s="2"/>
-      <c r="K549" s="2"/>
-      <c r="L549" s="2"/>
-      <c r="M549" s="2"/>
+      <c r="C549" s="19">
+        <v>30298.0</v>
+      </c>
+      <c r="D549" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E549" s="19">
+        <v>586.0</v>
+      </c>
+      <c r="F549" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="G549" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="H549" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="I549" s="19">
+        <v>194690.0</v>
+      </c>
+      <c r="J549" s="19">
+        <v>145463.0</v>
+      </c>
+      <c r="K549" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L549" s="19">
+        <v>1939.0</v>
+      </c>
+      <c r="M549" s="19">
+        <v>342092.0</v>
+      </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="1">
@@ -18220,50 +18487,710 @@
       <c r="B550" s="5">
         <v>44469.0</v>
       </c>
-      <c r="C550" s="2"/>
-      <c r="D550" s="2"/>
-      <c r="E550" s="2"/>
-      <c r="F550" s="2"/>
-      <c r="G550" s="2"/>
-      <c r="H550" s="2"/>
-      <c r="I550" s="2"/>
-      <c r="J550" s="2"/>
-      <c r="K550" s="2"/>
-      <c r="L550" s="2"/>
-      <c r="M550" s="2"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
+      <c r="C550" s="19">
+        <v>30328.0</v>
+      </c>
+      <c r="D550" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E550" s="19">
+        <v>586.0</v>
+      </c>
+      <c r="F550" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G550" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="H550" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="I550" s="19">
+        <v>195016.0</v>
+      </c>
+      <c r="J550" s="19">
+        <v>148922.0</v>
+      </c>
+      <c r="K550" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L550" s="19">
+        <v>2136.0</v>
+      </c>
+      <c r="M550" s="19">
+        <v>346074.0</v>
+      </c>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="A551" s="1">
+        <f t="shared" si="1"/>
+        <v>549</v>
+      </c>
+      <c r="B551" s="21">
+        <v>44470.0</v>
+      </c>
+      <c r="C551" s="19">
+        <v>30347.0</v>
+      </c>
+      <c r="D551" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E551" s="19">
+        <v>586.0</v>
+      </c>
+      <c r="F551" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="G551" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="H551" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="I551" s="19">
+        <v>195272.0</v>
+      </c>
+      <c r="J551" s="19">
+        <v>150761.0</v>
+      </c>
+      <c r="K551" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L551" s="19">
+        <v>2290.0</v>
+      </c>
+      <c r="M551" s="19">
+        <v>348323.0</v>
+      </c>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="A552" s="1">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="B552" s="21">
+        <v>44471.0</v>
+      </c>
+      <c r="C552" s="19">
+        <v>30366.0</v>
+      </c>
+      <c r="D552" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E552" s="19">
+        <v>586.0</v>
+      </c>
+      <c r="F552" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="G552" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="H552" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="I552" s="19">
+        <v>195552.0</v>
+      </c>
+      <c r="J552" s="19">
+        <v>152424.0</v>
+      </c>
+      <c r="K552" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L552" s="19">
+        <v>2375.0</v>
+      </c>
+      <c r="M552" s="19">
+        <v>350351.0</v>
+      </c>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="A553" s="1">
+        <f t="shared" si="1"/>
+        <v>551</v>
+      </c>
+      <c r="B553" s="21">
+        <v>44472.0</v>
+      </c>
+      <c r="C553" s="2"/>
+      <c r="D553" s="2"/>
+      <c r="E553" s="2"/>
+      <c r="F553" s="2"/>
+      <c r="G553" s="2"/>
+      <c r="H553" s="2"/>
+      <c r="I553" s="2"/>
+      <c r="J553" s="2"/>
+      <c r="K553" s="2"/>
+      <c r="L553" s="2"/>
+      <c r="M553" s="2"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="A554" s="1">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+      <c r="B554" s="21">
+        <v>44473.0</v>
+      </c>
+      <c r="C554" s="2"/>
+      <c r="D554" s="2"/>
+      <c r="E554" s="2"/>
+      <c r="F554" s="2"/>
+      <c r="G554" s="2"/>
+      <c r="H554" s="2"/>
+      <c r="I554" s="2"/>
+      <c r="J554" s="2"/>
+      <c r="K554" s="2"/>
+      <c r="L554" s="2"/>
+      <c r="M554" s="2"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="A555" s="1">
+        <f t="shared" si="1"/>
+        <v>553</v>
+      </c>
+      <c r="B555" s="21">
+        <v>44474.0</v>
+      </c>
+      <c r="C555" s="2"/>
+      <c r="D555" s="2"/>
+      <c r="E555" s="2"/>
+      <c r="F555" s="2"/>
+      <c r="G555" s="2"/>
+      <c r="H555" s="2"/>
+      <c r="I555" s="2"/>
+      <c r="J555" s="2"/>
+      <c r="K555" s="2"/>
+      <c r="L555" s="2"/>
+      <c r="M555" s="2"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="A556" s="1">
+        <f t="shared" si="1"/>
+        <v>554</v>
+      </c>
+      <c r="B556" s="21">
+        <v>44475.0</v>
+      </c>
+      <c r="C556" s="2"/>
+      <c r="D556" s="2"/>
+      <c r="E556" s="2"/>
+      <c r="F556" s="2"/>
+      <c r="G556" s="2"/>
+      <c r="H556" s="2"/>
+      <c r="I556" s="2"/>
+      <c r="J556" s="2"/>
+      <c r="K556" s="2"/>
+      <c r="L556" s="2"/>
+      <c r="M556" s="2"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="A557" s="1">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+      <c r="B557" s="21">
+        <v>44476.0</v>
+      </c>
+      <c r="C557" s="2"/>
+      <c r="D557" s="2"/>
+      <c r="E557" s="2"/>
+      <c r="F557" s="2"/>
+      <c r="G557" s="2"/>
+      <c r="H557" s="2"/>
+      <c r="I557" s="2"/>
+      <c r="J557" s="2"/>
+      <c r="K557" s="2"/>
+      <c r="L557" s="2"/>
+      <c r="M557" s="2"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="A558" s="1">
+        <f t="shared" si="1"/>
+        <v>556</v>
+      </c>
+      <c r="B558" s="21">
+        <v>44477.0</v>
+      </c>
+      <c r="C558" s="2"/>
+      <c r="D558" s="2"/>
+      <c r="E558" s="2"/>
+      <c r="F558" s="2"/>
+      <c r="G558" s="2"/>
+      <c r="H558" s="2"/>
+      <c r="I558" s="2"/>
+      <c r="J558" s="2"/>
+      <c r="K558" s="2"/>
+      <c r="L558" s="2"/>
+      <c r="M558" s="2"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="A559" s="1">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="B559" s="21">
+        <v>44478.0</v>
+      </c>
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+      <c r="E559" s="2"/>
+      <c r="F559" s="2"/>
+      <c r="G559" s="2"/>
+      <c r="H559" s="2"/>
+      <c r="I559" s="2"/>
+      <c r="J559" s="2"/>
+      <c r="K559" s="2"/>
+      <c r="L559" s="2"/>
+      <c r="M559" s="2"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="A560" s="1">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="B560" s="21">
+        <v>44479.0</v>
+      </c>
+      <c r="C560" s="2"/>
+      <c r="D560" s="2"/>
+      <c r="E560" s="2"/>
+      <c r="F560" s="2"/>
+      <c r="G560" s="2"/>
+      <c r="H560" s="2"/>
+      <c r="I560" s="2"/>
+      <c r="J560" s="2"/>
+      <c r="K560" s="2"/>
+      <c r="L560" s="2"/>
+      <c r="M560" s="2"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="A561" s="1">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+      <c r="B561" s="21">
+        <v>44480.0</v>
+      </c>
+      <c r="C561" s="2"/>
+      <c r="D561" s="2"/>
+      <c r="E561" s="2"/>
+      <c r="F561" s="2"/>
+      <c r="G561" s="2"/>
+      <c r="H561" s="2"/>
+      <c r="I561" s="2"/>
+      <c r="J561" s="2"/>
+      <c r="K561" s="2"/>
+      <c r="L561" s="2"/>
+      <c r="M561" s="2"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="A562" s="1">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="B562" s="21">
+        <v>44481.0</v>
+      </c>
+      <c r="C562" s="2"/>
+      <c r="D562" s="2"/>
+      <c r="E562" s="2"/>
+      <c r="F562" s="2"/>
+      <c r="G562" s="2"/>
+      <c r="H562" s="2"/>
+      <c r="I562" s="2"/>
+      <c r="J562" s="2"/>
+      <c r="K562" s="2"/>
+      <c r="L562" s="2"/>
+      <c r="M562" s="2"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="A563" s="1">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+      <c r="B563" s="21">
+        <v>44482.0</v>
+      </c>
+      <c r="C563" s="2"/>
+      <c r="D563" s="2"/>
+      <c r="E563" s="2"/>
+      <c r="F563" s="2"/>
+      <c r="G563" s="2"/>
+      <c r="H563" s="2"/>
+      <c r="I563" s="2"/>
+      <c r="J563" s="2"/>
+      <c r="K563" s="2"/>
+      <c r="L563" s="2"/>
+      <c r="M563" s="2"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="A564" s="1">
+        <f t="shared" si="1"/>
+        <v>562</v>
+      </c>
+      <c r="B564" s="21">
+        <v>44483.0</v>
+      </c>
+      <c r="C564" s="2"/>
+      <c r="D564" s="2"/>
+      <c r="E564" s="2"/>
+      <c r="F564" s="2"/>
+      <c r="G564" s="2"/>
+      <c r="H564" s="2"/>
+      <c r="I564" s="2"/>
+      <c r="J564" s="2"/>
+      <c r="K564" s="2"/>
+      <c r="L564" s="2"/>
+      <c r="M564" s="2"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="A565" s="1">
+        <f t="shared" si="1"/>
+        <v>563</v>
+      </c>
+      <c r="B565" s="21">
+        <v>44484.0</v>
+      </c>
+      <c r="C565" s="2"/>
+      <c r="D565" s="2"/>
+      <c r="E565" s="2"/>
+      <c r="F565" s="2"/>
+      <c r="G565" s="2"/>
+      <c r="H565" s="2"/>
+      <c r="I565" s="2"/>
+      <c r="J565" s="2"/>
+      <c r="K565" s="2"/>
+      <c r="L565" s="2"/>
+      <c r="M565" s="2"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="A566" s="1">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="B566" s="21">
+        <v>44485.0</v>
+      </c>
+      <c r="C566" s="2"/>
+      <c r="D566" s="2"/>
+      <c r="E566" s="2"/>
+      <c r="F566" s="2"/>
+      <c r="G566" s="2"/>
+      <c r="H566" s="2"/>
+      <c r="I566" s="2"/>
+      <c r="J566" s="2"/>
+      <c r="K566" s="2"/>
+      <c r="L566" s="2"/>
+      <c r="M566" s="2"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="A567" s="1">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+      <c r="B567" s="21">
+        <v>44486.0</v>
+      </c>
+      <c r="C567" s="2"/>
+      <c r="D567" s="2"/>
+      <c r="E567" s="2"/>
+      <c r="F567" s="2"/>
+      <c r="G567" s="2"/>
+      <c r="H567" s="2"/>
+      <c r="I567" s="2"/>
+      <c r="J567" s="2"/>
+      <c r="K567" s="2"/>
+      <c r="L567" s="2"/>
+      <c r="M567" s="2"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="A568" s="1">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="B568" s="21">
+        <v>44487.0</v>
+      </c>
+      <c r="C568" s="2"/>
+      <c r="D568" s="2"/>
+      <c r="E568" s="2"/>
+      <c r="F568" s="2"/>
+      <c r="G568" s="2"/>
+      <c r="H568" s="2"/>
+      <c r="I568" s="2"/>
+      <c r="J568" s="2"/>
+      <c r="K568" s="2"/>
+      <c r="L568" s="2"/>
+      <c r="M568" s="2"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="A569" s="1">
+        <f t="shared" si="1"/>
+        <v>567</v>
+      </c>
+      <c r="B569" s="21">
+        <v>44488.0</v>
+      </c>
+      <c r="C569" s="2"/>
+      <c r="D569" s="2"/>
+      <c r="E569" s="2"/>
+      <c r="F569" s="2"/>
+      <c r="G569" s="2"/>
+      <c r="H569" s="2"/>
+      <c r="I569" s="2"/>
+      <c r="J569" s="2"/>
+      <c r="K569" s="2"/>
+      <c r="L569" s="2"/>
+      <c r="M569" s="2"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="A570" s="1">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="B570" s="21">
+        <v>44489.0</v>
+      </c>
+      <c r="C570" s="2"/>
+      <c r="D570" s="2"/>
+      <c r="E570" s="2"/>
+      <c r="F570" s="2"/>
+      <c r="G570" s="2"/>
+      <c r="H570" s="2"/>
+      <c r="I570" s="2"/>
+      <c r="J570" s="2"/>
+      <c r="K570" s="2"/>
+      <c r="L570" s="2"/>
+      <c r="M570" s="2"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="A571" s="1">
+        <f t="shared" si="1"/>
+        <v>569</v>
+      </c>
+      <c r="B571" s="21">
+        <v>44490.0</v>
+      </c>
+      <c r="C571" s="2"/>
+      <c r="D571" s="2"/>
+      <c r="E571" s="2"/>
+      <c r="F571" s="2"/>
+      <c r="G571" s="2"/>
+      <c r="H571" s="2"/>
+      <c r="I571" s="2"/>
+      <c r="J571" s="2"/>
+      <c r="K571" s="2"/>
+      <c r="L571" s="2"/>
+      <c r="M571" s="2"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="A572" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="B572" s="21">
+        <v>44491.0</v>
+      </c>
+      <c r="C572" s="2"/>
+      <c r="D572" s="2"/>
+      <c r="E572" s="2"/>
+      <c r="F572" s="2"/>
+      <c r="G572" s="2"/>
+      <c r="H572" s="2"/>
+      <c r="I572" s="2"/>
+      <c r="J572" s="2"/>
+      <c r="K572" s="2"/>
+      <c r="L572" s="2"/>
+      <c r="M572" s="2"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="A573" s="1">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+      <c r="B573" s="21">
+        <v>44492.0</v>
+      </c>
+      <c r="C573" s="2"/>
+      <c r="D573" s="2"/>
+      <c r="E573" s="2"/>
+      <c r="F573" s="2"/>
+      <c r="G573" s="2"/>
+      <c r="H573" s="2"/>
+      <c r="I573" s="2"/>
+      <c r="J573" s="2"/>
+      <c r="K573" s="2"/>
+      <c r="L573" s="2"/>
+      <c r="M573" s="2"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="A574" s="1">
+        <f t="shared" si="1"/>
+        <v>572</v>
+      </c>
+      <c r="B574" s="21">
+        <v>44493.0</v>
+      </c>
+      <c r="C574" s="2"/>
+      <c r="D574" s="2"/>
+      <c r="E574" s="2"/>
+      <c r="F574" s="2"/>
+      <c r="G574" s="2"/>
+      <c r="H574" s="2"/>
+      <c r="I574" s="2"/>
+      <c r="J574" s="2"/>
+      <c r="K574" s="2"/>
+      <c r="L574" s="2"/>
+      <c r="M574" s="2"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="1">
+        <f t="shared" si="1"/>
+        <v>573</v>
+      </c>
+      <c r="B575" s="21">
+        <v>44494.0</v>
+      </c>
+      <c r="C575" s="2"/>
+      <c r="D575" s="2"/>
+      <c r="E575" s="2"/>
+      <c r="F575" s="2"/>
+      <c r="G575" s="2"/>
+      <c r="H575" s="2"/>
+      <c r="I575" s="2"/>
+      <c r="J575" s="2"/>
+      <c r="K575" s="2"/>
+      <c r="L575" s="2"/>
+      <c r="M575" s="2"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="A576" s="1">
+        <f t="shared" si="1"/>
+        <v>574</v>
+      </c>
+      <c r="B576" s="21">
+        <v>44495.0</v>
+      </c>
+      <c r="C576" s="2"/>
+      <c r="D576" s="2"/>
+      <c r="E576" s="2"/>
+      <c r="F576" s="2"/>
+      <c r="G576" s="2"/>
+      <c r="H576" s="2"/>
+      <c r="I576" s="2"/>
+      <c r="J576" s="2"/>
+      <c r="K576" s="2"/>
+      <c r="L576" s="2"/>
+      <c r="M576" s="2"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="A577" s="1">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="B577" s="21">
+        <v>44496.0</v>
+      </c>
+      <c r="C577" s="2"/>
+      <c r="D577" s="2"/>
+      <c r="E577" s="2"/>
+      <c r="F577" s="2"/>
+      <c r="G577" s="2"/>
+      <c r="H577" s="2"/>
+      <c r="I577" s="2"/>
+      <c r="J577" s="2"/>
+      <c r="K577" s="2"/>
+      <c r="L577" s="2"/>
+      <c r="M577" s="2"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="A578" s="1">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="B578" s="21">
+        <v>44497.0</v>
+      </c>
+      <c r="C578" s="2"/>
+      <c r="D578" s="2"/>
+      <c r="E578" s="2"/>
+      <c r="F578" s="2"/>
+      <c r="G578" s="2"/>
+      <c r="H578" s="2"/>
+      <c r="I578" s="2"/>
+      <c r="J578" s="2"/>
+      <c r="K578" s="2"/>
+      <c r="L578" s="2"/>
+      <c r="M578" s="2"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="A579" s="1">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+      <c r="B579" s="21">
+        <v>44498.0</v>
+      </c>
+      <c r="C579" s="2"/>
+      <c r="D579" s="2"/>
+      <c r="E579" s="2"/>
+      <c r="F579" s="2"/>
+      <c r="G579" s="2"/>
+      <c r="H579" s="2"/>
+      <c r="I579" s="2"/>
+      <c r="J579" s="2"/>
+      <c r="K579" s="2"/>
+      <c r="L579" s="2"/>
+      <c r="M579" s="2"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="A580" s="1">
+        <f t="shared" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="B580" s="21">
+        <v>44499.0</v>
+      </c>
+      <c r="C580" s="2"/>
+      <c r="D580" s="2"/>
+      <c r="E580" s="2"/>
+      <c r="F580" s="2"/>
+      <c r="G580" s="2"/>
+      <c r="H580" s="2"/>
+      <c r="I580" s="2"/>
+      <c r="J580" s="2"/>
+      <c r="K580" s="2"/>
+      <c r="L580" s="2"/>
+      <c r="M580" s="2"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="A581" s="1">
+        <f t="shared" si="1"/>
+        <v>579</v>
+      </c>
+      <c r="B581" s="21">
+        <v>44500.0</v>
+      </c>
+      <c r="C581" s="2"/>
+      <c r="D581" s="2"/>
+      <c r="E581" s="2"/>
+      <c r="F581" s="2"/>
+      <c r="G581" s="2"/>
+      <c r="H581" s="2"/>
+      <c r="I581" s="2"/>
+      <c r="J581" s="2"/>
+      <c r="K581" s="2"/>
+      <c r="L581" s="2"/>
+      <c r="M581" s="2"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="A582" s="19"/>
+    </row>
     <row r="583" ht="15.75" customHeight="1"/>
     <row r="584" ht="15.75" customHeight="1"/>
     <row r="585" ht="15.75" customHeight="1"/>
@@ -18684,7 +19611,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{88A7EE37-FF51-4D26-B0DB-7723BB5C1D1C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B5C5D958-6324-40D8-B4E1-76BBA7389C94}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/Araraquara_covid.xlsx
+++ b/Araraquara_covid.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Araraquara covid.csv" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_B5C5D958_6324_40D8_B4E1_76BBA7389C94_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D43912C3_DA06_41C2_8E8C_8C4107953FBA_.wvu.FilterData">'Araraquara covid.csv'!$G$9</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B5C5D958-6324-40D8-B4E1-76BBA7389C94}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D43912C3-DA06-41C2-8E8C-8C4107953FBA}" name="Filtro 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -123,7 +123,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhsCv6ErEnzZl9lc9UDQB1vUrdLhw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjh5M2JocVpcEKsouFieT0vYWv57w=="/>
     </ext>
   </extLst>
 </comments>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,12 +319,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -644,7 +638,7 @@
         <v>5.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D552" si="2">(C3-C2)</f>
+        <f t="shared" ref="D3:D560" si="2">(C3-C2)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -18014,38 +18008,38 @@
       <c r="B539" s="5">
         <v>44458.0</v>
       </c>
-      <c r="C539" s="19">
+      <c r="C539" s="1">
         <v>29951.0</v>
       </c>
       <c r="D539" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E539" s="19">
+      <c r="E539" s="1">
         <v>584.0</v>
       </c>
-      <c r="F539" s="19">
+      <c r="F539" s="1">
         <v>18.0</v>
       </c>
-      <c r="G539" s="19">
+      <c r="G539" s="1">
         <v>17.0</v>
       </c>
-      <c r="H539" s="19">
+      <c r="H539" s="1">
         <v>5.0</v>
       </c>
-      <c r="I539" s="19">
+      <c r="I539" s="1">
         <v>192410.0</v>
       </c>
-      <c r="J539" s="19">
+      <c r="J539" s="1">
         <v>125022.0</v>
       </c>
-      <c r="K539" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L539" s="19">
+      <c r="K539" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L539" s="1">
         <v>890.0</v>
       </c>
-      <c r="M539" s="19">
+      <c r="M539" s="1">
         <v>318322.0</v>
       </c>
     </row>
@@ -18057,38 +18051,38 @@
       <c r="B540" s="5">
         <v>44459.0</v>
       </c>
-      <c r="C540" s="19">
+      <c r="C540" s="1">
         <v>29956.0</v>
       </c>
       <c r="D540" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E540" s="19">
+      <c r="E540" s="1">
         <v>584.0</v>
       </c>
-      <c r="F540" s="19">
+      <c r="F540" s="1">
         <v>18.0</v>
       </c>
-      <c r="G540" s="19">
+      <c r="G540" s="1">
         <v>17.0</v>
       </c>
-      <c r="H540" s="19">
+      <c r="H540" s="1">
         <v>5.0</v>
       </c>
-      <c r="I540" s="19">
+      <c r="I540" s="1">
         <v>192472.0</v>
       </c>
-      <c r="J540" s="19">
+      <c r="J540" s="1">
         <v>125409.0</v>
       </c>
-      <c r="K540" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L540" s="19">
+      <c r="K540" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L540" s="1">
         <v>900.0</v>
       </c>
-      <c r="M540" s="19">
+      <c r="M540" s="1">
         <v>318781.0</v>
       </c>
     </row>
@@ -18100,38 +18094,38 @@
       <c r="B541" s="5">
         <v>44460.0</v>
       </c>
-      <c r="C541" s="19">
+      <c r="C541" s="1">
         <v>30014.0</v>
       </c>
       <c r="D541" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="E541" s="19">
+      <c r="E541" s="1">
         <v>584.0</v>
       </c>
-      <c r="F541" s="19">
+      <c r="F541" s="1">
         <v>17.0</v>
       </c>
-      <c r="G541" s="19">
+      <c r="G541" s="1">
         <v>16.0</v>
       </c>
-      <c r="H541" s="19">
+      <c r="H541" s="1">
         <v>5.0</v>
       </c>
-      <c r="I541" s="19">
+      <c r="I541" s="1">
         <v>192943.0</v>
       </c>
-      <c r="J541" s="19">
+      <c r="J541" s="1">
         <v>127253.0</v>
       </c>
-      <c r="K541" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L541" s="19">
+      <c r="K541" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L541" s="1">
         <v>979.0</v>
       </c>
-      <c r="M541" s="19">
+      <c r="M541" s="1">
         <v>321175.0</v>
       </c>
     </row>
@@ -18143,38 +18137,38 @@
       <c r="B542" s="5">
         <v>44461.0</v>
       </c>
-      <c r="C542" s="19">
+      <c r="C542" s="1">
         <v>30053.0</v>
       </c>
       <c r="D542" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E542" s="19">
+      <c r="E542" s="1">
         <v>584.0</v>
       </c>
-      <c r="F542" s="19">
+      <c r="F542" s="1">
         <v>17.0</v>
       </c>
-      <c r="G542" s="19">
+      <c r="G542" s="1">
         <v>16.0</v>
       </c>
-      <c r="H542" s="19">
+      <c r="H542" s="1">
         <v>4.0</v>
       </c>
-      <c r="I542" s="19">
+      <c r="I542" s="1">
         <v>193302.0</v>
       </c>
-      <c r="J542" s="19">
+      <c r="J542" s="1">
         <v>129966.0</v>
       </c>
-      <c r="K542" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L542" s="19">
+      <c r="K542" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L542" s="1">
         <v>1129.0</v>
       </c>
-      <c r="M542" s="19">
+      <c r="M542" s="1">
         <v>324397.0</v>
       </c>
     </row>
@@ -18186,38 +18180,38 @@
       <c r="B543" s="5">
         <v>44462.0</v>
       </c>
-      <c r="C543" s="19">
+      <c r="C543" s="1">
         <v>30115.0</v>
       </c>
       <c r="D543" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="E543" s="19">
+      <c r="E543" s="1">
         <v>584.0</v>
       </c>
-      <c r="F543" s="19">
+      <c r="F543" s="1">
         <v>14.0</v>
       </c>
-      <c r="G543" s="19">
+      <c r="G543" s="1">
         <v>14.0</v>
       </c>
-      <c r="H543" s="19">
+      <c r="H543" s="1">
         <v>4.0</v>
       </c>
-      <c r="I543" s="19">
+      <c r="I543" s="1">
         <v>193558.0</v>
       </c>
-      <c r="J543" s="19">
+      <c r="J543" s="1">
         <v>132558.0</v>
       </c>
-      <c r="K543" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L543" s="19">
+      <c r="K543" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L543" s="1">
         <v>1408.0</v>
       </c>
-      <c r="M543" s="19">
+      <c r="M543" s="1">
         <v>327524.0</v>
       </c>
     </row>
@@ -18229,38 +18223,38 @@
       <c r="B544" s="5">
         <v>44463.0</v>
       </c>
-      <c r="C544" s="19">
+      <c r="C544" s="1">
         <v>30144.0</v>
       </c>
       <c r="D544" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E544" s="19">
+      <c r="E544" s="1">
         <v>584.0</v>
       </c>
-      <c r="F544" s="19">
+      <c r="F544" s="1">
         <v>18.0</v>
       </c>
-      <c r="G544" s="19">
+      <c r="G544" s="1">
         <v>16.0</v>
       </c>
-      <c r="H544" s="19">
+      <c r="H544" s="1">
         <v>8.0</v>
       </c>
-      <c r="I544" s="19">
+      <c r="I544" s="1">
         <v>193860.0</v>
       </c>
-      <c r="J544" s="19">
+      <c r="J544" s="1">
         <v>135291.0</v>
       </c>
-      <c r="K544" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L544" s="19">
+      <c r="K544" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L544" s="1">
         <v>1512.0</v>
       </c>
-      <c r="M544" s="19">
+      <c r="M544" s="1">
         <v>330663.0</v>
       </c>
     </row>
@@ -18272,38 +18266,38 @@
       <c r="B545" s="5">
         <v>44464.0</v>
       </c>
-      <c r="C545" s="19">
+      <c r="C545" s="1">
         <v>30186.0</v>
       </c>
       <c r="D545" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="E545" s="19">
+      <c r="E545" s="1">
         <v>584.0</v>
       </c>
-      <c r="F545" s="19">
+      <c r="F545" s="1">
         <v>15.0</v>
       </c>
-      <c r="G545" s="19">
+      <c r="G545" s="1">
         <v>14.0</v>
       </c>
-      <c r="H545" s="19">
+      <c r="H545" s="1">
         <v>7.0</v>
       </c>
-      <c r="I545" s="19">
+      <c r="I545" s="1">
         <v>194056.0</v>
       </c>
-      <c r="J545" s="19">
+      <c r="J545" s="1">
         <v>138108.0</v>
       </c>
-      <c r="K545" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L545" s="19">
+      <c r="K545" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L545" s="1">
         <v>1681.0</v>
       </c>
-      <c r="M545" s="19">
+      <c r="M545" s="1">
         <v>333845.0</v>
       </c>
     </row>
@@ -18315,38 +18309,38 @@
       <c r="B546" s="5">
         <v>44465.0</v>
       </c>
-      <c r="C546" s="19">
+      <c r="C546" s="1">
         <v>30224.0</v>
       </c>
       <c r="D546" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E546" s="19">
+      <c r="E546" s="1">
         <v>585.0</v>
       </c>
-      <c r="F546" s="19">
+      <c r="F546" s="1">
         <v>17.0</v>
       </c>
-      <c r="G546" s="19">
+      <c r="G546" s="1">
         <v>14.0</v>
       </c>
-      <c r="H546" s="19">
+      <c r="H546" s="1">
         <v>7.0</v>
       </c>
-      <c r="I546" s="19">
+      <c r="I546" s="1">
         <v>194187.0</v>
       </c>
-      <c r="J546" s="19">
+      <c r="J546" s="1">
         <v>139779.0</v>
       </c>
-      <c r="K546" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L546" s="19">
+      <c r="K546" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L546" s="1">
         <v>1770.0</v>
       </c>
-      <c r="M546" s="19">
+      <c r="M546" s="1">
         <v>335736.0</v>
       </c>
     </row>
@@ -18358,38 +18352,38 @@
       <c r="B547" s="5">
         <v>44466.0</v>
       </c>
-      <c r="C547" s="19">
+      <c r="C547" s="1">
         <v>30237.0</v>
       </c>
       <c r="D547" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E547" s="19">
+      <c r="E547" s="1">
         <v>586.0</v>
       </c>
-      <c r="F547" s="19">
+      <c r="F547" s="1">
         <v>19.0</v>
       </c>
-      <c r="G547" s="19">
+      <c r="G547" s="1">
         <v>15.0</v>
       </c>
-      <c r="H547" s="19">
+      <c r="H547" s="1">
         <v>7.0</v>
       </c>
-      <c r="I547" s="19">
+      <c r="I547" s="1">
         <v>194191.0</v>
       </c>
-      <c r="J547" s="20">
+      <c r="J547" s="15">
         <v>139794.0</v>
       </c>
-      <c r="K547" s="19">
+      <c r="K547" s="1">
         <v>0.0</v>
       </c>
       <c r="L547" s="16">
         <v>1770.0</v>
       </c>
-      <c r="M547" s="19">
+      <c r="M547" s="1">
         <v>335755.0</v>
       </c>
     </row>
@@ -18401,38 +18395,38 @@
       <c r="B548" s="5">
         <v>44467.0</v>
       </c>
-      <c r="C548" s="19">
+      <c r="C548" s="1">
         <v>30270.0</v>
       </c>
       <c r="D548" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E548" s="19">
+      <c r="E548" s="1">
         <v>586.0</v>
       </c>
-      <c r="F548" s="19">
+      <c r="F548" s="1">
         <v>19.0</v>
       </c>
-      <c r="G548" s="19">
+      <c r="G548" s="1">
         <v>16.0</v>
       </c>
-      <c r="H548" s="19">
+      <c r="H548" s="1">
         <v>7.0</v>
       </c>
-      <c r="I548" s="19">
+      <c r="I548" s="1">
         <v>194366.0</v>
       </c>
-      <c r="J548" s="19">
+      <c r="J548" s="1">
         <v>141731.0</v>
       </c>
-      <c r="K548" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L548" s="19">
+      <c r="K548" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L548" s="1">
         <v>1796.0</v>
       </c>
-      <c r="M548" s="19">
+      <c r="M548" s="1">
         <v>337893.0</v>
       </c>
     </row>
@@ -18444,38 +18438,38 @@
       <c r="B549" s="5">
         <v>44468.0</v>
       </c>
-      <c r="C549" s="19">
+      <c r="C549" s="1">
         <v>30298.0</v>
       </c>
       <c r="D549" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E549" s="19">
+      <c r="E549" s="1">
         <v>586.0</v>
       </c>
-      <c r="F549" s="19">
+      <c r="F549" s="1">
         <v>19.0</v>
       </c>
-      <c r="G549" s="19">
+      <c r="G549" s="1">
         <v>17.0</v>
       </c>
-      <c r="H549" s="19">
+      <c r="H549" s="1">
         <v>6.0</v>
       </c>
-      <c r="I549" s="19">
+      <c r="I549" s="1">
         <v>194690.0</v>
       </c>
-      <c r="J549" s="19">
+      <c r="J549" s="1">
         <v>145463.0</v>
       </c>
-      <c r="K549" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L549" s="19">
+      <c r="K549" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L549" s="1">
         <v>1939.0</v>
       </c>
-      <c r="M549" s="19">
+      <c r="M549" s="1">
         <v>342092.0</v>
       </c>
     </row>
@@ -18487,38 +18481,38 @@
       <c r="B550" s="5">
         <v>44469.0</v>
       </c>
-      <c r="C550" s="19">
+      <c r="C550" s="1">
         <v>30328.0</v>
       </c>
       <c r="D550" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E550" s="19">
+      <c r="E550" s="1">
         <v>586.0</v>
       </c>
-      <c r="F550" s="19">
+      <c r="F550" s="1">
         <v>18.0</v>
       </c>
-      <c r="G550" s="19">
+      <c r="G550" s="1">
         <v>15.0</v>
       </c>
-      <c r="H550" s="19">
+      <c r="H550" s="1">
         <v>8.0</v>
       </c>
-      <c r="I550" s="19">
+      <c r="I550" s="1">
         <v>195016.0</v>
       </c>
-      <c r="J550" s="19">
+      <c r="J550" s="1">
         <v>148922.0</v>
       </c>
-      <c r="K550" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L550" s="19">
+      <c r="K550" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L550" s="1">
         <v>2136.0</v>
       </c>
-      <c r="M550" s="19">
+      <c r="M550" s="1">
         <v>346074.0</v>
       </c>
     </row>
@@ -18527,41 +18521,41 @@
         <f t="shared" si="1"/>
         <v>549</v>
       </c>
-      <c r="B551" s="21">
+      <c r="B551" s="5">
         <v>44470.0</v>
       </c>
-      <c r="C551" s="19">
+      <c r="C551" s="1">
         <v>30347.0</v>
       </c>
       <c r="D551" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E551" s="19">
+      <c r="E551" s="1">
         <v>586.0</v>
       </c>
-      <c r="F551" s="19">
+      <c r="F551" s="1">
         <v>20.0</v>
       </c>
-      <c r="G551" s="19">
+      <c r="G551" s="1">
         <v>18.0</v>
       </c>
-      <c r="H551" s="19">
+      <c r="H551" s="1">
         <v>8.0</v>
       </c>
-      <c r="I551" s="19">
+      <c r="I551" s="1">
         <v>195272.0</v>
       </c>
-      <c r="J551" s="19">
+      <c r="J551" s="1">
         <v>150761.0</v>
       </c>
-      <c r="K551" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L551" s="19">
+      <c r="K551" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L551" s="1">
         <v>2290.0</v>
       </c>
-      <c r="M551" s="19">
+      <c r="M551" s="1">
         <v>348323.0</v>
       </c>
     </row>
@@ -18570,41 +18564,41 @@
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="B552" s="21">
+      <c r="B552" s="5">
         <v>44471.0</v>
       </c>
-      <c r="C552" s="19">
+      <c r="C552" s="1">
         <v>30366.0</v>
       </c>
       <c r="D552" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E552" s="19">
+      <c r="E552" s="1">
         <v>586.0</v>
       </c>
-      <c r="F552" s="19">
+      <c r="F552" s="1">
         <v>18.0</v>
       </c>
-      <c r="G552" s="19">
+      <c r="G552" s="1">
         <v>18.0</v>
       </c>
-      <c r="H552" s="19">
+      <c r="H552" s="1">
         <v>9.0</v>
       </c>
-      <c r="I552" s="19">
+      <c r="I552" s="1">
         <v>195552.0</v>
       </c>
-      <c r="J552" s="19">
+      <c r="J552" s="1">
         <v>152424.0</v>
       </c>
-      <c r="K552" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L552" s="19">
+      <c r="K552" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L552" s="1">
         <v>2375.0</v>
       </c>
-      <c r="M552" s="19">
+      <c r="M552" s="1">
         <v>350351.0</v>
       </c>
     </row>
@@ -18613,167 +18607,351 @@
         <f t="shared" si="1"/>
         <v>551</v>
       </c>
-      <c r="B553" s="21">
+      <c r="B553" s="5">
         <v>44472.0</v>
       </c>
-      <c r="C553" s="2"/>
-      <c r="D553" s="2"/>
-      <c r="E553" s="2"/>
-      <c r="F553" s="2"/>
-      <c r="G553" s="2"/>
-      <c r="H553" s="2"/>
-      <c r="I553" s="2"/>
-      <c r="J553" s="2"/>
-      <c r="K553" s="2"/>
-      <c r="L553" s="2"/>
-      <c r="M553" s="2"/>
+      <c r="C553" s="1">
+        <v>30381.0</v>
+      </c>
+      <c r="D553" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E553" s="1">
+        <v>588.0</v>
+      </c>
+      <c r="F553" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G553" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H553" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I553" s="1">
+        <v>195786.0</v>
+      </c>
+      <c r="J553" s="1">
+        <v>153544.0</v>
+      </c>
+      <c r="K553" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L553" s="1">
+        <v>2409.0</v>
+      </c>
+      <c r="M553" s="1">
+        <v>351739.0</v>
+      </c>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="1">
         <f t="shared" si="1"/>
         <v>552</v>
       </c>
-      <c r="B554" s="21">
+      <c r="B554" s="5">
         <v>44473.0</v>
       </c>
-      <c r="C554" s="2"/>
-      <c r="D554" s="2"/>
-      <c r="E554" s="2"/>
-      <c r="F554" s="2"/>
-      <c r="G554" s="2"/>
-      <c r="H554" s="2"/>
-      <c r="I554" s="2"/>
-      <c r="J554" s="2"/>
-      <c r="K554" s="2"/>
-      <c r="L554" s="2"/>
-      <c r="M554" s="2"/>
+      <c r="C554" s="1">
+        <v>30382.0</v>
+      </c>
+      <c r="D554" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E554" s="1">
+        <v>588.0</v>
+      </c>
+      <c r="F554" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G554" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H554" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I554" s="1">
+        <v>195865.0</v>
+      </c>
+      <c r="J554" s="1">
+        <v>153780.0</v>
+      </c>
+      <c r="K554" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L554" s="1">
+        <v>2413.0</v>
+      </c>
+      <c r="M554" s="1">
+        <v>352058.0</v>
+      </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="1">
         <f t="shared" si="1"/>
         <v>553</v>
       </c>
-      <c r="B555" s="21">
+      <c r="B555" s="5">
         <v>44474.0</v>
       </c>
-      <c r="C555" s="2"/>
-      <c r="D555" s="2"/>
-      <c r="E555" s="2"/>
-      <c r="F555" s="2"/>
-      <c r="G555" s="2"/>
-      <c r="H555" s="2"/>
-      <c r="I555" s="2"/>
-      <c r="J555" s="2"/>
-      <c r="K555" s="2"/>
-      <c r="L555" s="2"/>
-      <c r="M555" s="2"/>
+      <c r="C555" s="1">
+        <v>30398.0</v>
+      </c>
+      <c r="D555" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E555" s="1">
+        <v>589.0</v>
+      </c>
+      <c r="F555" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G555" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H555" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I555" s="1">
+        <v>196053.0</v>
+      </c>
+      <c r="J555" s="1">
+        <v>154834.0</v>
+      </c>
+      <c r="K555" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L555" s="1">
+        <v>2467.0</v>
+      </c>
+      <c r="M555" s="1">
+        <v>353354.0</v>
+      </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="1">
         <f t="shared" si="1"/>
         <v>554</v>
       </c>
-      <c r="B556" s="21">
+      <c r="B556" s="5">
         <v>44475.0</v>
       </c>
-      <c r="C556" s="2"/>
-      <c r="D556" s="2"/>
-      <c r="E556" s="2"/>
-      <c r="F556" s="2"/>
-      <c r="G556" s="2"/>
-      <c r="H556" s="2"/>
-      <c r="I556" s="2"/>
-      <c r="J556" s="2"/>
-      <c r="K556" s="2"/>
-      <c r="L556" s="2"/>
-      <c r="M556" s="2"/>
+      <c r="C556" s="1">
+        <v>30424.0</v>
+      </c>
+      <c r="D556" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E556" s="1">
+        <v>589.0</v>
+      </c>
+      <c r="F556" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G556" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H556" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I556" s="1">
+        <v>196251.0</v>
+      </c>
+      <c r="J556" s="1">
+        <v>156712.0</v>
+      </c>
+      <c r="K556" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L556" s="1">
+        <v>2592.0</v>
+      </c>
+      <c r="M556" s="1">
+        <v>355555.0</v>
+      </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="1">
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
-      <c r="B557" s="21">
+      <c r="B557" s="5">
         <v>44476.0</v>
       </c>
-      <c r="C557" s="2"/>
-      <c r="D557" s="2"/>
-      <c r="E557" s="2"/>
-      <c r="F557" s="2"/>
-      <c r="G557" s="2"/>
-      <c r="H557" s="2"/>
-      <c r="I557" s="2"/>
-      <c r="J557" s="2"/>
-      <c r="K557" s="2"/>
-      <c r="L557" s="2"/>
-      <c r="M557" s="2"/>
+      <c r="C557" s="1">
+        <v>30436.0</v>
+      </c>
+      <c r="D557" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E557" s="1">
+        <v>591.0</v>
+      </c>
+      <c r="F557" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G557" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H557" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I557" s="1">
+        <v>196429.0</v>
+      </c>
+      <c r="J557" s="1">
+        <v>157796.0</v>
+      </c>
+      <c r="K557" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L557" s="1">
+        <v>3245.0</v>
+      </c>
+      <c r="M557" s="1">
+        <v>357470.0</v>
+      </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="1">
         <f t="shared" si="1"/>
         <v>556</v>
       </c>
-      <c r="B558" s="21">
+      <c r="B558" s="5">
         <v>44477.0</v>
       </c>
-      <c r="C558" s="2"/>
-      <c r="D558" s="2"/>
-      <c r="E558" s="2"/>
-      <c r="F558" s="2"/>
-      <c r="G558" s="2"/>
-      <c r="H558" s="2"/>
-      <c r="I558" s="2"/>
-      <c r="J558" s="2"/>
-      <c r="K558" s="2"/>
-      <c r="L558" s="2"/>
-      <c r="M558" s="2"/>
+      <c r="C558" s="19">
+        <v>30452.0</v>
+      </c>
+      <c r="D558" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E558" s="19">
+        <v>591.0</v>
+      </c>
+      <c r="F558" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="G558" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="H558" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I558" s="19">
+        <v>196594.0</v>
+      </c>
+      <c r="J558" s="19">
+        <v>158830.0</v>
+      </c>
+      <c r="K558" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L558" s="19">
+        <v>4087.0</v>
+      </c>
+      <c r="M558" s="19">
+        <v>359511.0</v>
+      </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="1">
         <f t="shared" si="1"/>
         <v>557</v>
       </c>
-      <c r="B559" s="21">
+      <c r="B559" s="5">
         <v>44478.0</v>
       </c>
-      <c r="C559" s="2"/>
-      <c r="D559" s="2"/>
-      <c r="E559" s="2"/>
-      <c r="F559" s="2"/>
-      <c r="G559" s="2"/>
-      <c r="H559" s="2"/>
-      <c r="I559" s="2"/>
-      <c r="J559" s="2"/>
-      <c r="K559" s="2"/>
-      <c r="L559" s="2"/>
-      <c r="M559" s="2"/>
+      <c r="C559" s="19">
+        <v>30463.0</v>
+      </c>
+      <c r="D559" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E559" s="19">
+        <v>592.0</v>
+      </c>
+      <c r="F559" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="G559" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="H559" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="I559" s="19">
+        <v>196742.0</v>
+      </c>
+      <c r="J559" s="19">
+        <v>160076.0</v>
+      </c>
+      <c r="K559" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L559" s="19">
+        <v>4547.0</v>
+      </c>
+      <c r="M559" s="19">
+        <v>361365.0</v>
+      </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="1">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="B560" s="21">
+      <c r="B560" s="5">
         <v>44479.0</v>
       </c>
-      <c r="C560" s="2"/>
-      <c r="D560" s="2"/>
-      <c r="E560" s="2"/>
-      <c r="F560" s="2"/>
-      <c r="G560" s="2"/>
-      <c r="H560" s="2"/>
-      <c r="I560" s="2"/>
-      <c r="J560" s="2"/>
-      <c r="K560" s="2"/>
-      <c r="L560" s="2"/>
-      <c r="M560" s="2"/>
+      <c r="C560" s="19">
+        <v>30470.0</v>
+      </c>
+      <c r="D560" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E560" s="19">
+        <v>592.0</v>
+      </c>
+      <c r="F560" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="G560" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="H560" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="I560" s="19">
+        <v>196742.0</v>
+      </c>
+      <c r="J560" s="19">
+        <v>160077.0</v>
+      </c>
+      <c r="K560" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L560" s="19">
+        <v>4559.0</v>
+      </c>
+      <c r="M560" s="19">
+        <v>361378.0</v>
+      </c>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="1">
         <f t="shared" si="1"/>
         <v>559</v>
       </c>
-      <c r="B561" s="21">
+      <c r="B561" s="5">
         <v>44480.0</v>
       </c>
       <c r="C561" s="2"/>
@@ -18793,7 +18971,7 @@
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="B562" s="21">
+      <c r="B562" s="5">
         <v>44481.0</v>
       </c>
       <c r="C562" s="2"/>
@@ -18813,7 +18991,7 @@
         <f t="shared" si="1"/>
         <v>561</v>
       </c>
-      <c r="B563" s="21">
+      <c r="B563" s="5">
         <v>44482.0</v>
       </c>
       <c r="C563" s="2"/>
@@ -18833,7 +19011,7 @@
         <f t="shared" si="1"/>
         <v>562</v>
       </c>
-      <c r="B564" s="21">
+      <c r="B564" s="5">
         <v>44483.0</v>
       </c>
       <c r="C564" s="2"/>
@@ -18853,7 +19031,7 @@
         <f t="shared" si="1"/>
         <v>563</v>
       </c>
-      <c r="B565" s="21">
+      <c r="B565" s="5">
         <v>44484.0</v>
       </c>
       <c r="C565" s="2"/>
@@ -18873,7 +19051,7 @@
         <f t="shared" si="1"/>
         <v>564</v>
       </c>
-      <c r="B566" s="21">
+      <c r="B566" s="5">
         <v>44485.0</v>
       </c>
       <c r="C566" s="2"/>
@@ -18893,7 +19071,7 @@
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="B567" s="21">
+      <c r="B567" s="5">
         <v>44486.0</v>
       </c>
       <c r="C567" s="2"/>
@@ -18913,7 +19091,7 @@
         <f t="shared" si="1"/>
         <v>566</v>
       </c>
-      <c r="B568" s="21">
+      <c r="B568" s="5">
         <v>44487.0</v>
       </c>
       <c r="C568" s="2"/>
@@ -18933,7 +19111,7 @@
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
-      <c r="B569" s="21">
+      <c r="B569" s="5">
         <v>44488.0</v>
       </c>
       <c r="C569" s="2"/>
@@ -18953,7 +19131,7 @@
         <f t="shared" si="1"/>
         <v>568</v>
       </c>
-      <c r="B570" s="21">
+      <c r="B570" s="5">
         <v>44489.0</v>
       </c>
       <c r="C570" s="2"/>
@@ -18973,7 +19151,7 @@
         <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="B571" s="21">
+      <c r="B571" s="5">
         <v>44490.0</v>
       </c>
       <c r="C571" s="2"/>
@@ -18993,7 +19171,7 @@
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="B572" s="21">
+      <c r="B572" s="5">
         <v>44491.0</v>
       </c>
       <c r="C572" s="2"/>
@@ -19013,7 +19191,7 @@
         <f t="shared" si="1"/>
         <v>571</v>
       </c>
-      <c r="B573" s="21">
+      <c r="B573" s="5">
         <v>44492.0</v>
       </c>
       <c r="C573" s="2"/>
@@ -19033,7 +19211,7 @@
         <f t="shared" si="1"/>
         <v>572</v>
       </c>
-      <c r="B574" s="21">
+      <c r="B574" s="5">
         <v>44493.0</v>
       </c>
       <c r="C574" s="2"/>
@@ -19053,7 +19231,7 @@
         <f t="shared" si="1"/>
         <v>573</v>
       </c>
-      <c r="B575" s="21">
+      <c r="B575" s="5">
         <v>44494.0</v>
       </c>
       <c r="C575" s="2"/>
@@ -19073,7 +19251,7 @@
         <f t="shared" si="1"/>
         <v>574</v>
       </c>
-      <c r="B576" s="21">
+      <c r="B576" s="5">
         <v>44495.0</v>
       </c>
       <c r="C576" s="2"/>
@@ -19093,7 +19271,7 @@
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="B577" s="21">
+      <c r="B577" s="5">
         <v>44496.0</v>
       </c>
       <c r="C577" s="2"/>
@@ -19113,7 +19291,7 @@
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="B578" s="21">
+      <c r="B578" s="5">
         <v>44497.0</v>
       </c>
       <c r="C578" s="2"/>
@@ -19133,7 +19311,7 @@
         <f t="shared" si="1"/>
         <v>577</v>
       </c>
-      <c r="B579" s="21">
+      <c r="B579" s="5">
         <v>44498.0</v>
       </c>
       <c r="C579" s="2"/>
@@ -19153,7 +19331,7 @@
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
-      <c r="B580" s="21">
+      <c r="B580" s="5">
         <v>44499.0</v>
       </c>
       <c r="C580" s="2"/>
@@ -19173,7 +19351,7 @@
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
-      <c r="B581" s="21">
+      <c r="B581" s="5">
         <v>44500.0</v>
       </c>
       <c r="C581" s="2"/>
@@ -19189,7 +19367,7 @@
       <c r="M581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="19"/>
+      <c r="A582" s="1"/>
     </row>
     <row r="583" ht="15.75" customHeight="1"/>
     <row r="584" ht="15.75" customHeight="1"/>
@@ -19611,7 +19789,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B5C5D958-6324-40D8-B4E1-76BBA7389C94}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D43912C3-DA06-41C2-8E8C-8C4107953FBA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$9"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
